--- a/on_trucks/Processed_Stand_Alone/11_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/11_225-80R17.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>131</v>
       </c>
       <c r="E2">
-        <v>0.0149046238072404</v>
+        <v>0.01428337551834045</v>
       </c>
       <c r="F2">
         <v>0.5169518557624955</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>98</v>
       </c>
       <c r="E3">
-        <v>0.01803622669658617</v>
+        <v>0.005494772194819301</v>
       </c>
       <c r="F3">
         <v>0.5048357720154764</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>98</v>
       </c>
       <c r="E4">
-        <v>0.03823286147936103</v>
+        <v>0.005674122027836288</v>
       </c>
       <c r="F4">
         <v>0.5130019244710307</v>
       </c>
       <c r="G4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>132</v>
       </c>
       <c r="E5">
-        <v>0.008494332084136642</v>
+        <v>0.008391815036828829</v>
       </c>
       <c r="F5">
         <v>0.5216500594703132</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>97</v>
       </c>
       <c r="E6">
-        <v>0.004997576387894685</v>
+        <v>0.004997065866706255</v>
       </c>
       <c r="F6">
         <v>0.5084256170823866</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>141</v>
       </c>
       <c r="E2">
-        <v>0.0149046238072404</v>
+        <v>0.01428337551834045</v>
       </c>
       <c r="F2">
         <v>0.7372079990632482</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>109</v>
       </c>
       <c r="E3">
-        <v>0.01803622669658617</v>
+        <v>0.005494772194819301</v>
       </c>
       <c r="F3">
         <v>0.7101755198916659</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>109</v>
       </c>
       <c r="E4">
-        <v>0.03823286147936103</v>
+        <v>0.005674122027836288</v>
       </c>
       <c r="F4">
         <v>0.7086253073250183</v>
       </c>
       <c r="G4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>141</v>
       </c>
       <c r="E5">
-        <v>0.008494332084136642</v>
+        <v>0.008391815036828829</v>
       </c>
       <c r="F5">
         <v>0.7150331546860301</v>
       </c>
       <c r="G5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>108</v>
       </c>
       <c r="E6">
-        <v>0.004997576387894685</v>
+        <v>0.004997065866706255</v>
       </c>
       <c r="F6">
         <v>0.7117329516751483</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>148</v>
       </c>
       <c r="E2">
-        <v>0.0149046238072404</v>
+        <v>0.01428337551834045</v>
       </c>
       <c r="F2">
         <v>0.8033229291446328</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>126</v>
       </c>
       <c r="E3">
-        <v>0.01803622669658617</v>
+        <v>0.005494772194819301</v>
       </c>
       <c r="F3">
         <v>0.8116514580633916</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>125</v>
       </c>
       <c r="E4">
-        <v>0.03823286147936103</v>
+        <v>0.005674122027836288</v>
       </c>
       <c r="F4">
         <v>0.8074911679908405</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>149</v>
       </c>
       <c r="E5">
-        <v>0.008494332084136642</v>
+        <v>0.008391815036828829</v>
       </c>
       <c r="F5">
         <v>0.8006862347579543</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>124</v>
       </c>
       <c r="E6">
-        <v>0.004997576387894685</v>
+        <v>0.004997065866706255</v>
       </c>
       <c r="F6">
         <v>0.8021278162466698</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>167</v>
       </c>
       <c r="E2">
-        <v>0.0149046238072404</v>
+        <v>0.01428337551834045</v>
       </c>
       <c r="F2">
         <v>0.9020180491081894</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>160</v>
       </c>
       <c r="E3">
-        <v>0.01803622669658617</v>
+        <v>0.005494772194819301</v>
       </c>
       <c r="F3">
         <v>0.903330848788686</v>
       </c>
       <c r="G3">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>159</v>
       </c>
       <c r="E4">
-        <v>0.03823286147936103</v>
+        <v>0.005674122027836288</v>
       </c>
       <c r="F4">
         <v>0.9021159973037143</v>
       </c>
       <c r="G4">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>167</v>
       </c>
       <c r="E5">
-        <v>0.008494332084136642</v>
+        <v>0.008391815036828829</v>
       </c>
       <c r="F5">
         <v>0.9025045575711567</v>
       </c>
       <c r="G5">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>159</v>
       </c>
       <c r="E6">
-        <v>0.004997576387894685</v>
+        <v>0.004997065866706255</v>
       </c>
       <c r="F6">
         <v>0.9057363579475506</v>
       </c>
       <c r="G6">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H6">
         <v>11</v>

--- a/on_trucks/Processed_Stand_Alone/11_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/11_225-80R17.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.611908231573628E-05</v>
+        <v>7.034896915318357E-05</v>
       </c>
       <c r="C2">
-        <v>7.683220233743121E-05</v>
+        <v>7.106288808282698E-05</v>
       </c>
       <c r="D2">
-        <v>6.826946207693086E-05</v>
+        <v>6.249055498935766E-05</v>
       </c>
       <c r="E2">
-        <v>0.0001499320445613145</v>
+        <v>0.0001442446240177395</v>
       </c>
       <c r="F2">
-        <v>0.0001138089394623577</v>
+        <v>0.000108081050225001</v>
       </c>
       <c r="G2">
-        <v>0.0001161405935332926</v>
+        <v>0.000110415316446645</v>
       </c>
       <c r="H2">
-        <v>0.0001353286041170407</v>
+        <v>0.0001296248233475692</v>
       </c>
       <c r="I2">
-        <v>8.514655259037492E-05</v>
+        <v>7.938655289755764E-05</v>
       </c>
       <c r="J2">
-        <v>8.946388272171909E-05</v>
+        <v>8.370871973135475E-05</v>
       </c>
       <c r="K2">
-        <v>5.32546456201419E-05</v>
+        <v>4.745891744236304E-05</v>
       </c>
       <c r="L2">
-        <v>2.059907862667642E-05</v>
+        <v>1.476676643605295E-05</v>
       </c>
       <c r="M2">
-        <v>1.69521775157284E-05</v>
+        <v>1.111577970389637E-05</v>
       </c>
       <c r="N2">
-        <v>1.628733149550209E-05</v>
+        <v>1.045018885705755E-05</v>
       </c>
       <c r="O2">
-        <v>5.84883687793651E-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.629597201689226E-08</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.037243892400692E-09</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.387309442205485E-05</v>
+        <v>8.033247115211114E-06</v>
       </c>
       <c r="S2">
-        <v>6.69530320368817E-05</v>
+        <v>6.117265015349486E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001144216134809968</v>
+        <v>0.0001086944106219893</v>
       </c>
       <c r="U2">
-        <v>0.0001278798038904292</v>
+        <v>0.0001221676782343655</v>
       </c>
       <c r="V2">
-        <v>0.0001203106696601569</v>
+        <v>0.000114590064307386</v>
       </c>
       <c r="W2">
-        <v>0.0001212067686874185</v>
+        <v>0.0001154871672338704</v>
       </c>
       <c r="X2">
-        <v>0.0001359966341373639</v>
+        <v>0.0001302936017615384</v>
       </c>
       <c r="Y2">
-        <v>0.0001567000047672131</v>
+        <v>0.0001510201663655483</v>
       </c>
       <c r="Z2">
-        <v>0.0001499686545624283</v>
+        <v>0.0001442812750330164</v>
       </c>
       <c r="AA2">
-        <v>0.0001567000047672131</v>
+        <v>0.0001510201663655483</v>
       </c>
       <c r="AB2">
-        <v>0.0001341013440797043</v>
+        <v>0.0001283961884115218</v>
       </c>
       <c r="AC2">
-        <v>8.367563254562578E-05</v>
+        <v>7.79139849819318E-05</v>
       </c>
       <c r="AD2">
-        <v>3.658687111306577E-05</v>
+        <v>3.077247003713206E-05</v>
       </c>
       <c r="AE2">
-        <v>8.944587772117134E-06</v>
+        <v>3.099219062119618E-06</v>
       </c>
       <c r="AF2">
-        <v>8.188576249117338E-08</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>5.84883687793651E-06</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.708761082407409E-05</v>
+        <v>2.126256773232432E-05</v>
       </c>
       <c r="AI2">
-        <v>7.144994217368915E-05</v>
+        <v>6.567459817613167E-05</v>
       </c>
       <c r="AJ2">
-        <v>0.0001143896334800239</v>
+        <v>0.0001086623947938398</v>
       </c>
       <c r="AK2">
-        <v>0.0002238871168112161</v>
+        <v>0.0002182825480923746</v>
       </c>
       <c r="AL2">
-        <v>0.0002803370385285665</v>
+        <v>0.0002747957106244258</v>
       </c>
       <c r="AM2">
-        <v>0.000374002161378098</v>
+        <v>0.0003685657664569952</v>
       </c>
       <c r="AN2">
-        <v>0.0003829919816515912</v>
+        <v>0.0003775656580209493</v>
       </c>
       <c r="AO2">
-        <v>0.0004460352535695281</v>
+        <v>0.0004406795572800091</v>
       </c>
       <c r="AP2">
-        <v>0.0003471665905616916</v>
+        <v>0.0003417001317661004</v>
       </c>
       <c r="AQ2">
-        <v>0.0002283833669480035</v>
+        <v>0.0002227838353755936</v>
       </c>
       <c r="AR2">
-        <v>0.0002238871168112161</v>
+        <v>0.0002182825480923746</v>
       </c>
       <c r="AS2">
-        <v>0.0001914020258229369</v>
+        <v>0.0001857610640754209</v>
       </c>
       <c r="AT2">
-        <v>0.0001103557833573039</v>
+        <v>0.0001046240255511568</v>
       </c>
       <c r="AU2">
-        <v>3.907596418879032E-05</v>
+        <v>3.326435164239191E-05</v>
       </c>
       <c r="AV2">
-        <v>5.086584854746862E-06</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>3.221124697994814E-06</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>4.151024926284747E-05</v>
+        <v>3.570136384461177E-05</v>
       </c>
       <c r="AY2">
-        <v>0.0001047493331867414</v>
+        <v>9.901129447770588E-05</v>
       </c>
       <c r="AZ2">
-        <v>0.0001869568256877026</v>
+        <v>0.0001813108839850422</v>
       </c>
       <c r="BA2">
-        <v>0.0002956083689931592</v>
+        <v>0.000290084149551719</v>
       </c>
       <c r="BB2">
-        <v>0.0003857151417344366</v>
+        <v>0.000380291868858463</v>
       </c>
       <c r="BC2">
-        <v>0.0003782775715081668</v>
+        <v>0.0003728459663265637</v>
       </c>
       <c r="BD2">
-        <v>0.000325784239911186</v>
+        <v>0.0003202938264805091</v>
       </c>
       <c r="BE2">
-        <v>0.0002970120790358637</v>
+        <v>0.0002914894321699737</v>
       </c>
       <c r="BF2">
-        <v>0.0002904899388374435</v>
+        <v>0.0002849599852216557</v>
       </c>
       <c r="BG2">
-        <v>0.0002611570879450635</v>
+        <v>0.0002555942727533603</v>
       </c>
       <c r="BH2">
-        <v>0.0002891017687952118</v>
+        <v>0.0002835702600133273</v>
       </c>
       <c r="BI2">
-        <v>0.0002284286069493798</v>
+        <v>0.0002228291260593174</v>
       </c>
       <c r="BJ2">
-        <v>0.0002032799061842923</v>
+        <v>0.0001976522512192858</v>
       </c>
       <c r="BK2">
-        <v>0.0001236126437606114</v>
+        <v>0.0001178957376075184</v>
       </c>
       <c r="BL2">
-        <v>2.199249566906771E-05</v>
+        <v>1.616174452275215E-05</v>
       </c>
       <c r="BM2">
-        <v>8.808220567968496E-07</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>1.890812757523338E-05</v>
+        <v>1.307392101312348E-05</v>
       </c>
       <c r="BO2">
-        <v>7.540929229414268E-05</v>
+        <v>6.963838395423867E-05</v>
       </c>
       <c r="BP2">
-        <v>0.0001777408354073288</v>
+        <v>0.0001720845690360793</v>
       </c>
       <c r="BQ2">
-        <v>0.0002611087079435917</v>
+        <v>0.0002555458385518007</v>
       </c>
       <c r="BR2">
-        <v>0.0004073039323912226</v>
+        <v>0.0004019048454249545</v>
       </c>
       <c r="BS2">
-        <v>0.0003750542314101046</v>
+        <v>0.0003696190151224511</v>
       </c>
       <c r="BT2">
-        <v>0.0003661586111394772</v>
+        <v>0.0003607134290935716</v>
       </c>
       <c r="BU2">
-        <v>0.0006071096184698203</v>
+        <v>0.0006019343736982807</v>
       </c>
       <c r="BV2">
-        <v>0.0005206798858404078</v>
+        <v>0.0005154078138893155</v>
       </c>
       <c r="BW2">
-        <v>0.0005016297152608531</v>
+        <v>0.0004963363014146618</v>
       </c>
       <c r="BX2">
-        <v>0.0004295425730677787</v>
+        <v>0.0004241684000378179</v>
       </c>
       <c r="BY2">
-        <v>0.0003371112102557813</v>
+        <v>0.0003316334864234402</v>
       </c>
       <c r="BZ2">
-        <v>0.0002032372361829942</v>
+        <v>0.0001976095334148098</v>
       </c>
       <c r="CA2">
-        <v>6.962365211812876E-05</v>
+        <v>6.384626212887669E-05</v>
       </c>
       <c r="CB2">
-        <v>1.045805931816079E-05</v>
+        <v>4.614386149462298E-06</v>
       </c>
       <c r="CC2">
-        <v>4.070770123843192E-07</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>2.196792666832026E-06</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1.821836055424891E-05</v>
+        <v>1.238338124654373E-05</v>
       </c>
       <c r="CF2">
-        <v>7.147521217445794E-05</v>
+        <v>6.569989648686773E-05</v>
       </c>
       <c r="CG2">
-        <v>0.000111819733401841</v>
+        <v>0.0001060896156580834</v>
       </c>
       <c r="CH2">
-        <v>0.000216670096591656</v>
+        <v>0.0002110574426492302</v>
       </c>
       <c r="CI2">
-        <v>0.0002438818974195083</v>
+        <v>0.0002382997288418354</v>
       </c>
       <c r="CJ2">
-        <v>0.0002970120790358637</v>
+        <v>0.0002914894321699737</v>
       </c>
       <c r="CK2">
-        <v>0.0002785695084747937</v>
+        <v>0.0002730262004077545</v>
       </c>
       <c r="CL2">
-        <v>0.0003426787804251609</v>
+        <v>0.0003372072939384654</v>
       </c>
       <c r="CM2">
-        <v>0.001416318843088025</v>
+        <v>0.001412050154943517</v>
       </c>
       <c r="CN2">
-        <v>0.09010195274113081</v>
+        <v>0.09019703851742747</v>
       </c>
       <c r="CO2">
-        <v>0.06715218204294035</v>
+        <v>0.06722155720437703</v>
       </c>
       <c r="CP2">
-        <v>0.009818960298717771</v>
+        <v>0.009824105084943588</v>
       </c>
       <c r="CQ2">
-        <v>0.001339531340751954</v>
+        <v>0.001335176627612923</v>
       </c>
       <c r="CR2">
-        <v>0.03074739193541395</v>
+        <v>0.03077598283151645</v>
       </c>
       <c r="CS2">
-        <v>0.006009873682835659</v>
+        <v>0.006010751151525402</v>
       </c>
       <c r="CT2">
-        <v>0.01913871458224843</v>
+        <v>0.01915430028381604</v>
       </c>
       <c r="CU2">
-        <v>0.002217778267470462</v>
+        <v>0.002214407453856257</v>
       </c>
       <c r="CV2">
-        <v>0.05068548554198152</v>
+        <v>0.05073641307283747</v>
       </c>
       <c r="CW2">
-        <v>0.01469714344712452</v>
+        <v>0.01470775325911441</v>
       </c>
       <c r="CX2">
-        <v>0.004862868847940851</v>
+        <v>0.004862461327776442</v>
       </c>
       <c r="CY2">
-        <v>9.627335692888063E-05</v>
+        <v>9.05258225885382E-05</v>
       </c>
       <c r="CZ2">
-        <v>0.01025189131188864</v>
+        <v>0.0102575211104785</v>
       </c>
       <c r="DA2">
-        <v>0.01020515731046687</v>
+        <v>0.01021073475298192</v>
       </c>
       <c r="DB2">
-        <v>0.003542082907759181</v>
+        <v>0.003540195711868722</v>
       </c>
       <c r="DC2">
-        <v>0.01455542844281319</v>
+        <v>0.01456587949156559</v>
       </c>
       <c r="DD2">
-        <v>0.01222983637206276</v>
+        <v>0.0122376820613613</v>
       </c>
       <c r="DE2">
-        <v>0.0002032372361829942</v>
+        <v>0.0001976095334148098</v>
       </c>
       <c r="DF2">
-        <v>0.02091502263628824</v>
+        <v>0.020932598334743</v>
       </c>
       <c r="DG2">
-        <v>0.01420340943210388</v>
+        <v>0.01421346611416186</v>
       </c>
       <c r="DH2">
-        <v>0.0004507031137115362</v>
+        <v>0.0004453526468230387</v>
       </c>
       <c r="DI2">
-        <v>0.0001716336452215325</v>
+        <v>0.0001659705369686447</v>
       </c>
       <c r="DJ2">
-        <v>0.001935521658883497</v>
+        <v>0.001931834633353692</v>
       </c>
       <c r="DK2">
-        <v>0.01911616058156227</v>
+        <v>0.01913172101589595</v>
       </c>
       <c r="DL2">
-        <v>0.003061341693133809</v>
+        <v>0.003058915923138227</v>
       </c>
       <c r="DM2">
-        <v>0.00130504593970282</v>
+        <v>0.001300652592588909</v>
       </c>
       <c r="DN2">
-        <v>0.006548225199213683</v>
+        <v>0.006549705782796332</v>
       </c>
       <c r="DO2">
-        <v>2.112607764270907E-06</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.006160417787415593</v>
+        <v>0.006161463910578759</v>
       </c>
       <c r="DQ2">
-        <v>0.009451072287525682</v>
+        <v>0.009455804929025011</v>
       </c>
       <c r="DR2">
-        <v>0.001159130635263705</v>
+        <v>0.001154573819318495</v>
       </c>
       <c r="DS2">
-        <v>0.0002611087079435917</v>
+        <v>0.0002555458385518007</v>
       </c>
       <c r="DT2">
-        <v>0.003743675913892153</v>
+        <v>0.003742014562530048</v>
       </c>
       <c r="DU2">
-        <v>0.01500816945658673</v>
+        <v>0.0150191277108354</v>
       </c>
       <c r="DV2">
-        <v>0.006536989198871855</v>
+        <v>0.00653845719476981</v>
       </c>
       <c r="DW2">
-        <v>0.009543493290337364</v>
+        <v>0.009548329471032771</v>
       </c>
       <c r="DX2">
-        <v>0.0131264523993401</v>
+        <v>0.01313530256705621</v>
       </c>
       <c r="DY2">
-        <v>0.001830553855690109</v>
+        <v>0.001826749234791004</v>
       </c>
       <c r="DZ2">
-        <v>0.0009451575287540984</v>
+        <v>0.000940360998861232</v>
       </c>
       <c r="EA2">
-        <v>0.0003472223605633883</v>
+        <v>0.0003417559642468978</v>
       </c>
       <c r="EB2">
-        <v>0.01695250351573832</v>
+        <v>0.01696564000631063</v>
       </c>
       <c r="EC2">
-        <v>0.02591624378843812</v>
+        <v>0.02593942235206149</v>
       </c>
       <c r="ED2">
-        <v>0.009527859289861737</v>
+        <v>0.009532677955795439</v>
       </c>
       <c r="EE2">
-        <v>0.01591082048404767</v>
+        <v>0.01592278997772114</v>
       </c>
       <c r="EF2">
-        <v>0.01052647832024227</v>
+        <v>0.01053241573849902</v>
       </c>
       <c r="EG2">
-        <v>0.004271864129960983</v>
+        <v>0.004270794507552318</v>
       </c>
       <c r="EH2">
-        <v>0.0008737646265821445</v>
+        <v>0.0008688881152622034</v>
       </c>
       <c r="EI2">
-        <v>0.01511157645973263</v>
+        <v>0.01512265056078721</v>
       </c>
       <c r="EJ2">
-        <v>0.04263653129711183</v>
+        <v>0.04267844158917542</v>
       </c>
       <c r="EK2">
-        <v>0.05780960175871527</v>
+        <v>0.05786851043285474</v>
       </c>
       <c r="EL2">
-        <v>0.03767140314606</v>
+        <v>0.03770775100792326</v>
       </c>
       <c r="EM2">
-        <v>0.02086787563485391</v>
+        <v>0.02088539851455019</v>
       </c>
       <c r="EN2">
-        <v>0.004518522137464947</v>
+        <v>0.004517728845879647</v>
       </c>
       <c r="EO2">
-        <v>0.0001695425751579168</v>
+        <v>0.0001638771242804443</v>
       </c>
       <c r="EP2">
-        <v>0.001650310550206649</v>
+        <v>0.001646304002836499</v>
       </c>
       <c r="EQ2">
-        <v>0.004798843145993026</v>
+        <v>0.004798363897871698</v>
       </c>
       <c r="ER2">
-        <v>0.01486568445225197</v>
+        <v>0.01487648308063257</v>
       </c>
       <c r="ES2">
-        <v>0.01924415158545609</v>
+        <v>0.01925985540803751</v>
       </c>
       <c r="ET2">
-        <v>0.01556301847346665</v>
+        <v>0.01557459832474851</v>
       </c>
       <c r="EU2">
-        <v>0.02001338060885799</v>
+        <v>0.02002994619827011</v>
       </c>
       <c r="EV2">
-        <v>0.01235674737592372</v>
+        <v>0.01236473524354659</v>
       </c>
       <c r="EW2">
-        <v>2.837631086327962E-06</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.003410495103755944</v>
+        <v>0.003408460490124652</v>
       </c>
       <c r="EY2">
-        <v>0.008160975248277644</v>
+        <v>0.008164262594808918</v>
       </c>
       <c r="EZ2">
-        <v>0.008556077260297655</v>
+        <v>0.008559807239384829</v>
       </c>
       <c r="FA2">
-        <v>0.00392034151926677</v>
+        <v>0.003918878086280344</v>
       </c>
       <c r="FB2">
-        <v>0.0002881273487655675</v>
+        <v>0.0002825947483414865</v>
       </c>
       <c r="FC2">
-        <v>0.001765880953722594</v>
+        <v>0.001762003879808763</v>
       </c>
       <c r="FD2">
-        <v>0.0005188208457838511</v>
+        <v>0.000513546691151257</v>
       </c>
       <c r="FE2">
-        <v>0.0001967449559854825</v>
+        <v>0.0001911099799195421</v>
       </c>
       <c r="FF2">
-        <v>0.0001727036152540837</v>
+        <v>0.0001670417056880055</v>
       </c>
       <c r="FG2">
-        <v>0.000916958527896213</v>
+        <v>0.0009121304066789701</v>
       </c>
       <c r="FH2">
-        <v>0.002415282473479042</v>
+        <v>0.002412132923712773</v>
       </c>
       <c r="FI2">
-        <v>0.002376697772305197</v>
+        <v>0.002373504996120485</v>
       </c>
       <c r="FJ2">
-        <v>0.005677445472722346</v>
+        <v>0.005677950522280271</v>
       </c>
       <c r="FK2">
-        <v>0.00957301829123559</v>
+        <v>0.009577887548772453</v>
       </c>
       <c r="FL2">
-        <v>0.002809566485474166</v>
+        <v>0.002806858651858841</v>
       </c>
       <c r="FM2">
-        <v>0.001350606741088896</v>
+        <v>0.001346264435714466</v>
       </c>
       <c r="FN2">
-        <v>5.148435356628512E-05</v>
+        <v>4.568664213134064E-05</v>
       </c>
       <c r="FO2">
-        <v>0.007813607237709826</v>
+        <v>0.007816505428059461</v>
       </c>
       <c r="FP2">
-        <v>0.008999158273777307</v>
+        <v>0.009003384636268008</v>
       </c>
       <c r="FQ2">
-        <v>0.008443309256866965</v>
+        <v>0.008446912902025016</v>
       </c>
       <c r="FR2">
-        <v>0.008413363255955932</v>
+        <v>0.008416933352626457</v>
       </c>
       <c r="FS2">
-        <v>0.002578094678432204</v>
+        <v>0.002575127527085122</v>
       </c>
       <c r="FT2">
-        <v>4.397842133793555E-05</v>
+        <v>3.817230101145022E-05</v>
       </c>
       <c r="FU2">
-        <v>0.001294159239371619</v>
+        <v>0.001289753695893614</v>
       </c>
       <c r="FV2">
-        <v>0.000225108936848387</v>
+        <v>0.0002195057369338275</v>
       </c>
       <c r="FW2">
-        <v>2.445169074388269E-06</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0001129406634359425</v>
+        <v>0.0001072118014694548</v>
       </c>
       <c r="FY2">
-        <v>9.764104297048913E-05</v>
+        <v>9.189504084802928E-05</v>
       </c>
       <c r="FZ2">
-        <v>0.0001443631843918956</v>
+        <v>0.0001386695250574888</v>
       </c>
       <c r="GA2">
-        <v>1.063460332353171E-05</v>
+        <v>4.79112793698048E-06</v>
       </c>
       <c r="GB2">
-        <v>0.0004167442526784212</v>
+        <v>0.0004113557416975191</v>
       </c>
       <c r="GC2">
-        <v>0.0008843299869035697</v>
+        <v>0.0008794653119506953</v>
       </c>
       <c r="GD2">
-        <v>0.004151909726311665</v>
+        <v>0.004150705719053864</v>
       </c>
       <c r="GE2">
-        <v>0.01119780434066572</v>
+        <v>0.01120449384507546</v>
       </c>
       <c r="GF2">
-        <v>0.008814740268166841</v>
+        <v>0.008818760027272356</v>
       </c>
       <c r="GG2">
-        <v>0.003140047295528233</v>
+        <v>0.003137709699373563</v>
       </c>
       <c r="GH2">
-        <v>0.0005257223159938114</v>
+        <v>0.000520455893074308</v>
       </c>
       <c r="GI2">
-        <v>0.002472917875232458</v>
+        <v>0.002469832894373489</v>
       </c>
       <c r="GJ2">
-        <v>0.007382429224592293</v>
+        <v>0.007384844366462832</v>
       </c>
       <c r="GK2">
-        <v>0.003561343408345134</v>
+        <v>0.003559477789982359</v>
       </c>
       <c r="GL2">
-        <v>0.00122566303728779</v>
+        <v>0.001221180757554146</v>
       </c>
       <c r="GM2">
-        <v>0.0004166831126765612</v>
+        <v>0.0004112945332005503</v>
       </c>
       <c r="GN2">
-        <v>1.253949538148338E-07</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0005734328474452871</v>
+        <v>0.0005682198746066166</v>
       </c>
       <c r="GP2">
-        <v>8.072702245592157E-06</v>
+        <v>2.226356762742778E-06</v>
       </c>
       <c r="GQ2">
-        <v>0.0005188889457859228</v>
+        <v>0.0005136148674457217</v>
       </c>
       <c r="GR2">
-        <v>0.003147667795760068</v>
+        <v>0.003145338736847407</v>
       </c>
       <c r="GS2">
-        <v>0.009962533303085629</v>
+        <v>0.009967838934065327</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001445583741119105</v>
+        <v>0.0001250704635452144</v>
       </c>
       <c r="C3">
-        <v>0.0002003831718380788</v>
+        <v>0.0001811070024457007</v>
       </c>
       <c r="D3">
-        <v>6.171354748631031E-05</v>
+        <v>4.191140988090804E-05</v>
       </c>
       <c r="E3">
-        <v>0.0001644616033012207</v>
+        <v>0.0001450491848687181</v>
       </c>
       <c r="F3">
-        <v>0.0001815414026055336</v>
+        <v>0.0001621937671531602</v>
       </c>
       <c r="G3">
-        <v>6.516182734585647E-05</v>
+        <v>4.537276892491301E-05</v>
       </c>
       <c r="H3">
-        <v>0.0002395149102441816</v>
+        <v>0.0002203871659349334</v>
       </c>
       <c r="I3">
-        <v>4.116677832321248E-05</v>
+        <v>2.128670766281958E-05</v>
       </c>
       <c r="J3">
-        <v>7.543906692724836E-06</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.996050518697728E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.140363212819646E-07</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.349343822844398E-05</v>
+        <v>2.362219249390193E-05</v>
       </c>
       <c r="N3">
-        <v>9.103680629192795E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.159033012059196E-05</v>
+        <v>1.636006792921519E-06</v>
       </c>
       <c r="P3">
-        <v>0.000142876594180412</v>
+        <v>0.0001233823046912273</v>
       </c>
       <c r="Q3">
-        <v>8.312100161435109E-05</v>
+        <v>6.340006160680601E-05</v>
       </c>
       <c r="R3">
-        <v>0.0002686701090566446</v>
+        <v>0.0002496529492239278</v>
       </c>
       <c r="S3">
-        <v>0.0003793204545496823</v>
+        <v>0.0003607229869513791</v>
       </c>
       <c r="T3">
-        <v>0.0002966885079154113</v>
+        <v>0.0002777776207235012</v>
       </c>
       <c r="U3">
-        <v>0.0001828622725517325</v>
+        <v>0.0001635196471050362</v>
       </c>
       <c r="V3">
-        <v>0.000229739560642347</v>
+        <v>0.0002105747388319098</v>
       </c>
       <c r="W3">
-        <v>0.0001947598520671254</v>
+        <v>0.0001754623536528724</v>
       </c>
       <c r="X3">
-        <v>0.0002123617513501724</v>
+        <v>0.0001931310162199119</v>
       </c>
       <c r="Y3">
-        <v>0.0001984022419187652</v>
+        <v>0.0001791185589402311</v>
       </c>
       <c r="Z3">
-        <v>0.0002036200617062352</v>
+        <v>0.0001843561697047253</v>
       </c>
       <c r="AA3">
-        <v>5.502109075890458E-05</v>
+        <v>3.519356893888349E-05</v>
       </c>
       <c r="AB3">
-        <v>2.460607399775597E-05</v>
+        <v>4.663189263255637E-06</v>
       </c>
       <c r="AC3">
-        <v>9.103680629192795E-06</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>9.317403220487538E-05</v>
+        <v>7.349122293115102E-05</v>
       </c>
       <c r="AE3">
-        <v>2.054505316316772E-05</v>
+        <v>5.867651427537825E-07</v>
       </c>
       <c r="AF3">
-        <v>6.325367742357841E-05</v>
+        <v>4.345738146803072E-05</v>
       </c>
       <c r="AG3">
-        <v>0.0001559675836471954</v>
+        <v>0.0001365229477455845</v>
       </c>
       <c r="AH3">
-        <v>0.0001010663798834077</v>
+        <v>8.141350596159939E-05</v>
       </c>
       <c r="AI3">
-        <v>3.763449846708779E-05</v>
+        <v>1.774103001368498E-05</v>
       </c>
       <c r="AJ3">
-        <v>5.802870263639984E-05</v>
+        <v>3.821258856520674E-05</v>
       </c>
       <c r="AK3">
-        <v>1.507918938580094E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>3.250955567583476E-05</v>
+        <v>1.259664852405537E-05</v>
       </c>
       <c r="AM3">
-        <v>0.0001017203658567698</v>
+        <v>8.206997247700783E-05</v>
       </c>
       <c r="AN3">
-        <v>0.0001453402940800616</v>
+        <v>0.0001258553493038212</v>
       </c>
       <c r="AO3">
-        <v>0.0001766164928061329</v>
+        <v>0.0001572501773723389</v>
       </c>
       <c r="AP3">
-        <v>0.0002019183817755473</v>
+        <v>0.0001826480353716658</v>
       </c>
       <c r="AQ3">
-        <v>0.0002720446089191959</v>
+        <v>0.0002530402484264272</v>
       </c>
       <c r="AR3">
-        <v>0.0001789256527120772</v>
+        <v>0.0001595680958273526</v>
       </c>
       <c r="AS3">
-        <v>4.116677832321248E-05</v>
+        <v>2.128670766281958E-05</v>
       </c>
       <c r="AT3">
-        <v>6.67834432798055E-06</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>1.085700655777708E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>4.624845511622781E-05</v>
+        <v>2.638765904804992E-05</v>
       </c>
       <c r="AW3">
-        <v>6.420768238472029E-05</v>
+        <v>4.44150049309676E-05</v>
       </c>
       <c r="AX3">
-        <v>1.348012545093333E-06</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.01254010648922177</v>
+        <v>0.01256763438562821</v>
       </c>
       <c r="AZ3">
-        <v>0.02558622595783284</v>
+        <v>0.02566323725174528</v>
       </c>
       <c r="BA3">
-        <v>0.07300760702628553</v>
+        <v>0.07326448567886652</v>
       </c>
       <c r="BB3">
-        <v>0.001270378948255471</v>
+        <v>0.001255161229075939</v>
       </c>
       <c r="BC3">
-        <v>0.007624556689439834</v>
+        <v>0.00763344010652134</v>
       </c>
       <c r="BD3">
-        <v>0.01853043124522644</v>
+        <v>0.01858068019840417</v>
       </c>
       <c r="BE3">
-        <v>0.008060716671674354</v>
+        <v>0.00807125442572779</v>
       </c>
       <c r="BF3">
-        <v>0.006796759723157304</v>
+        <v>0.006802503340205906</v>
       </c>
       <c r="BG3">
-        <v>0.04021554236195782</v>
+        <v>0.04034804205459357</v>
       </c>
       <c r="BH3">
-        <v>0.04259856626489351</v>
+        <v>0.0427401046697179</v>
       </c>
       <c r="BI3">
-        <v>0.00497525309735013</v>
+        <v>0.004974087814273949</v>
       </c>
       <c r="BJ3">
-        <v>4.228550327764506E-05</v>
+        <v>2.2409675895244E-05</v>
       </c>
       <c r="BK3">
-        <v>0.002254770008159677</v>
+        <v>0.002243286044004832</v>
       </c>
       <c r="BL3">
-        <v>0.004765978305874221</v>
+        <v>0.004764019252074147</v>
       </c>
       <c r="BM3">
-        <v>2.433619600874853E-05</v>
+        <v>4.392287638074975E-06</v>
       </c>
       <c r="BN3">
-        <v>0.0002841454284263106</v>
+        <v>0.0002651869658469605</v>
       </c>
       <c r="BO3">
-        <v>0.008884424638123434</v>
+        <v>0.008898086682800661</v>
       </c>
       <c r="BP3">
-        <v>0.001890452822998888</v>
+        <v>0.001877587018662758</v>
       </c>
       <c r="BQ3">
-        <v>0.003313390865040388</v>
+        <v>0.003305922206493865</v>
       </c>
       <c r="BR3">
-        <v>0.01858351524306425</v>
+        <v>0.01863396554167443</v>
       </c>
       <c r="BS3">
-        <v>0.005117475791557176</v>
+        <v>0.005116849953342645</v>
       </c>
       <c r="BT3">
-        <v>0.000209995931446536</v>
+        <v>0.0001907562228581525</v>
       </c>
       <c r="BU3">
-        <v>5.470039277196712E-05</v>
+        <v>3.48716545575994E-05</v>
       </c>
       <c r="BV3">
-        <v>0.0005708544767482009</v>
+        <v>0.0005529834898615894</v>
       </c>
       <c r="BW3">
-        <v>0.008464096655244054</v>
+        <v>0.008476164413075315</v>
       </c>
       <c r="BX3">
-        <v>0.001533126037553369</v>
+        <v>0.001518904907336138</v>
       </c>
       <c r="BY3">
-        <v>0.001093741655450185</v>
+        <v>0.001077853958244214</v>
       </c>
       <c r="BZ3">
-        <v>0.001221868350231384</v>
+        <v>0.001206466632337824</v>
       </c>
       <c r="CA3">
-        <v>0.0001232800949786082</v>
+        <v>0.0001037114767695262</v>
       </c>
       <c r="CB3">
-        <v>0.005285345284719588</v>
+        <v>0.005285356168626089</v>
       </c>
       <c r="CC3">
-        <v>0.004642027810922919</v>
+        <v>0.004639598617965566</v>
       </c>
       <c r="CD3">
-        <v>0.0009808290600492923</v>
+        <v>0.0009645130899875422</v>
       </c>
       <c r="CE3">
-        <v>0.001136012553728425</v>
+        <v>0.001120285188310575</v>
       </c>
       <c r="CF3">
-        <v>0.006114242750957293</v>
+        <v>0.006117397609048013</v>
       </c>
       <c r="CG3">
-        <v>0.01307784146731898</v>
+        <v>0.01310740897050183</v>
       </c>
       <c r="CH3">
-        <v>0.008556927651462902</v>
+        <v>0.008569347513465662</v>
       </c>
       <c r="CI3">
-        <v>0.01509883138500089</v>
+        <v>0.01513606442027494</v>
       </c>
       <c r="CJ3">
-        <v>0.009968562593964794</v>
+        <v>0.00998633672956295</v>
       </c>
       <c r="CK3">
-        <v>0.002900346881864318</v>
+        <v>0.002891311564384759</v>
       </c>
       <c r="CL3">
-        <v>0.0001217274050418517</v>
+        <v>0.0001021528975433508</v>
       </c>
       <c r="CM3">
-        <v>0.003519011856665122</v>
+        <v>0.003512323110129111</v>
       </c>
       <c r="CN3">
-        <v>0.02516549397496992</v>
+        <v>0.02524090944968097</v>
       </c>
       <c r="CO3">
-        <v>0.02916631581201016</v>
+        <v>0.0292569062402995</v>
       </c>
       <c r="CP3">
-        <v>0.01556125036616584</v>
+        <v>0.01560023733772067</v>
       </c>
       <c r="CQ3">
-        <v>0.01756929928437485</v>
+        <v>0.01761590270333922</v>
       </c>
       <c r="CR3">
-        <v>0.01692957731043174</v>
+        <v>0.01697375429011612</v>
       </c>
       <c r="CS3">
-        <v>0.006852200720899105</v>
+        <v>0.006858154623384383</v>
       </c>
       <c r="CT3">
-        <v>0.000602566435456523</v>
+        <v>0.0005848157307321462</v>
       </c>
       <c r="CU3">
-        <v>0.01645265832985739</v>
+        <v>0.01649502637535635</v>
       </c>
       <c r="CV3">
-        <v>0.03992293837387603</v>
+        <v>0.04005432823155367</v>
       </c>
       <c r="CW3">
-        <v>0.05846512461862367</v>
+        <v>0.05866684423027808</v>
       </c>
       <c r="CX3">
-        <v>0.03084422874366613</v>
+        <v>0.0309411834270719</v>
       </c>
       <c r="CY3">
-        <v>0.01911554022139403</v>
+        <v>0.01916800846898507</v>
       </c>
       <c r="CZ3">
-        <v>0.001183936551776405</v>
+        <v>0.001168390960122868</v>
       </c>
       <c r="DA3">
-        <v>0.0001814014326112348</v>
+        <v>0.0001620532662583984</v>
       </c>
       <c r="DB3">
-        <v>0.001438014141427426</v>
+        <v>0.001423432255678646</v>
       </c>
       <c r="DC3">
-        <v>0.005784513764387672</v>
+        <v>0.005786417973919567</v>
       </c>
       <c r="DD3">
-        <v>0.01476424439862914</v>
+        <v>0.01480020835914983</v>
       </c>
       <c r="DE3">
-        <v>0.01894387722838614</v>
+        <v>0.0189956943652664</v>
       </c>
       <c r="DF3">
-        <v>0.01469592840141176</v>
+        <v>0.0147316332421494</v>
       </c>
       <c r="DG3">
-        <v>0.01807797226365581</v>
+        <v>0.01812650505842382</v>
       </c>
       <c r="DH3">
-        <v>0.009022738632489688</v>
+        <v>0.009036925296489952</v>
       </c>
       <c r="DI3">
-        <v>0.0004367832822091311</v>
+        <v>0.0004184037687656808</v>
       </c>
       <c r="DJ3">
-        <v>0.005308160783790277</v>
+        <v>0.005308258205951507</v>
       </c>
       <c r="DK3">
-        <v>0.01413575242422861</v>
+        <v>0.01416933254039823</v>
       </c>
       <c r="DL3">
-        <v>0.01123180254251105</v>
+        <v>0.01125436809556248</v>
       </c>
       <c r="DM3">
-        <v>0.005823239462810314</v>
+        <v>0.00582529055733229</v>
       </c>
       <c r="DN3">
-        <v>0.002346140704438005</v>
+        <v>0.002335003305596717</v>
       </c>
       <c r="DO3">
-        <v>0.002918423781128017</v>
+        <v>0.002909457028587948</v>
       </c>
       <c r="DP3">
-        <v>0.0009428823615949209</v>
+        <v>0.0009264224612581052</v>
       </c>
       <c r="DQ3">
-        <v>2.189316410825705E-05</v>
+        <v>1.939989417514708E-06</v>
       </c>
       <c r="DR3">
-        <v>0.0003421136260651749</v>
+        <v>0.000323375034488338</v>
       </c>
       <c r="DS3">
-        <v>0.001226413150046267</v>
+        <v>0.001211028670392504</v>
       </c>
       <c r="DT3">
-        <v>0.002442021100532646</v>
+        <v>0.002431247372111854</v>
       </c>
       <c r="DU3">
-        <v>0.003924319840156292</v>
+        <v>0.003919168410222947</v>
       </c>
       <c r="DV3">
-        <v>0.01099563455213054</v>
+        <v>0.01101730432965467</v>
       </c>
       <c r="DW3">
-        <v>0.01227964649983072</v>
+        <v>0.01230618648215125</v>
       </c>
       <c r="DX3">
-        <v>0.00654042723359813</v>
+        <v>0.006545198591998857</v>
       </c>
       <c r="DY3">
-        <v>0.003302831265470497</v>
+        <v>0.003295322554794736</v>
       </c>
       <c r="DZ3">
-        <v>4.676222109530131E-05</v>
+        <v>2.690337372046697E-05</v>
       </c>
       <c r="EA3">
-        <v>0.004950059398376308</v>
+        <v>0.004948798556630442</v>
       </c>
       <c r="EB3">
-        <v>0.004972933097444627</v>
+        <v>0.004971759014703701</v>
       </c>
       <c r="EC3">
-        <v>0.007315835102014549</v>
+        <v>0.007323547550742898</v>
       </c>
       <c r="ED3">
-        <v>0.00644705933740115</v>
+        <v>0.006451476555190723</v>
       </c>
       <c r="EE3">
-        <v>0.001634327733431265</v>
+        <v>0.001620490457106945</v>
       </c>
       <c r="EF3">
-        <v>0.0001358438844668653</v>
+        <v>0.0001163229201974031</v>
       </c>
       <c r="EG3">
-        <v>0.0007888712278680362</v>
+        <v>0.0007718271696006654</v>
       </c>
       <c r="EH3">
-        <v>0.0001614218134250361</v>
+        <v>0.0001419978651938727</v>
       </c>
       <c r="EI3">
-        <v>1.348012545093333E-06</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>4.627953811496176E-06</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.0003455337859258664</v>
+        <v>0.0003268081668754828</v>
       </c>
       <c r="EL3">
-        <v>4.114733232400455E-07</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>7.512794093992101E-05</v>
+        <v>5.537668358018595E-05</v>
       </c>
       <c r="EN3">
-        <v>0.0001099595355211755</v>
+        <v>9.034039297493563E-05</v>
       </c>
       <c r="EO3">
-        <v>2.049798116508504E-05</v>
+        <v>5.395146025078061E-07</v>
       </c>
       <c r="EP3">
-        <v>0.003521580556560495</v>
+        <v>0.003514901552998117</v>
       </c>
       <c r="EQ3">
-        <v>0.007612310689938634</v>
+        <v>0.007621147658444942</v>
       </c>
       <c r="ER3">
-        <v>0.007473176995605767</v>
+        <v>0.007481486235700594</v>
       </c>
       <c r="ES3">
-        <v>0.001703771130602727</v>
+        <v>0.001690197250243365</v>
       </c>
       <c r="ET3">
-        <v>1.571800535978096E-05</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.00510818779193549</v>
+        <v>0.005107526724718311</v>
       </c>
       <c r="EV3">
-        <v>0.005390496780436602</v>
+        <v>0.005390906499665241</v>
       </c>
       <c r="EW3">
-        <v>0.001866058623992502</v>
+        <v>0.001853100293457361</v>
       </c>
       <c r="EX3">
-        <v>0.0005930387758445996</v>
+        <v>0.0005752519330970341</v>
       </c>
       <c r="EY3">
-        <v>1.088121355679109E-05</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>1.988110519021137E-06</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0002003831718380788</v>
+        <v>0.0001811070024457007</v>
       </c>
       <c r="FB3">
-        <v>0.0001327131445943853</v>
+        <v>0.0001131803055566465</v>
       </c>
       <c r="FC3">
-        <v>0.001716304530092222</v>
+        <v>0.001702778188404457</v>
       </c>
       <c r="FD3">
-        <v>0.007001749714807741</v>
+        <v>0.007008270850509762</v>
       </c>
       <c r="FE3">
-        <v>0.01247715249178599</v>
+        <v>0.01250444160625522</v>
       </c>
       <c r="FF3">
-        <v>0.004790699804867275</v>
+        <v>0.004788834518701673</v>
       </c>
       <c r="FG3">
-        <v>0.000373440454789184</v>
+        <v>0.0003548206845923047</v>
       </c>
       <c r="FH3">
-        <v>0.001181702751867391</v>
+        <v>0.001166148687502171</v>
       </c>
       <c r="FI3">
-        <v>0.001394412043203408</v>
+        <v>0.001379664776479564</v>
       </c>
       <c r="FJ3">
-        <v>0.001229052949938744</v>
+        <v>0.001213678482937995</v>
       </c>
       <c r="FK3">
-        <v>0.001750990228679419</v>
+        <v>0.001737595448427612</v>
       </c>
       <c r="FL3">
-        <v>0.003421427560639883</v>
+        <v>0.003414368680860637</v>
       </c>
       <c r="FM3">
-        <v>0.00414497943116848</v>
+        <v>0.004140664954037985</v>
       </c>
       <c r="FN3">
-        <v>0.005521621775095676</v>
+        <v>0.00552252884606552</v>
       </c>
       <c r="FO3">
-        <v>0.00448044231750455</v>
+        <v>0.004477400237380153</v>
       </c>
       <c r="FP3">
-        <v>0.0002832265584637375</v>
+        <v>0.0002642646106482049</v>
       </c>
       <c r="FQ3">
-        <v>0.0002697357190132407</v>
+        <v>0.0002507226009955015</v>
       </c>
       <c r="FR3">
-        <v>0.001948804420622136</v>
+        <v>0.001936159941508976</v>
       </c>
       <c r="FS3">
-        <v>0.001384341343613604</v>
+        <v>0.001369555879138147</v>
       </c>
       <c r="FT3">
-        <v>0.002292468106624175</v>
+        <v>0.002281127129814802</v>
       </c>
       <c r="FU3">
-        <v>0.0007885793678799242</v>
+        <v>0.0007715342025995567</v>
       </c>
       <c r="FV3">
-        <v>0.001804404826503758</v>
+        <v>0.001791212645636629</v>
       </c>
       <c r="FW3">
-        <v>0.001596495434972234</v>
+        <v>0.001582514662287351</v>
       </c>
       <c r="FX3">
-        <v>8.021387673276286E-07</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.001533533037536792</v>
+        <v>0.001519313451053849</v>
       </c>
       <c r="FZ3">
-        <v>0.002360844203839109</v>
+        <v>0.002349762574769617</v>
       </c>
       <c r="GA3">
-        <v>0.003868213042441609</v>
+        <v>0.003862848801719524</v>
       </c>
       <c r="GB3">
-        <v>0.003307162665294072</v>
+        <v>0.00329967038344067</v>
       </c>
       <c r="GC3">
-        <v>0.0005830641362508822</v>
+        <v>0.0005652394601033405</v>
       </c>
       <c r="GD3">
-        <v>0.0003066449875098682</v>
+        <v>0.0002877718648378001</v>
       </c>
       <c r="GE3">
-        <v>0.0001465223940319128</v>
+        <v>0.0001270419329124371</v>
       </c>
       <c r="GF3">
-        <v>0.004014338836489675</v>
+        <v>0.004009528844927285</v>
       </c>
       <c r="GG3">
-        <v>0.006640604429517755</v>
+        <v>0.006645755755924958</v>
       </c>
       <c r="GH3">
-        <v>0.006909667218558405</v>
+        <v>0.006915839089118695</v>
       </c>
       <c r="GI3">
-        <v>0.005520848775127161</v>
+        <v>0.005521752914139743</v>
       </c>
       <c r="GJ3">
-        <v>0.005998867355656714</v>
+        <v>0.006001584599592374</v>
       </c>
       <c r="GK3">
-        <v>0.0009754125602699149</v>
+        <v>0.0009590760456460582</v>
       </c>
       <c r="GL3">
-        <v>6.621459730297549E-05</v>
+        <v>4.642953199541689E-05</v>
       </c>
       <c r="GM3">
-        <v>0.000304374567602346</v>
+        <v>0.0002854928333204379</v>
       </c>
       <c r="GN3">
-        <v>0.003204635469470166</v>
+        <v>0.003196754306156776</v>
       </c>
       <c r="GO3">
-        <v>0.005536108774505597</v>
+        <v>0.005537070794071627</v>
       </c>
       <c r="GP3">
-        <v>0.001770976627865341</v>
+        <v>0.001757657655208123</v>
       </c>
       <c r="GQ3">
-        <v>0.001194388351350687</v>
+        <v>0.001178882402945414</v>
       </c>
       <c r="GR3">
-        <v>0.003125470472694681</v>
+        <v>0.003117289039786687</v>
       </c>
       <c r="GS3">
-        <v>0.0006436314737838795</v>
+        <v>0.0006260365270701542</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001890146533759506</v>
+        <v>0.0001554688988855652</v>
       </c>
       <c r="C4">
-        <v>0.0001588819428377567</v>
+        <v>0.0001251407784127368</v>
       </c>
       <c r="D4">
-        <v>0.0002026128536188252</v>
+        <v>0.0001691552831441869</v>
       </c>
       <c r="E4">
-        <v>9.836272675683579E-05</v>
+        <v>6.422909660778138E-05</v>
       </c>
       <c r="F4">
-        <v>3.387867060509975E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4.122712073634885E-05</v>
+        <v>6.722967496661523E-06</v>
       </c>
       <c r="H4">
-        <v>5.423081096860501E-05</v>
+        <v>1.981098636092276E-05</v>
       </c>
       <c r="I4">
-        <v>2.785109249744245E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3.454747061704504E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3.447254061570673E-06</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4.059432672504665E-08</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1.617980928898414E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>4.656419083167314E-05</v>
+        <v>1.209464836877419E-05</v>
       </c>
       <c r="O4">
-        <v>0.0001277396422815306</v>
+        <v>9.37965207538352E-05</v>
       </c>
       <c r="P4">
-        <v>0.0002835270450640164</v>
+        <v>0.0002505942012594617</v>
       </c>
       <c r="Q4">
-        <v>0.0002032345436299291</v>
+        <v>0.0001697810048007108</v>
       </c>
       <c r="R4">
-        <v>0.000100508161795155</v>
+        <v>6.638844474296812E-05</v>
       </c>
       <c r="S4">
-        <v>0.0001382873624699213</v>
+        <v>0.0001044126426649962</v>
       </c>
       <c r="T4">
-        <v>6.211742110946608E-05</v>
+        <v>2.774874098711511E-05</v>
       </c>
       <c r="U4">
-        <v>1.557237727813493E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>6.827058121936636E-05</v>
+        <v>3.394180419877407E-05</v>
       </c>
       <c r="W4">
-        <v>0.0002125765237967842</v>
+        <v>0.0001791835674940348</v>
       </c>
       <c r="X4">
-        <v>0.0001623331028993971</v>
+        <v>0.0001286143191679827</v>
       </c>
       <c r="Y4">
-        <v>0.000126450582258507</v>
+        <v>9.249910120621722E-05</v>
       </c>
       <c r="Z4">
-        <v>0.0001567966128005111</v>
+        <v>0.0001230419250581729</v>
       </c>
       <c r="AA4">
-        <v>7.703819737596291E-05</v>
+        <v>4.276627814444632E-05</v>
       </c>
       <c r="AB4">
-        <v>2.082516637195388E-08</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>8.660827154689198E-06</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>6.964894124398497E-05</v>
+        <v>3.532910285644304E-05</v>
       </c>
       <c r="AE4">
-        <v>9.09478416244001E-05</v>
+        <v>5.676612611584198E-05</v>
       </c>
       <c r="AF4">
-        <v>0.0001756361231369995</v>
+        <v>0.0001420036091857888</v>
       </c>
       <c r="AG4">
-        <v>0.0001964218435082489</v>
+        <v>0.0001629241244754683</v>
       </c>
       <c r="AH4">
-        <v>0.0002338415541765944</v>
+        <v>0.0002005865011066541</v>
       </c>
       <c r="AI4">
-        <v>0.000232096314145423</v>
+        <v>0.00019882994323403</v>
       </c>
       <c r="AJ4">
-        <v>0.0002540777845380294</v>
+        <v>0.0002209539629564466</v>
       </c>
       <c r="AK4">
-        <v>0.0002480388044301685</v>
+        <v>0.0002148758202015135</v>
       </c>
       <c r="AL4">
-        <v>0.000248940024446265</v>
+        <v>0.0002157828846086817</v>
       </c>
       <c r="AM4">
-        <v>0.0002192153939153596</v>
+        <v>0.0001858654905326014</v>
       </c>
       <c r="AN4">
-        <v>0.0002525612445109428</v>
+        <v>0.0002194275882021725</v>
       </c>
       <c r="AO4">
-        <v>0.0002423690243289017</v>
+        <v>0.0002091692717067239</v>
       </c>
       <c r="AP4">
-        <v>6.08785240873384E-05</v>
+        <v>2.650180974629988E-05</v>
       </c>
       <c r="AQ4">
-        <v>1.036668318515713E-06</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>1.461050726095517E-06</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.410464325192004E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0001180239871080014</v>
+        <v>8.401785978001517E-05</v>
       </c>
       <c r="AU4">
-        <v>4.880113287162667E-05</v>
+        <v>1.434609692639577E-05</v>
       </c>
       <c r="AV4">
-        <v>9.448740668761953E-05</v>
+        <v>6.032864517706835E-05</v>
       </c>
       <c r="AW4">
-        <v>0.0002215607239572491</v>
+        <v>0.000188226029985858</v>
       </c>
       <c r="AX4">
-        <v>0.00025751887459949</v>
+        <v>0.0002244173684077932</v>
       </c>
       <c r="AY4">
-        <v>0.03230122057692525</v>
+        <v>0.03247592173910479</v>
       </c>
       <c r="AZ4">
-        <v>0.000721432282885349</v>
+        <v>0.0006913392444740148</v>
       </c>
       <c r="BA4">
-        <v>0.08602959153655629</v>
+        <v>0.08655271994838287</v>
       </c>
       <c r="BB4">
-        <v>0.005491493798082406</v>
+        <v>0.005492334498861415</v>
       </c>
       <c r="BC4">
-        <v>0.02065815236897088</v>
+        <v>0.02075734850167171</v>
       </c>
       <c r="BD4">
-        <v>0.007395345132086691</v>
+        <v>0.007408532264968441</v>
       </c>
       <c r="BE4">
-        <v>0.002895098651708743</v>
+        <v>0.002879101789693831</v>
       </c>
       <c r="BF4">
-        <v>0.01024163068292359</v>
+        <v>0.01027327591212346</v>
       </c>
       <c r="BG4">
-        <v>0.02687210447995696</v>
+        <v>0.02701159794914498</v>
       </c>
       <c r="BH4">
-        <v>0.02634984347062896</v>
+        <v>0.02648595008918616</v>
       </c>
       <c r="BI4">
-        <v>0.01040038518575907</v>
+        <v>0.01043305993425766</v>
       </c>
       <c r="BJ4">
-        <v>0.001026320418330891</v>
+        <v>0.0009982045724639414</v>
       </c>
       <c r="BK4">
-        <v>0.00191962083428594</v>
+        <v>0.001897298021066</v>
       </c>
       <c r="BL4">
-        <v>0.003190713056988649</v>
+        <v>0.003176633247591341</v>
       </c>
       <c r="BM4">
-        <v>0.0005761776802909874</v>
+        <v>0.0005451426691234245</v>
       </c>
       <c r="BN4">
-        <v>0.001537301927457423</v>
+        <v>0.001512499784921982</v>
       </c>
       <c r="BO4">
-        <v>0.007937554141770969</v>
+        <v>0.007954257487606954</v>
       </c>
       <c r="BP4">
-        <v>0.002505468044749633</v>
+        <v>0.00248694443721208</v>
       </c>
       <c r="BQ4">
-        <v>0.000495506868850143</v>
+        <v>0.0004639487093262258</v>
       </c>
       <c r="BR4">
-        <v>0.01415490125281769</v>
+        <v>0.01421192395163816</v>
       </c>
       <c r="BS4">
-        <v>0.00321011875733525</v>
+        <v>0.00319616479345826</v>
       </c>
       <c r="BT4">
-        <v>0.001138968420342873</v>
+        <v>0.001111583094177493</v>
       </c>
       <c r="BU4">
-        <v>0.001172005120932935</v>
+        <v>0.001144834037010869</v>
       </c>
       <c r="BV4">
-        <v>0.006615219118153026</v>
+        <v>0.006623347151781288</v>
       </c>
       <c r="BW4">
-        <v>0.01783566531855903</v>
+        <v>0.01791655768766952</v>
       </c>
       <c r="BX4">
-        <v>0.002481402144319798</v>
+        <v>0.002462722469971595</v>
       </c>
       <c r="BY4">
-        <v>0.003037280454248222</v>
+        <v>0.003022205637951873</v>
       </c>
       <c r="BZ4">
-        <v>0.0008567449153021392</v>
+        <v>0.0008275293761991482</v>
       </c>
       <c r="CA4">
-        <v>3.818889268208371E-07</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0053243227950966</v>
+        <v>0.005324079395767032</v>
       </c>
       <c r="CC4">
-        <v>0.002711486048429277</v>
+        <v>0.002694298462906123</v>
       </c>
       <c r="CD4">
-        <v>1.119497319995104E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.00447702707996323</v>
+        <v>0.004471288987413139</v>
       </c>
       <c r="CF4">
-        <v>0.01100616819657884</v>
+        <v>0.0110427714339665</v>
       </c>
       <c r="CG4">
-        <v>0.01788479031943645</v>
+        <v>0.0179660012630475</v>
       </c>
       <c r="CH4">
-        <v>0.009962542177938852</v>
+        <v>0.009992377524604348</v>
       </c>
       <c r="CI4">
-        <v>0.02128737638020931</v>
+        <v>0.02139065301614767</v>
       </c>
       <c r="CJ4">
-        <v>0.01025183318310582</v>
+        <v>0.01028354457528465</v>
       </c>
       <c r="CK4">
-        <v>0.003470789261991031</v>
+        <v>0.003458525740339983</v>
       </c>
       <c r="CL4">
-        <v>3.847450068718489E-06</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.002479503944285894</v>
+        <v>0.00246081196015414</v>
       </c>
       <c r="CN4">
-        <v>0.02222535639696238</v>
+        <v>0.02233471581173106</v>
       </c>
       <c r="CO4">
-        <v>0.02508773044808663</v>
+        <v>0.02521565229272767</v>
       </c>
       <c r="CP4">
-        <v>0.01391044224845146</v>
+        <v>0.01396587963625242</v>
       </c>
       <c r="CQ4">
-        <v>0.01714762930627017</v>
+        <v>0.0172240597776693</v>
       </c>
       <c r="CR4">
-        <v>0.01850870633058008</v>
+        <v>0.01859396335517015</v>
       </c>
       <c r="CS4">
-        <v>0.002989160653388764</v>
+        <v>0.002973773781290843</v>
       </c>
       <c r="CT4">
-        <v>0.001504815526877191</v>
+        <v>0.001479802710781339</v>
       </c>
       <c r="CU4">
-        <v>0.01777791231752752</v>
+        <v>0.01785843015975493</v>
       </c>
       <c r="CV4">
-        <v>0.03917534069970245</v>
+        <v>0.03939462037273843</v>
       </c>
       <c r="CW4">
-        <v>0.04591120882001036</v>
+        <v>0.04617417044284727</v>
       </c>
       <c r="CX4">
-        <v>0.02240838040023133</v>
+        <v>0.02251892672145072</v>
       </c>
       <c r="CY4">
-        <v>0.01372515924514216</v>
+        <v>0.01377939507692911</v>
       </c>
       <c r="CZ4">
-        <v>0.0001650149629472972</v>
+        <v>0.0001313135710165971</v>
       </c>
       <c r="DA4">
-        <v>0.001272588922729441</v>
+        <v>0.001246070122448085</v>
       </c>
       <c r="DB4">
-        <v>0.003838174068552813</v>
+        <v>0.003828293028920597</v>
       </c>
       <c r="DC4">
-        <v>0.01065260469026391</v>
+        <v>0.01068691507644688</v>
       </c>
       <c r="DD4">
-        <v>0.01883682033644045</v>
+        <v>0.01892420517281023</v>
       </c>
       <c r="DE4">
-        <v>0.0241074414305779</v>
+        <v>0.02422900612349203</v>
       </c>
       <c r="DF4">
-        <v>0.01553064927738963</v>
+        <v>0.01559659367050024</v>
       </c>
       <c r="DG4">
-        <v>0.01890226633760937</v>
+        <v>0.01899007558979114</v>
       </c>
       <c r="DH4">
-        <v>0.005626058800485843</v>
+        <v>0.005627772152209759</v>
       </c>
       <c r="DI4">
-        <v>0.00187232333344117</v>
+        <v>0.001849693797016334</v>
       </c>
       <c r="DJ4">
-        <v>0.007869787140560597</v>
+        <v>0.007886051018952719</v>
       </c>
       <c r="DK4">
-        <v>0.0162204322897097</v>
+        <v>0.01629084990978669</v>
       </c>
       <c r="DL4">
-        <v>0.01320331823582167</v>
+        <v>0.01325416994066818</v>
       </c>
       <c r="DM4">
-        <v>0.00664981191877088</v>
+        <v>0.006658164285915339</v>
       </c>
       <c r="DN4">
-        <v>0.004426167379054836</v>
+        <v>0.004420099462514386</v>
       </c>
       <c r="DO4">
-        <v>0.005308051694805985</v>
+        <v>0.00530770277776535</v>
       </c>
       <c r="DP4">
-        <v>0.002530330645193699</v>
+        <v>0.002511968271048059</v>
       </c>
       <c r="DQ4">
-        <v>0.0002159238038565693</v>
+        <v>0.0001825525545880031</v>
       </c>
       <c r="DR4">
-        <v>0.000602546710761959</v>
+        <v>0.0005716827021503783</v>
       </c>
       <c r="DS4">
-        <v>0.0006995901124952305</v>
+        <v>0.0006693554281113976</v>
       </c>
       <c r="DT4">
-        <v>0.002290611240912122</v>
+        <v>0.002270694291944483</v>
       </c>
       <c r="DU4">
-        <v>0.003115496855645228</v>
+        <v>0.003100929270912564</v>
       </c>
       <c r="DV4">
-        <v>0.009333144166697309</v>
+        <v>0.009358897881739261</v>
       </c>
       <c r="DW4">
-        <v>0.01088198669436086</v>
+        <v>0.01091778461756344</v>
       </c>
       <c r="DX4">
-        <v>0.005532113498807906</v>
+        <v>0.00553321761741166</v>
       </c>
       <c r="DY4">
-        <v>0.003918877369994237</v>
+        <v>0.003909519689415282</v>
       </c>
       <c r="DZ4">
-        <v>1.081577819317832E-06</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.003997154571392329</v>
+        <v>0.003988304516663667</v>
       </c>
       <c r="EB4">
-        <v>0.00375397716704899</v>
+        <v>0.003743550112447479</v>
       </c>
       <c r="EC4">
-        <v>0.005552387099170008</v>
+        <v>0.005553622691605715</v>
       </c>
       <c r="ED4">
-        <v>0.003534274463124926</v>
+        <v>0.00352242264154275</v>
       </c>
       <c r="EE4">
-        <v>5.235970093518551E-06</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.0001146755020481948</v>
+        <v>8.064765987162796E-05</v>
       </c>
       <c r="EG4">
-        <v>3.480446062163509E-05</v>
+        <v>2.586565788577323E-07</v>
       </c>
       <c r="EH4">
-        <v>2.295808441004948E-05</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>7.61559013602044E-05</v>
+        <v>4.187826045932293E-05</v>
       </c>
       <c r="EJ4">
-        <v>7.237889129274403E-05</v>
+        <v>3.807675656846554E-05</v>
       </c>
       <c r="EK4">
-        <v>0.0007836295539962412</v>
+        <v>0.0007539398634572072</v>
       </c>
       <c r="EL4">
-        <v>0.0002379392042497816</v>
+        <v>0.0002047107243462991</v>
       </c>
       <c r="EM4">
-        <v>0.0001898014733900038</v>
+        <v>0.0001562608214093087</v>
       </c>
       <c r="EN4">
-        <v>0.0001898014733900038</v>
+        <v>0.0001562608214093087</v>
       </c>
       <c r="EO4">
-        <v>0.0007745868138347308</v>
+        <v>0.0007448384813337784</v>
       </c>
       <c r="EP4">
-        <v>0.00344166006147076</v>
+        <v>0.003429207637624459</v>
       </c>
       <c r="EQ4">
-        <v>0.004646547082990992</v>
+        <v>0.004641908323760712</v>
       </c>
       <c r="ER4">
-        <v>0.003953550570613528</v>
+        <v>0.003944417744942929</v>
       </c>
       <c r="ES4">
-        <v>0.0001088336719438551</v>
+        <v>7.476794563345347E-05</v>
       </c>
       <c r="ET4">
-        <v>0.0006906918123362999</v>
+        <v>0.0006603994226806426</v>
       </c>
       <c r="EU4">
-        <v>0.01158333720688753</v>
+        <v>0.01162368337202922</v>
       </c>
       <c r="EV4">
-        <v>0.01107424919779481</v>
+        <v>0.01111129393890915</v>
       </c>
       <c r="EW4">
-        <v>0.005027240089790468</v>
+        <v>0.005025070115951404</v>
       </c>
       <c r="EX4">
-        <v>0.003790260867697045</v>
+        <v>0.003780069112059528</v>
       </c>
       <c r="EY4">
-        <v>0.0006952067124169396</v>
+        <v>0.0006649436017844396</v>
       </c>
       <c r="EZ4">
-        <v>0.0008297897448206985</v>
+        <v>0.0008003994020572417</v>
       </c>
       <c r="FA4">
-        <v>0.0004766013385124754</v>
+        <v>0.0004449205770592418</v>
       </c>
       <c r="FB4">
-        <v>4.047731072295666E-06</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.001054416918832717</v>
+        <v>0.001026483278125159</v>
       </c>
       <c r="FD4">
-        <v>0.007574576535287904</v>
+        <v>0.007588925979696179</v>
       </c>
       <c r="FE4">
-        <v>0.0122969102196325</v>
+        <v>0.01234188388934603</v>
       </c>
       <c r="FF4">
-        <v>0.006086819108715385</v>
+        <v>0.006091520480438335</v>
       </c>
       <c r="FG4">
-        <v>0.0005737603702478122</v>
+        <v>0.0005427096828802297</v>
       </c>
       <c r="FH4">
-        <v>0.0003449359061608271</v>
+        <v>0.0003124012974077686</v>
       </c>
       <c r="FI4">
-        <v>0.000311458435562893</v>
+        <v>0.0002787067261831593</v>
       </c>
       <c r="FJ4">
-        <v>0.0001492534626657844</v>
+        <v>0.0001154498577683534</v>
       </c>
       <c r="FK4">
-        <v>0.0002584371346158908</v>
+        <v>0.0002253415833192757</v>
       </c>
       <c r="FL4">
-        <v>0.001373277724527822</v>
+        <v>0.001347411888809774</v>
       </c>
       <c r="FM4">
-        <v>0.002565923645829418</v>
+        <v>0.002547792091474081</v>
       </c>
       <c r="FN4">
-        <v>0.003901348269681154</v>
+        <v>0.003891876913289927</v>
       </c>
       <c r="FO4">
-        <v>0.001809367032316721</v>
+        <v>0.001786329225727409</v>
       </c>
       <c r="FP4">
-        <v>5.750663802711386E-05</v>
+        <v>2.310805708254533E-05</v>
       </c>
       <c r="FQ4">
-        <v>0.001601469628603509</v>
+        <v>0.001577083612133816</v>
       </c>
       <c r="FR4">
-        <v>0.003016311453873699</v>
+        <v>0.003001100654092315</v>
       </c>
       <c r="FS4">
-        <v>0.002947629452646984</v>
+        <v>0.002931973251667681</v>
       </c>
       <c r="FT4">
-        <v>0.003284735658667967</v>
+        <v>0.00327126558367955</v>
       </c>
       <c r="FU4">
-        <v>0.001716327530654962</v>
+        <v>0.001692686365037756</v>
       </c>
       <c r="FV4">
-        <v>0.002895098651708743</v>
+        <v>0.002879101789693831</v>
       </c>
       <c r="FW4">
-        <v>0.001121031420022504</v>
+        <v>0.001093529772822689</v>
       </c>
       <c r="FX4">
-        <v>8.991307660591839E-05</v>
+        <v>5.572465067002027E-05</v>
       </c>
       <c r="FY4">
-        <v>0.002677151547816036</v>
+        <v>0.002659741303846273</v>
       </c>
       <c r="FZ4">
-        <v>0.003844422068664407</v>
+        <v>0.003834581547169179</v>
       </c>
       <c r="GA4">
-        <v>0.007172529128107022</v>
+        <v>0.007184271304328868</v>
       </c>
       <c r="GB4">
-        <v>0.004790922085569644</v>
+        <v>0.004787219594909726</v>
       </c>
       <c r="GC4">
-        <v>0.002164957338667844</v>
+        <v>0.002144225527034831</v>
       </c>
       <c r="GD4">
-        <v>0.001517409127102122</v>
+        <v>0.001492477980214012</v>
       </c>
       <c r="GE4">
-        <v>2.74792244908006E-05</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.001669284229814731</v>
+        <v>0.001645337989473812</v>
       </c>
       <c r="GG4">
-        <v>0.004101088773248676</v>
+        <v>0.004092912729428037</v>
       </c>
       <c r="GH4">
-        <v>0.004401744078618617</v>
+        <v>0.004395517777536698</v>
       </c>
       <c r="GI4">
-        <v>0.003701282066107814</v>
+        <v>0.003690513284988955</v>
       </c>
       <c r="GJ4">
-        <v>0.003807538768005642</v>
+        <v>0.003797459059154146</v>
       </c>
       <c r="GK4">
-        <v>0.0001541140527525984</v>
+        <v>0.0001203419686700621</v>
       </c>
       <c r="GL4">
-        <v>0.0004495383580291092</v>
+        <v>0.0004176820937700274</v>
       </c>
       <c r="GM4">
-        <v>0.0005983439706868948</v>
+        <v>0.0005674527074026118</v>
       </c>
       <c r="GN4">
-        <v>0.003766832067278588</v>
+        <v>0.003756488376409339</v>
       </c>
       <c r="GO4">
-        <v>0.004219443575362587</v>
+        <v>0.004212035059710893</v>
       </c>
       <c r="GP4">
-        <v>0.0006526655716571214</v>
+        <v>0.0006221265827054568</v>
       </c>
       <c r="GQ4">
-        <v>0.0005693365101687986</v>
+        <v>0.0005382571341703751</v>
       </c>
       <c r="GR4">
-        <v>0.001170237720901368</v>
+        <v>0.001143055175430757</v>
       </c>
       <c r="GS4">
-        <v>2.616761246737418E-05</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.000114227444214717</v>
+        <v>2.187525562373843E-05</v>
       </c>
       <c r="C5">
-        <v>6.190054686491994E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>5.528550219995244E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0002152313390991677</v>
+        <v>0.0001244701701666538</v>
       </c>
       <c r="F5">
-        <v>0.0003297778132977268</v>
+        <v>0.0002408209875785731</v>
       </c>
       <c r="G5">
-        <v>0.0001622018917849528</v>
+        <v>7.06053996874168E-05</v>
       </c>
       <c r="H5">
-        <v>0.0002059715795681472</v>
+        <v>0.0001150645503253614</v>
       </c>
       <c r="I5">
-        <v>0.0001977829099828792</v>
+        <v>0.0001067468923055213</v>
       </c>
       <c r="J5">
-        <v>9.26914253054528E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0001122560443145626</v>
+        <v>1.987280210927113E-05</v>
       </c>
       <c r="L5">
-        <v>8.285990580339025E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>7.199888635346885E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.000114227444214717</v>
+        <v>2.187525562373843E-05</v>
       </c>
       <c r="O5">
-        <v>0.0001166602440915029</v>
+        <v>2.43463771160769E-05</v>
       </c>
       <c r="P5">
-        <v>1.485156324781214E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.128793342829948E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2.41460047770761E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1.12271554313777E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>6.453870673130493E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0001481337724974615</v>
+        <v>5.631567850655668E-05</v>
       </c>
       <c r="V5">
-        <v>0.0002442708476284023</v>
+        <v>0.0001539671108473416</v>
       </c>
       <c r="W5">
-        <v>0.0002167803390207155</v>
+        <v>0.0001260435700316785</v>
       </c>
       <c r="X5">
-        <v>0.0002182983189438343</v>
+        <v>0.0001275854612693223</v>
       </c>
       <c r="Y5">
-        <v>0.0001811052108275554</v>
+        <v>8.980648499181971E-05</v>
       </c>
       <c r="Z5">
-        <v>0.0001583244919813316</v>
+        <v>6.666692284000101E-05</v>
       </c>
       <c r="AA5">
-        <v>6.322256079796384E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>3.757151509711361E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0001696575514073456</v>
+        <v>7.817850132568058E-05</v>
       </c>
       <c r="AD5">
-        <v>0.0001648658116500331</v>
+        <v>7.331128178453546E-05</v>
       </c>
       <c r="AE5">
-        <v>0.0001184725539997147</v>
+        <v>2.618723464311566E-05</v>
       </c>
       <c r="AF5">
-        <v>0.000144647102674051</v>
+        <v>5.277408644239533E-05</v>
       </c>
       <c r="AG5">
-        <v>0.0002125580992345594</v>
+        <v>0.0001217548212607926</v>
       </c>
       <c r="AH5">
-        <v>5.169101938200238E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>2.858106855245321E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>7.499874120153503E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>5.605340716106032E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0001384950929856322</v>
+        <v>4.652516991325971E-05</v>
       </c>
       <c r="AM5">
-        <v>0.000104331684715908</v>
+        <v>1.182361750345595E-05</v>
       </c>
       <c r="AN5">
-        <v>6.38591967657201E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0001135684042480954</v>
+        <v>2.120583441841505E-05</v>
       </c>
       <c r="AP5">
-        <v>8.398795574625785E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.00010793659453333</v>
+        <v>1.548531208539686E-05</v>
       </c>
       <c r="AR5">
-        <v>7.252382632688219E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0001838524106884179</v>
+        <v>9.259695891641369E-05</v>
       </c>
       <c r="AT5">
-        <v>8.342297577487243E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0001257228636325079</v>
+        <v>3.355175160592249E-05</v>
       </c>
       <c r="AV5">
-        <v>0.0001068699645873516</v>
+        <v>1.440188051791372E-05</v>
       </c>
       <c r="AW5">
-        <v>6.157707688130274E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>3.315238232092965E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>1.533133722351301E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>4.145731590030927E-07</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>4.278788183292004E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>8.457247071665389E-06</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>7.470213021655752E-06</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0001287692534782172</v>
+        <v>3.664612837468479E-05</v>
       </c>
       <c r="BE5">
-        <v>7.13227963877108E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>7.591422615516842E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0002764737459974205</v>
+        <v>0.0001866772712820778</v>
       </c>
       <c r="BH5">
-        <v>0.0002228841087115775</v>
+        <v>0.0001322434866838039</v>
       </c>
       <c r="BI5">
-        <v>0.0001998494598782145</v>
+        <v>0.0001088459946238343</v>
       </c>
       <c r="BJ5">
-        <v>0.000182771100743183</v>
+        <v>9.149861610940922E-05</v>
       </c>
       <c r="BK5">
-        <v>0.0001949331701272101</v>
+        <v>0.0001038522631697203</v>
       </c>
       <c r="BL5">
-        <v>8.859966551268836E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>4.19838158736436E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>3.340411630818007E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>6.518191669872824E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>5.88617370188267E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.000144865022663014</v>
+        <v>5.299543912063045E-05</v>
       </c>
       <c r="BR5">
-        <v>7.97051859631675E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>4.371926278574833E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>2.621133267247334E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>1.308308233738048E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>7.499874120153503E-05</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>9.914156497877227E-05</v>
+        <v>6.551742676172313E-06</v>
       </c>
       <c r="BX5">
-        <v>6.803770655409091E-05</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>6.906025650230177E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.000104331684715908</v>
+        <v>1.182361750345595E-05</v>
       </c>
       <c r="CA5">
-        <v>6.238735684026445E-05</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>5.88617370188267E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>8.780320555302671E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1.149635991774329E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>7.761669106894362E-09</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>1.008210548937111E-06</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>1.78550440956947E-05</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>2.948162350684276E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>1.199865839230336E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>4.469369173639638E-05</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>9.773647104993612E-05</v>
+        <v>5.124515620041173E-06</v>
       </c>
       <c r="CL5">
-        <v>4.780576257877918E-06</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>4.648370764573736E-05</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1137771042375254</v>
+        <v>0.1154751767807992</v>
       </c>
       <c r="CO5">
-        <v>0.03572035019086965</v>
+        <v>0.0361888678708757</v>
       </c>
       <c r="CP5">
-        <v>0.03793619007864391</v>
+        <v>0.0384396118069096</v>
       </c>
       <c r="CQ5">
-        <v>0.0009164898235824947</v>
+        <v>0.0008367749220810973</v>
       </c>
       <c r="CR5">
-        <v>0.02779419359230611</v>
+        <v>0.02813785795869678</v>
       </c>
       <c r="CS5">
-        <v>2.632949566648873E-05</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.01464091225848099</v>
+        <v>0.01477738531606747</v>
       </c>
       <c r="CU5">
-        <v>0.01274170835467007</v>
+        <v>0.01284826503378567</v>
       </c>
       <c r="CV5">
-        <v>0.03146357840646258</v>
+        <v>0.03186504315154631</v>
       </c>
       <c r="CW5">
-        <v>0.02642881566145847</v>
+        <v>0.02675097250943416</v>
       </c>
       <c r="CX5">
-        <v>0.0001382820429964225</v>
+        <v>4.630876394731814E-05</v>
       </c>
       <c r="CY5">
-        <v>0.002218519187638549</v>
+        <v>0.002159313933972824</v>
       </c>
       <c r="CZ5">
-        <v>0.004257057084392619</v>
+        <v>0.00422996300695402</v>
       </c>
       <c r="DA5">
-        <v>0.008374365575863092</v>
+        <v>0.008412127598849002</v>
       </c>
       <c r="DB5">
-        <v>0.0007662494611917257</v>
+        <v>0.0006841679641215931</v>
       </c>
       <c r="DC5">
-        <v>0.001194054539524661</v>
+        <v>0.00111871185475872</v>
       </c>
       <c r="DD5">
-        <v>0.01570537620456904</v>
+        <v>0.0158586167646948</v>
       </c>
       <c r="DE5">
-        <v>0.002298733883575912</v>
+        <v>0.002240792176808849</v>
       </c>
       <c r="DF5">
-        <v>0.006722584059520953</v>
+        <v>0.006734327116931375</v>
       </c>
       <c r="DG5">
-        <v>0.01765042910605785</v>
+        <v>0.01783430826092852</v>
       </c>
       <c r="DH5">
-        <v>0.0001791382309271772</v>
+        <v>8.7808521101241E-05</v>
       </c>
       <c r="DI5">
-        <v>0.0009876899499764184</v>
+        <v>0.000909096597311405</v>
       </c>
       <c r="DJ5">
-        <v>0.0003117593842103071</v>
+        <v>0.0002225187310711758</v>
       </c>
       <c r="DK5">
-        <v>0.01357511331246056</v>
+        <v>0.01369479783850547</v>
       </c>
       <c r="DL5">
-        <v>0.01243914536999399</v>
+        <v>0.01254093605808425</v>
       </c>
       <c r="DM5">
-        <v>0.0005601407716305227</v>
+        <v>0.0004748126376138901</v>
       </c>
       <c r="DN5">
-        <v>0.006657125662836228</v>
+        <v>0.006667837615495133</v>
       </c>
       <c r="DO5">
-        <v>6.322256079796384E-05</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0009228071532625405</v>
+        <v>0.0008431917627326898</v>
       </c>
       <c r="DQ5">
-        <v>0.009050783541604518</v>
+        <v>0.009099200542619389</v>
       </c>
       <c r="DR5">
-        <v>0.002501506273306088</v>
+        <v>0.002446758649882282</v>
       </c>
       <c r="DS5">
-        <v>0.0001155512381476707</v>
+        <v>2.321990204137602E-05</v>
       </c>
       <c r="DT5">
-        <v>0.003890594502952868</v>
+        <v>0.003857727884051097</v>
       </c>
       <c r="DU5">
-        <v>0.01456599326227542</v>
+        <v>0.01470128619115605</v>
       </c>
       <c r="DV5">
-        <v>0.01197494689350427</v>
+        <v>0.01206942549821033</v>
       </c>
       <c r="DW5">
-        <v>0.008910104548729494</v>
+        <v>0.008956305565465212</v>
       </c>
       <c r="DX5">
-        <v>0.02286316884204796</v>
+        <v>0.02312915939870078</v>
       </c>
       <c r="DY5">
-        <v>0.0005412446725875543</v>
+        <v>0.0004556188860390065</v>
       </c>
       <c r="DZ5">
-        <v>0.001847758206416499</v>
+        <v>0.001782712702625858</v>
       </c>
       <c r="EA5">
-        <v>9.890100499095591E-06</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.009023387542992044</v>
+        <v>0.009071373000526285</v>
       </c>
       <c r="EC5">
-        <v>0.03134684841237462</v>
+        <v>0.03174647441930336</v>
       </c>
       <c r="ED5">
-        <v>0.01745168211612379</v>
+        <v>0.01763243059600012</v>
       </c>
       <c r="EE5">
-        <v>0.01479574325063926</v>
+        <v>0.01493465521568119</v>
       </c>
       <c r="EF5">
-        <v>0.01609501518483497</v>
+        <v>0.01625439336250525</v>
       </c>
       <c r="EG5">
-        <v>0.01258188936276443</v>
+        <v>0.01268592856314112</v>
       </c>
       <c r="EH5">
-        <v>8.976600545361668E-05</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.005591540716804961</v>
+        <v>0.005585467508863485</v>
       </c>
       <c r="EJ5">
-        <v>0.03243072535747945</v>
+        <v>0.03284742466172005</v>
       </c>
       <c r="EK5">
-        <v>0.052716437330068</v>
+        <v>0.0534526784358526</v>
       </c>
       <c r="EL5">
-        <v>0.04163029589154835</v>
+        <v>0.04219190740522284</v>
       </c>
       <c r="EM5">
-        <v>0.02346151181174365</v>
+        <v>0.02373692750421306</v>
       </c>
       <c r="EN5">
-        <v>0.01011611448764865</v>
+        <v>0.01018131264824025</v>
       </c>
       <c r="EO5">
-        <v>5.605340716106032E-05</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.001000670449318994</v>
+        <v>0.0009222815662900711</v>
       </c>
       <c r="EQ5">
-        <v>0.002475834374606294</v>
+        <v>0.002420682365831327</v>
       </c>
       <c r="ER5">
-        <v>0.01301970834059019</v>
+        <v>0.01313064409284112</v>
       </c>
       <c r="ES5">
-        <v>0.01806334708514477</v>
+        <v>0.01825373054980282</v>
       </c>
       <c r="ET5">
-        <v>0.01745984011571062</v>
+        <v>0.01764071710090579</v>
       </c>
       <c r="EU5">
-        <v>0.01740548511846354</v>
+        <v>0.01758550590034838</v>
       </c>
       <c r="EV5">
-        <v>0.01623634317767712</v>
+        <v>0.01639794756271456</v>
       </c>
       <c r="EW5">
-        <v>0.001078304745387046</v>
+        <v>0.001001138762636936</v>
       </c>
       <c r="EX5">
-        <v>0.00255936647037564</v>
+        <v>0.002505530264388613</v>
       </c>
       <c r="EY5">
-        <v>0.008788114554907928</v>
+        <v>0.008832393977644442</v>
       </c>
       <c r="EZ5">
-        <v>0.01067644545926954</v>
+        <v>0.01075046998831074</v>
       </c>
       <c r="FA5">
-        <v>0.007610876614531556</v>
+        <v>0.007636612111729635</v>
       </c>
       <c r="FB5">
-        <v>0.001119848143282996</v>
+        <v>0.001043336554730331</v>
       </c>
       <c r="FC5">
-        <v>0.002087680494265143</v>
+        <v>0.002026414261332399</v>
       </c>
       <c r="FD5">
-        <v>0.001960818100690349</v>
+        <v>0.001897553523413278</v>
       </c>
       <c r="FE5">
-        <v>4.976758747941854E-05</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>5.271422733017992E-05</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.0001756073411060063</v>
+        <v>8.422201248315362E-05</v>
       </c>
       <c r="FH5">
-        <v>0.002501506273306088</v>
+        <v>0.002446758649882282</v>
       </c>
       <c r="FI5">
-        <v>0.003943569300269851</v>
+        <v>0.003911537143682933</v>
       </c>
       <c r="FJ5">
-        <v>0.004183670288109444</v>
+        <v>0.004155420217273839</v>
       </c>
       <c r="FK5">
-        <v>0.01307378533785135</v>
+        <v>0.01318557291433946</v>
       </c>
       <c r="FL5">
-        <v>0.00831441957889918</v>
+        <v>0.008351237328798148</v>
       </c>
       <c r="FM5">
-        <v>0.003442252325660076</v>
+        <v>0.00340232339278905</v>
       </c>
       <c r="FN5">
-        <v>0.001062814346171589</v>
+        <v>0.0009854043576858834</v>
       </c>
       <c r="FO5">
-        <v>0.002972622449445444</v>
+        <v>0.002925295877442634</v>
       </c>
       <c r="FP5">
-        <v>0.008552368566847768</v>
+        <v>0.008592934504061402</v>
       </c>
       <c r="FQ5">
-        <v>0.007391600025637268</v>
+        <v>0.007413881464316407</v>
       </c>
       <c r="FR5">
-        <v>0.008782326555201073</v>
+        <v>0.008826514805004827</v>
       </c>
       <c r="FS5">
-        <v>0.005577696717506119</v>
+        <v>0.005571405438023328</v>
       </c>
       <c r="FT5">
-        <v>0.0001761205110800158</v>
+        <v>8.474326594263377E-05</v>
       </c>
       <c r="FU5">
-        <v>0.001291269334601018</v>
+        <v>0.00121745798335679</v>
       </c>
       <c r="FV5">
-        <v>0.0007441211123124612</v>
+        <v>0.0006616910481091842</v>
       </c>
       <c r="FW5">
-        <v>6.803770655409091E-05</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0001218298238296789</v>
+        <v>2.95973883970548E-05</v>
       </c>
       <c r="FY5">
-        <v>3.582586818552549E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0002991684148480025</v>
+        <v>0.0002097294279733508</v>
       </c>
       <c r="GA5">
-        <v>6.668618662254141E-05</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0002176904989746186</v>
+        <v>0.0001269680668820019</v>
       </c>
       <c r="GC5">
-        <v>7.289593130803617E-05</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.001708898213449348</v>
+        <v>0.001641665378379673</v>
       </c>
       <c r="GE5">
-        <v>0.007566262116791149</v>
+        <v>0.007591294843635286</v>
       </c>
       <c r="GF5">
-        <v>0.008786415554993977</v>
+        <v>0.008830668214977768</v>
       </c>
       <c r="GG5">
-        <v>0.005304593331337999</v>
+        <v>0.005294000110264899</v>
       </c>
       <c r="GH5">
-        <v>0.0008698146159464561</v>
+        <v>0.0007893644836601784</v>
       </c>
       <c r="GI5">
-        <v>0.0009415855823114685</v>
+        <v>0.00086226599076844</v>
       </c>
       <c r="GJ5">
-        <v>0.009132983537441332</v>
+        <v>0.009182695357922835</v>
       </c>
       <c r="GK5">
-        <v>0.005560799218361927</v>
+        <v>0.00555424176841761</v>
       </c>
       <c r="GL5">
-        <v>0.001416199928273652</v>
+        <v>0.00134435649154108</v>
       </c>
       <c r="GM5">
-        <v>0.0007684617610796791</v>
+        <v>0.0006864151122955079</v>
       </c>
       <c r="GN5">
-        <v>3.530359521197707E-06</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0005659432713366431</v>
+        <v>0.0004807065386576643</v>
       </c>
       <c r="GP5">
-        <v>2.958006050185721E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0002176904989746186</v>
+        <v>0.0001269680668820019</v>
       </c>
       <c r="GR5">
-        <v>0.002558450070422053</v>
+        <v>0.002504599429245741</v>
       </c>
       <c r="GS5">
-        <v>0.01118890793331483</v>
+        <v>0.01127100480324312</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.576651896286444E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3.977278409869115E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>8.79228230075416E-05</v>
+        <v>9.406476447369226E-06</v>
       </c>
       <c r="E6">
-        <v>0.0001478119766503667</v>
+        <v>7.014306898725799E-05</v>
       </c>
       <c r="F6">
-        <v>0.0003377449923462097</v>
+        <v>0.0002627636602380535</v>
       </c>
       <c r="G6">
-        <v>0.000179127745940706</v>
+        <v>0.0001019019602683734</v>
       </c>
       <c r="H6">
-        <v>0.0001686138861789653</v>
+        <v>9.123932809663154E-05</v>
       </c>
       <c r="I6">
-        <v>0.0002091033752614149</v>
+        <v>0.000132301748434302</v>
       </c>
       <c r="J6">
-        <v>5.794828668680797E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>9.323488788716252E-05</v>
+        <v>1.479370769901077E-05</v>
       </c>
       <c r="L6">
-        <v>7.864759221773174E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1.058222876019138E-08</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0001065042475864596</v>
+        <v>2.825083047165796E-05</v>
       </c>
       <c r="O6">
-        <v>0.0001508914965805803</v>
+        <v>7.326616450360711E-05</v>
       </c>
       <c r="P6">
-        <v>8.544310806373552E-05</v>
+        <v>6.89167323182794E-06</v>
       </c>
       <c r="Q6">
-        <v>0.0001253789771587309</v>
+        <v>4.739263979106502E-05</v>
       </c>
       <c r="R6">
-        <v>2.679710739273877E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0001142527274108679</v>
+        <v>3.61089522395052E-05</v>
       </c>
       <c r="T6">
-        <v>0.000232084604740627</v>
+        <v>0.0001556081651398886</v>
       </c>
       <c r="U6">
-        <v>8.916844797931393E-05</v>
+        <v>1.066972716584236E-05</v>
       </c>
       <c r="V6">
-        <v>0.0003145762228712476</v>
+        <v>0.0002392670498226887</v>
       </c>
       <c r="W6">
-        <v>0.0001687795661752108</v>
+        <v>9.14073524852209E-05</v>
       </c>
       <c r="X6">
-        <v>2.868691234991305E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>2.567392141819179E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.150781173921633E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>3.168272928202351E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>3.334685124431209E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>4.625876195170951E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>7.416160831939063E-08</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>4.670209394166296E-08</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>3.525687420102821E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0001029058976680034</v>
+        <v>2.460156345885892E-05</v>
       </c>
       <c r="AH6">
-        <v>0.0001591716263929406</v>
+        <v>8.16634591721879E-05</v>
       </c>
       <c r="AI6">
-        <v>5.539706874462226E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0001642417762780437</v>
+        <v>8.680535230235673E-05</v>
       </c>
       <c r="AK6">
-        <v>0.0001812686758921895</v>
+        <v>0.0001040731846422425</v>
       </c>
       <c r="AL6">
-        <v>0.0001470857366668244</v>
+        <v>6.940655261854032E-05</v>
       </c>
       <c r="AM6">
-        <v>0.0002140329151497044</v>
+        <v>0.0001373010419188917</v>
       </c>
       <c r="AN6">
-        <v>0.0004621566495268615</v>
+        <v>0.0003889357576842635</v>
       </c>
       <c r="AO6">
-        <v>0.0001234577172022695</v>
+        <v>4.544419376969126E-05</v>
       </c>
       <c r="AP6">
-        <v>0.0001569160064440562</v>
+        <v>7.937592192333499E-05</v>
       </c>
       <c r="AQ6">
-        <v>6.97226784199832E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>2.332036247152684E-08</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>8.907058298153169E-07</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>1.376014768817514E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>4.707589193319217E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>3.92265021110707E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>5.105211884308511E-07</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.001132244674341697</v>
+        <v>0.001068505610545481</v>
       </c>
       <c r="AY6">
-        <v>0.05430724376931926</v>
+        <v>0.05499593748914788</v>
       </c>
       <c r="AZ6">
-        <v>0.05234448881379813</v>
+        <v>0.05300540930936928</v>
       </c>
       <c r="BA6">
-        <v>0.01197320572866983</v>
+        <v>0.01206286759843465</v>
       </c>
       <c r="BB6">
-        <v>0.01456511166993349</v>
+        <v>0.0146914493278595</v>
       </c>
       <c r="BC6">
-        <v>0.01613552063434575</v>
+        <v>0.01628407977245291</v>
       </c>
       <c r="BD6">
-        <v>0.001343895969545372</v>
+        <v>0.001283151797632905</v>
       </c>
       <c r="BE6">
-        <v>0.0009655628781189479</v>
+        <v>0.0008994652463858062</v>
       </c>
       <c r="BF6">
-        <v>0.04285010602895459</v>
+        <v>0.0433766798392566</v>
       </c>
       <c r="BG6">
-        <v>0.02861310935158554</v>
+        <v>0.02893822790617091</v>
       </c>
       <c r="BH6">
-        <v>0.005861613267167361</v>
+        <v>0.005864795351197246</v>
       </c>
       <c r="BI6">
-        <v>0.004246832903760621</v>
+        <v>0.004227165646850965</v>
       </c>
       <c r="BJ6">
-        <v>0.002914918333943732</v>
+        <v>0.002876404321897743</v>
       </c>
       <c r="BK6">
-        <v>0.005278039180391994</v>
+        <v>0.005272963619249578</v>
       </c>
       <c r="BL6">
-        <v>0.0006462598553548164</v>
+        <v>0.0005756440465398262</v>
       </c>
       <c r="BM6">
-        <v>0.0002468917144050764</v>
+        <v>0.0001706247972290092</v>
       </c>
       <c r="BN6">
-        <v>0.003662553717001233</v>
+        <v>0.003634618837667697</v>
       </c>
       <c r="BO6">
-        <v>0.004439481399394927</v>
+        <v>0.004422540142415659</v>
       </c>
       <c r="BP6">
-        <v>0.004173925505412808</v>
+        <v>0.004153226599840823</v>
       </c>
       <c r="BQ6">
-        <v>0.007147344138030838</v>
+        <v>0.007168719472171141</v>
       </c>
       <c r="BR6">
-        <v>0.006614936850095958</v>
+        <v>0.006628778555566752</v>
       </c>
       <c r="BS6">
-        <v>0.0002906514534134174</v>
+        <v>0.0002150037419316264</v>
       </c>
       <c r="BT6">
-        <v>0.003977128209872519</v>
+        <v>0.003953644598340713</v>
       </c>
       <c r="BU6">
-        <v>0.004396230900375045</v>
+        <v>0.004378677643510031</v>
       </c>
       <c r="BV6">
-        <v>0.01220854872333662</v>
+        <v>0.0123015407254493</v>
       </c>
       <c r="BW6">
-        <v>0.01408163868088969</v>
+        <v>0.01420113513649985</v>
       </c>
       <c r="BX6">
-        <v>0.004137119206246892</v>
+        <v>0.004115899487010446</v>
       </c>
       <c r="BY6">
-        <v>0.003257406526182454</v>
+        <v>0.00322373876422073</v>
       </c>
       <c r="BZ6">
-        <v>0.0003665454516935497</v>
+        <v>0.0002919716496308136</v>
       </c>
       <c r="CA6">
-        <v>0.001838628658334014</v>
+        <v>0.001784885014874976</v>
       </c>
       <c r="CB6">
-        <v>0.001458801666941443</v>
+        <v>0.001399683424793294</v>
       </c>
       <c r="CC6">
-        <v>0.0005123062183903996</v>
+        <v>0.0004397949491211876</v>
       </c>
       <c r="CD6">
-        <v>0.001536439565182056</v>
+        <v>0.001478419908852096</v>
       </c>
       <c r="CE6">
-        <v>0.008063162817277062</v>
+        <v>0.008097497098476113</v>
       </c>
       <c r="CF6">
-        <v>0.0161557866338865</v>
+        <v>0.01630463253838213</v>
       </c>
       <c r="CG6">
-        <v>0.01537980065147146</v>
+        <v>0.01551766625878346</v>
       </c>
       <c r="CH6">
-        <v>0.01654068362516417</v>
+        <v>0.01669497586947146</v>
       </c>
       <c r="CI6">
-        <v>0.01872632757563432</v>
+        <v>0.01891154695091772</v>
       </c>
       <c r="CJ6">
-        <v>0.0001492698366173295</v>
+        <v>7.162155785223195E-05</v>
       </c>
       <c r="CK6">
-        <v>0.0002056582853394856</v>
+        <v>0.0001288079100658487</v>
       </c>
       <c r="CL6">
-        <v>0.0002584128941439899</v>
+        <v>0.0001823090030796129</v>
       </c>
       <c r="CM6">
-        <v>0.008835103799783762</v>
+        <v>0.008880361140919762</v>
       </c>
       <c r="CN6">
-        <v>0.02481928043755919</v>
+        <v>0.02509071584594876</v>
       </c>
       <c r="CO6">
-        <v>0.01938224756077022</v>
+        <v>0.01957674828459431</v>
       </c>
       <c r="CP6">
-        <v>0.01720974361000231</v>
+        <v>0.01737350313546375</v>
       </c>
       <c r="CQ6">
-        <v>0.01740382360560417</v>
+        <v>0.01757032938689677</v>
       </c>
       <c r="CR6">
-        <v>0.01412899367981656</v>
+        <v>0.01424916021449146</v>
       </c>
       <c r="CS6">
-        <v>6.792328846075999E-07</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.008644334804106863</v>
+        <v>0.00868689274046826</v>
       </c>
       <c r="CU6">
-        <v>0.02798477336582454</v>
+        <v>0.02830100088885628</v>
       </c>
       <c r="CV6">
-        <v>0.04608512595564435</v>
+        <v>0.04665747569617578</v>
       </c>
       <c r="CW6">
-        <v>0.03361903923814392</v>
+        <v>0.03401499231690947</v>
       </c>
       <c r="CX6">
-        <v>0.01850328958068868</v>
+        <v>0.01868535294088516</v>
       </c>
       <c r="CY6">
-        <v>0.004108496406895526</v>
+        <v>0.004086871671524475</v>
       </c>
       <c r="CZ6">
-        <v>0.0002548996942236041</v>
+        <v>0.0001787460909478399</v>
       </c>
       <c r="DA6">
-        <v>0.002703996938723516</v>
+        <v>0.002662498362968402</v>
       </c>
       <c r="DB6">
-        <v>0.00700706884120968</v>
+        <v>0.007026459262630522</v>
       </c>
       <c r="DC6">
-        <v>0.02053119153473349</v>
+        <v>0.02074194995723688</v>
       </c>
       <c r="DD6">
-        <v>0.02237623549292212</v>
+        <v>0.02261310151457921</v>
       </c>
       <c r="DE6">
-        <v>0.02013321754375216</v>
+        <v>0.02033834458528816</v>
       </c>
       <c r="DF6">
-        <v>0.01721759060982448</v>
+        <v>0.01738146117129946</v>
       </c>
       <c r="DG6">
-        <v>0.01127760924443305</v>
+        <v>0.0113574283383103</v>
       </c>
       <c r="DH6">
-        <v>8.736290802023009E-05</v>
+        <v>8.838638594055527E-06</v>
       </c>
       <c r="DI6">
-        <v>0.004634177894982823</v>
+        <v>0.004619991617385417</v>
       </c>
       <c r="DJ6">
-        <v>0.01076206575611602</v>
+        <v>0.01083458984616446</v>
       </c>
       <c r="DK6">
-        <v>0.01178633673290455</v>
+        <v>0.01187335438337365</v>
       </c>
       <c r="DL6">
-        <v>0.009257233790217685</v>
+        <v>0.009308464322687199</v>
       </c>
       <c r="DM6">
-        <v>0.004869153889657926</v>
+        <v>0.004858292551313318</v>
       </c>
       <c r="DN6">
-        <v>0.005187187882450816</v>
+        <v>0.005180826764257732</v>
       </c>
       <c r="DO6">
-        <v>0.004251562403653444</v>
+        <v>0.004231962069749525</v>
       </c>
       <c r="DP6">
-        <v>0.001483761066375827</v>
+        <v>0.001424996002802452</v>
       </c>
       <c r="DQ6">
-        <v>0.001317454170144582</v>
+        <v>0.001256335843515316</v>
       </c>
       <c r="DR6">
-        <v>0.0002240642749223793</v>
+        <v>0.0001474743466673213</v>
       </c>
       <c r="DS6">
-        <v>0.0004182510205218266</v>
+        <v>0.0003444088586235384</v>
       </c>
       <c r="DT6">
-        <v>0.002303311547803627</v>
+        <v>0.00225614322443819</v>
       </c>
       <c r="DU6">
-        <v>0.005317741379492285</v>
+        <v>0.005313227609354918</v>
       </c>
       <c r="DV6">
-        <v>0.009156536792499625</v>
+        <v>0.009206342450054512</v>
       </c>
       <c r="DW6">
-        <v>0.006894049043770873</v>
+        <v>0.006911840221143968</v>
       </c>
       <c r="DX6">
-        <v>0.005396535477706696</v>
+        <v>0.005393136653759489</v>
       </c>
       <c r="DY6">
-        <v>0.0005163753882981865</v>
+        <v>0.0004439216982841295</v>
       </c>
       <c r="DZ6">
-        <v>0.002021307754194241</v>
+        <v>0.001970149042431443</v>
       </c>
       <c r="EA6">
-        <v>0.00408680210738715</v>
+        <v>0.004064870395007247</v>
       </c>
       <c r="EB6">
-        <v>0.006189094859746154</v>
+        <v>0.006196910848627637</v>
       </c>
       <c r="EC6">
-        <v>0.004345671201520802</v>
+        <v>0.00432740251869254</v>
       </c>
       <c r="ED6">
-        <v>0.001091457175266001</v>
+        <v>0.001027140963336471</v>
       </c>
       <c r="EE6">
-        <v>4.232708904080691E-05</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>3.811079613635421E-05</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>2.533487442587508E-06</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>4.665040194283439E-06</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>9.816616777541257E-06</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0007220286836377852</v>
+        <v>0.0006524850130709803</v>
       </c>
       <c r="EK6">
-        <v>0.0004297449402613578</v>
+        <v>0.0003560654187424127</v>
       </c>
       <c r="EL6">
-        <v>0.0004536247197202073</v>
+        <v>0.0003802831000204701</v>
       </c>
       <c r="EM6">
-        <v>0.000708167833951892</v>
+        <v>0.0006384280306556077</v>
       </c>
       <c r="EN6">
-        <v>0.0008342929810937137</v>
+        <v>0.0007663378641568877</v>
       </c>
       <c r="EO6">
-        <v>0.002982425932413912</v>
+        <v>0.002944867161197208</v>
       </c>
       <c r="EP6">
-        <v>0.006908954843433085</v>
+        <v>0.006926956939706469</v>
       </c>
       <c r="EQ6">
-        <v>0.005555863374096096</v>
+        <v>0.005554719059497826</v>
       </c>
       <c r="ER6">
-        <v>0.002155545151152227</v>
+        <v>0.002106285915082495</v>
       </c>
       <c r="ES6">
-        <v>1.984380955031056E-06</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.003843293712905402</v>
+        <v>0.003817916326765005</v>
       </c>
       <c r="EU6">
-        <v>0.009615489782099087</v>
+        <v>0.009671789680958999</v>
       </c>
       <c r="EV6">
-        <v>0.008268531812623103</v>
+        <v>0.008305772090389497</v>
       </c>
       <c r="EW6">
-        <v>0.003932794910877177</v>
+        <v>0.003908683977706667</v>
       </c>
       <c r="EX6">
-        <v>0.001917800556539864</v>
+        <v>0.001865177205187376</v>
       </c>
       <c r="EY6">
-        <v>0.001096732575146453</v>
+        <v>0.001032491010774691</v>
       </c>
       <c r="EZ6">
-        <v>0.001466151266774891</v>
+        <v>0.001407137022369201</v>
       </c>
       <c r="FA6">
-        <v>0.0001205160272689324</v>
+        <v>4.24608785616429E-05</v>
       </c>
       <c r="FB6">
-        <v>1.681037561905256E-05</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.002192727750309616</v>
+        <v>0.00214399465259555</v>
       </c>
       <c r="FD6">
-        <v>0.01058977726002032</v>
+        <v>0.01065986344663839</v>
       </c>
       <c r="FE6">
-        <v>0.006191228859697795</v>
+        <v>0.006199075044941312</v>
       </c>
       <c r="FF6">
-        <v>0.003145735928713071</v>
+        <v>0.003110488014049268</v>
       </c>
       <c r="FG6">
-        <v>2.235427949341968E-05</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.0002745661437779339</v>
+        <v>0.000198690823184521</v>
       </c>
       <c r="FI6">
-        <v>0.000215973895105719</v>
+        <v>0.00013926948698024</v>
       </c>
       <c r="FJ6">
-        <v>0.0003569298319114534</v>
+        <v>0.0002822199676450115</v>
       </c>
       <c r="FK6">
-        <v>0.0008813745800267765</v>
+        <v>0.0008140856735111193</v>
       </c>
       <c r="FL6">
-        <v>0.002151511051243646</v>
+        <v>0.002102194732163565</v>
       </c>
       <c r="FM6">
-        <v>0.003324469724662705</v>
+        <v>0.003291750915215698</v>
       </c>
       <c r="FN6">
-        <v>0.003042210931059097</v>
+        <v>0.003005498124933418</v>
       </c>
       <c r="FO6">
-        <v>3.561318519295368E-06</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0006403739854881987</v>
+        <v>0.0005696748908899801</v>
       </c>
       <c r="FQ6">
-        <v>0.005109030684221971</v>
+        <v>0.005101563632051933</v>
       </c>
       <c r="FR6">
-        <v>0.003604104618325774</v>
+        <v>0.003575342677050249</v>
       </c>
       <c r="FS6">
-        <v>0.004804488891123329</v>
+        <v>0.004792712535088479</v>
       </c>
       <c r="FT6">
-        <v>0.002509617143128444</v>
+        <v>0.002465368069335356</v>
       </c>
       <c r="FU6">
-        <v>0.002895962934373289</v>
+        <v>0.002857180701089758</v>
       </c>
       <c r="FV6">
-        <v>0.002201137350119042</v>
+        <v>0.002152523249277594</v>
       </c>
       <c r="FW6">
-        <v>0.0001534392465228446</v>
+        <v>7.584996542121064E-05</v>
       </c>
       <c r="FX6">
-        <v>0.001186986173101175</v>
+        <v>0.001124021708251691</v>
       </c>
       <c r="FY6">
-        <v>0.002829446635880645</v>
+        <v>0.002789723188784551</v>
       </c>
       <c r="FZ6">
-        <v>0.005801690168525305</v>
+        <v>0.005804024333332207</v>
       </c>
       <c r="GA6">
-        <v>0.006760032846807873</v>
+        <v>0.006775927678495064</v>
       </c>
       <c r="GB6">
-        <v>0.002476410143880962</v>
+        <v>0.002431691186960373</v>
       </c>
       <c r="GC6">
-        <v>0.002298185747919785</v>
+        <v>0.00225094489385495</v>
       </c>
       <c r="GD6">
-        <v>0.0004267086503301645</v>
+        <v>0.0003529861649348921</v>
       </c>
       <c r="GE6">
-        <v>0.0003232486926747168</v>
+        <v>0.000248062236141554</v>
       </c>
       <c r="GF6">
-        <v>0.002388278245878159</v>
+        <v>0.002342312211750818</v>
       </c>
       <c r="GG6">
-        <v>0.003713840115839008</v>
+        <v>0.003686630945362951</v>
       </c>
       <c r="GH6">
-        <v>0.003241496326543002</v>
+        <v>0.003207603433297658</v>
       </c>
       <c r="GI6">
-        <v>0.003429148222290539</v>
+        <v>0.003397910626472047</v>
       </c>
       <c r="GJ6">
-        <v>0.001120869374599478</v>
+        <v>0.001056969348911484</v>
       </c>
       <c r="GK6">
-        <v>0.0001472404966633173</v>
+        <v>6.956350248803624E-05</v>
       </c>
       <c r="GL6">
-        <v>0.0008038493817836096</v>
+        <v>0.0007354634841686017</v>
       </c>
       <c r="GM6">
-        <v>0.003553584119470641</v>
+        <v>0.003524107306916684</v>
       </c>
       <c r="GN6">
-        <v>0.006806006845766036</v>
+        <v>0.006822552215198393</v>
       </c>
       <c r="GO6">
-        <v>0.002875229534843138</v>
+        <v>0.002836153921403745</v>
       </c>
       <c r="GP6">
-        <v>0.0009730109779501631</v>
+        <v>0.0009070187377465766</v>
       </c>
       <c r="GQ6">
-        <v>0.0009993046773543097</v>
+        <v>0.0009336844962343373</v>
       </c>
       <c r="GR6">
-        <v>0.0001801002659186673</v>
+        <v>0.0001028882415237508</v>
       </c>
       <c r="GS6">
-        <v>0.0004009030109149576</v>
+        <v>0.0003268153725450003</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.611908231573628E-05</v>
+        <v>7.034896915318357E-05</v>
       </c>
       <c r="C2">
-        <v>0.0001529512846531675</v>
+        <v>0.0001414118572360106</v>
       </c>
       <c r="D2">
-        <v>0.0002212207467300983</v>
+        <v>0.0002039024122253682</v>
       </c>
       <c r="E2">
-        <v>0.0003711527912914128</v>
+        <v>0.0003481470362431077</v>
       </c>
       <c r="F2">
-        <v>0.0004849617307537705</v>
+        <v>0.0004562280864681087</v>
       </c>
       <c r="G2">
-        <v>0.0006011023242870631</v>
+        <v>0.0005666434029147537</v>
       </c>
       <c r="H2">
-        <v>0.0007364309284041038</v>
+        <v>0.0006962682262623229</v>
       </c>
       <c r="I2">
-        <v>0.0008215774809944787</v>
+        <v>0.0007756547791598806</v>
       </c>
       <c r="J2">
-        <v>0.0009110413637161978</v>
+        <v>0.0008593634988912353</v>
       </c>
       <c r="K2">
-        <v>0.0009642960093363398</v>
+        <v>0.0009068224163335984</v>
       </c>
       <c r="L2">
-        <v>0.0009848950879630162</v>
+        <v>0.0009215891827696513</v>
       </c>
       <c r="M2">
-        <v>0.001001847265478745</v>
+        <v>0.0009327049624735477</v>
       </c>
       <c r="N2">
-        <v>0.001018134596974247</v>
+        <v>0.0009431551513306053</v>
       </c>
       <c r="O2">
-        <v>0.001023983433852183</v>
+        <v>0.0009431551513306053</v>
       </c>
       <c r="P2">
-        <v>0.0010240497298242</v>
+        <v>0.0009431551513306053</v>
       </c>
       <c r="Q2">
-        <v>0.001024052767068092</v>
+        <v>0.0009431551513306053</v>
       </c>
       <c r="R2">
-        <v>0.001037925861490147</v>
+        <v>0.0009511883984458163</v>
       </c>
       <c r="S2">
-        <v>0.001104878893527029</v>
+        <v>0.001012361048599311</v>
       </c>
       <c r="T2">
-        <v>0.001219300507008026</v>
+        <v>0.0011210554592213</v>
       </c>
       <c r="U2">
-        <v>0.001347180310898455</v>
+        <v>0.001243223137455666</v>
       </c>
       <c r="V2">
-        <v>0.001467490980558612</v>
+        <v>0.001357813201763052</v>
       </c>
       <c r="W2">
-        <v>0.00158869774924603</v>
+        <v>0.001473300368996922</v>
       </c>
       <c r="X2">
-        <v>0.001724694383383394</v>
+        <v>0.001603593970758461</v>
       </c>
       <c r="Y2">
-        <v>0.001881394388150607</v>
+        <v>0.001754614137124009</v>
       </c>
       <c r="Z2">
-        <v>0.002031363042713036</v>
+        <v>0.001898895412157025</v>
       </c>
       <c r="AA2">
-        <v>0.002188063047480249</v>
+        <v>0.002049915578522574</v>
       </c>
       <c r="AB2">
-        <v>0.002322164391559953</v>
+        <v>0.002178311766934096</v>
       </c>
       <c r="AC2">
-        <v>0.002405840024105579</v>
+        <v>0.002256225751916027</v>
       </c>
       <c r="AD2">
-        <v>0.002442426895218645</v>
+        <v>0.00228699822195316</v>
       </c>
       <c r="AE2">
-        <v>0.002451371482990762</v>
+        <v>0.002290097441015279</v>
       </c>
       <c r="AF2">
-        <v>0.002451453368753253</v>
+        <v>0.002290097441015279</v>
       </c>
       <c r="AG2">
-        <v>0.002457302205631189</v>
+        <v>0.002290097441015279</v>
       </c>
       <c r="AH2">
-        <v>0.002484389816455263</v>
+        <v>0.002311360008747603</v>
       </c>
       <c r="AI2">
-        <v>0.002555839758628952</v>
+        <v>0.002377034606923735</v>
       </c>
       <c r="AJ2">
-        <v>0.002670229392108976</v>
+        <v>0.002485697001717575</v>
       </c>
       <c r="AK2">
-        <v>0.002894116508920192</v>
+        <v>0.00270397954980995</v>
       </c>
       <c r="AL2">
-        <v>0.003174453547448759</v>
+        <v>0.002978775260434375</v>
       </c>
       <c r="AM2">
-        <v>0.003548455708826857</v>
+        <v>0.00334734102689137</v>
       </c>
       <c r="AN2">
-        <v>0.003931447690478448</v>
+        <v>0.00372490668491232</v>
       </c>
       <c r="AO2">
-        <v>0.004377482944047976</v>
+        <v>0.004165586242192328</v>
       </c>
       <c r="AP2">
-        <v>0.004724649534609668</v>
+        <v>0.004507286373958429</v>
       </c>
       <c r="AQ2">
-        <v>0.004953032901557672</v>
+        <v>0.004730070209334023</v>
       </c>
       <c r="AR2">
-        <v>0.005176920018368888</v>
+        <v>0.004948352757426397</v>
       </c>
       <c r="AS2">
-        <v>0.005368322044191825</v>
+        <v>0.005134113821501818</v>
       </c>
       <c r="AT2">
-        <v>0.005478677827549129</v>
+        <v>0.005238737847052975</v>
       </c>
       <c r="AU2">
-        <v>0.005517753791737919</v>
+        <v>0.005272002198695367</v>
       </c>
       <c r="AV2">
-        <v>0.005522840376592665</v>
+        <v>0.005272002198695367</v>
       </c>
       <c r="AW2">
-        <v>0.00552606150129066</v>
+        <v>0.005272002198695367</v>
       </c>
       <c r="AX2">
-        <v>0.005567571750553507</v>
+        <v>0.005307703562539979</v>
       </c>
       <c r="AY2">
-        <v>0.005672321083740248</v>
+        <v>0.005406714857017684</v>
       </c>
       <c r="AZ2">
-        <v>0.005859277909427951</v>
+        <v>0.005588025741002726</v>
       </c>
       <c r="BA2">
-        <v>0.00615488627842111</v>
+        <v>0.005878109890554445</v>
       </c>
       <c r="BB2">
-        <v>0.006540601420155547</v>
+        <v>0.006258401759412908</v>
       </c>
       <c r="BC2">
-        <v>0.006918878991663714</v>
+        <v>0.006631247725739472</v>
       </c>
       <c r="BD2">
-        <v>0.0072446632315749</v>
+        <v>0.006951541552219981</v>
       </c>
       <c r="BE2">
-        <v>0.007541675310610764</v>
+        <v>0.007243030984389954</v>
       </c>
       <c r="BF2">
-        <v>0.007832165249448207</v>
+        <v>0.00752799096961161</v>
       </c>
       <c r="BG2">
-        <v>0.008093322337393271</v>
+        <v>0.00778358524236497</v>
       </c>
       <c r="BH2">
-        <v>0.008382424106188483</v>
+        <v>0.008067155502378298</v>
       </c>
       <c r="BI2">
-        <v>0.008610852713137863</v>
+        <v>0.008289984628437615</v>
       </c>
       <c r="BJ2">
-        <v>0.008814132619322155</v>
+        <v>0.008487636879656901</v>
       </c>
       <c r="BK2">
-        <v>0.008937745263082766</v>
+        <v>0.008605532617264419</v>
       </c>
       <c r="BL2">
-        <v>0.008959737758751835</v>
+        <v>0.008621694361787171</v>
       </c>
       <c r="BM2">
-        <v>0.008960618580808632</v>
+        <v>0.008621694361787171</v>
       </c>
       <c r="BN2">
-        <v>0.008979526708383865</v>
+        <v>0.008634768282800295</v>
       </c>
       <c r="BO2">
-        <v>0.009054936000678008</v>
+        <v>0.008704406666754533</v>
       </c>
       <c r="BP2">
-        <v>0.009232676836085337</v>
+        <v>0.008876491235790613</v>
       </c>
       <c r="BQ2">
-        <v>0.009493785544028929</v>
+        <v>0.009132037074342413</v>
       </c>
       <c r="BR2">
-        <v>0.009901089476420152</v>
+        <v>0.009533941919767367</v>
       </c>
       <c r="BS2">
-        <v>0.01027614370783026</v>
+        <v>0.009903560934889819</v>
       </c>
       <c r="BT2">
-        <v>0.01064230231896973</v>
+        <v>0.01026427436398339</v>
       </c>
       <c r="BU2">
-        <v>0.01124941193743955</v>
+        <v>0.01086620873768167</v>
       </c>
       <c r="BV2">
-        <v>0.01177009182327996</v>
+        <v>0.01138161655157099</v>
       </c>
       <c r="BW2">
-        <v>0.01227172153854082</v>
+        <v>0.01187795285298565</v>
       </c>
       <c r="BX2">
-        <v>0.01270126411160859</v>
+        <v>0.01230212125302347</v>
       </c>
       <c r="BY2">
-        <v>0.01303837532186438</v>
+        <v>0.01263375473944691</v>
       </c>
       <c r="BZ2">
-        <v>0.01324161255804737</v>
+        <v>0.01283136427286172</v>
       </c>
       <c r="CA2">
-        <v>0.0133112362101655</v>
+        <v>0.0128952105349906</v>
       </c>
       <c r="CB2">
-        <v>0.01332169426948366</v>
+        <v>0.01289982492114006</v>
       </c>
       <c r="CC2">
-        <v>0.01332210134649604</v>
+        <v>0.01289982492114006</v>
       </c>
       <c r="CD2">
-        <v>0.01332429813916287</v>
+        <v>0.01289982492114006</v>
       </c>
       <c r="CE2">
-        <v>0.01334251649971712</v>
+        <v>0.0129122083023866</v>
       </c>
       <c r="CF2">
-        <v>0.01341399171189158</v>
+        <v>0.01297790819887347</v>
       </c>
       <c r="CG2">
-        <v>0.01352581144529342</v>
+        <v>0.01308399781453156</v>
       </c>
       <c r="CH2">
-        <v>0.01374248154188508</v>
+        <v>0.01329505525718079</v>
       </c>
       <c r="CI2">
-        <v>0.01398636343930459</v>
+        <v>0.01353335498602262</v>
       </c>
       <c r="CJ2">
-        <v>0.01428337551834045</v>
+        <v>0.01382484441819259</v>
       </c>
       <c r="CK2">
-        <v>0.01456194502681524</v>
+        <v>0.01409787061860035</v>
       </c>
       <c r="CL2">
-        <v>0.0149046238072404</v>
+        <v>0.01443507791253881</v>
       </c>
       <c r="CM2">
-        <v>0.01632094265032843</v>
+        <v>0.01584712806748233</v>
       </c>
       <c r="CN2">
-        <v>0.1064228953914592</v>
+        <v>0.1060441665849098</v>
       </c>
       <c r="CO2">
-        <v>0.1735750774343996</v>
+        <v>0.1732657237892868</v>
       </c>
       <c r="CP2">
-        <v>0.1833940377331174</v>
+        <v>0.1830898288742304</v>
       </c>
       <c r="CQ2">
-        <v>0.1847335690738693</v>
+        <v>0.1844250055018433</v>
       </c>
       <c r="CR2">
-        <v>0.2154809610092833</v>
+        <v>0.2152009883333598</v>
       </c>
       <c r="CS2">
-        <v>0.2214908346921189</v>
+        <v>0.2212117394848852</v>
       </c>
       <c r="CT2">
-        <v>0.2406295492743673</v>
+        <v>0.2403660397687012</v>
       </c>
       <c r="CU2">
-        <v>0.2428473275418378</v>
+        <v>0.2425804472225575</v>
       </c>
       <c r="CV2">
-        <v>0.2935328130838193</v>
+        <v>0.2933168602953949</v>
       </c>
       <c r="CW2">
-        <v>0.3082299565309438</v>
+        <v>0.3080246135545093</v>
       </c>
       <c r="CX2">
-        <v>0.3130928253788847</v>
+        <v>0.3128870748822858</v>
       </c>
       <c r="CY2">
-        <v>0.3131890987358135</v>
+        <v>0.3129776007048743</v>
       </c>
       <c r="CZ2">
-        <v>0.3234409900477022</v>
+        <v>0.3232351218153529</v>
       </c>
       <c r="DA2">
-        <v>0.333646147358169</v>
+        <v>0.3334458565683348</v>
       </c>
       <c r="DB2">
-        <v>0.3371882302659282</v>
+        <v>0.3369860522802035</v>
       </c>
       <c r="DC2">
-        <v>0.3517436587087414</v>
+        <v>0.351551931771769</v>
       </c>
       <c r="DD2">
-        <v>0.3639734950808042</v>
+        <v>0.3637896138331303</v>
       </c>
       <c r="DE2">
-        <v>0.3641767323169872</v>
+        <v>0.3639872233665451</v>
       </c>
       <c r="DF2">
-        <v>0.3850917549532754</v>
+        <v>0.3849198217012881</v>
       </c>
       <c r="DG2">
-        <v>0.3992951643853793</v>
+        <v>0.3991332878154499</v>
       </c>
       <c r="DH2">
-        <v>0.3997458674990908</v>
+        <v>0.399578640462273</v>
       </c>
       <c r="DI2">
-        <v>0.3999175011443123</v>
+        <v>0.3997446109992416</v>
       </c>
       <c r="DJ2">
-        <v>0.4018530228031958</v>
+        <v>0.4016764456325953</v>
       </c>
       <c r="DK2">
-        <v>0.4209691833847581</v>
+        <v>0.4208081666484912</v>
       </c>
       <c r="DL2">
-        <v>0.424030525077892</v>
+        <v>0.4238670825716295</v>
       </c>
       <c r="DM2">
-        <v>0.4253355710175948</v>
+        <v>0.4251677351642184</v>
       </c>
       <c r="DN2">
-        <v>0.4318837962168084</v>
+        <v>0.4317174409470148</v>
       </c>
       <c r="DO2">
-        <v>0.4318859088245727</v>
+        <v>0.4317174409470148</v>
       </c>
       <c r="DP2">
-        <v>0.4380463266119883</v>
+        <v>0.4378789048575935</v>
       </c>
       <c r="DQ2">
-        <v>0.447497398899514</v>
+        <v>0.4473347097866185</v>
       </c>
       <c r="DR2">
-        <v>0.4486565295347777</v>
+        <v>0.448489283605937</v>
       </c>
       <c r="DS2">
-        <v>0.4489176382427213</v>
+        <v>0.4487448294444888</v>
       </c>
       <c r="DT2">
-        <v>0.4526613141566134</v>
+        <v>0.4524868440070189</v>
       </c>
       <c r="DU2">
-        <v>0.4676694836132002</v>
+        <v>0.4675059717178543</v>
       </c>
       <c r="DV2">
-        <v>0.474206472812072</v>
+        <v>0.4740444289126241</v>
       </c>
       <c r="DW2">
-        <v>0.4837499661024094</v>
+        <v>0.4835927583836569</v>
       </c>
       <c r="DX2">
-        <v>0.4968764185017495</v>
+        <v>0.4967280609507131</v>
       </c>
       <c r="DY2">
-        <v>0.4987069723574396</v>
+        <v>0.4985548101855041</v>
       </c>
       <c r="DZ2">
-        <v>0.4996521298861937</v>
+        <v>0.4994951711843653</v>
       </c>
       <c r="EA2">
-        <v>0.4999993522467571</v>
+        <v>0.4998369271486122</v>
       </c>
       <c r="EB2">
-        <v>0.5169518557624955</v>
+        <v>0.5168025671549229</v>
       </c>
       <c r="EC2">
-        <v>0.5428680995509336</v>
+        <v>0.5427419895069844</v>
       </c>
       <c r="ED2">
-        <v>0.5523959588407954</v>
+        <v>0.5522746674627799</v>
       </c>
       <c r="EE2">
-        <v>0.5683067793248431</v>
+        <v>0.568197457440501</v>
       </c>
       <c r="EF2">
-        <v>0.5788332576450853</v>
+        <v>0.578729873179</v>
       </c>
       <c r="EG2">
-        <v>0.5831051217750463</v>
+        <v>0.5830006676865523</v>
       </c>
       <c r="EH2">
-        <v>0.5839788864016284</v>
+        <v>0.5838695558018145</v>
       </c>
       <c r="EI2">
-        <v>0.599090462861361</v>
+        <v>0.5989922063626018</v>
       </c>
       <c r="EJ2">
-        <v>0.6417269941584729</v>
+        <v>0.6416706479517772</v>
       </c>
       <c r="EK2">
-        <v>0.6995365959171882</v>
+        <v>0.699539158384632</v>
       </c>
       <c r="EL2">
-        <v>0.7372079990632482</v>
+        <v>0.7372469093925552</v>
       </c>
       <c r="EM2">
-        <v>0.7580758746981021</v>
+        <v>0.7581323079071054</v>
       </c>
       <c r="EN2">
-        <v>0.7625943968355671</v>
+        <v>0.762650036752985</v>
       </c>
       <c r="EO2">
-        <v>0.762763939410725</v>
+        <v>0.7628139138772655</v>
       </c>
       <c r="EP2">
-        <v>0.7644142499609317</v>
+        <v>0.764460217880102</v>
       </c>
       <c r="EQ2">
-        <v>0.7692130931069247</v>
+        <v>0.7692585817779737</v>
       </c>
       <c r="ER2">
-        <v>0.7840787775591767</v>
+        <v>0.7841350648586063</v>
       </c>
       <c r="ES2">
-        <v>0.8033229291446328</v>
+        <v>0.8033949202666438</v>
       </c>
       <c r="ET2">
-        <v>0.8188859476180994</v>
+        <v>0.8189695185913923</v>
       </c>
       <c r="EU2">
-        <v>0.8388993282269575</v>
+        <v>0.8389994647896625</v>
       </c>
       <c r="EV2">
-        <v>0.8512560756028812</v>
+        <v>0.851364200033209</v>
       </c>
       <c r="EW2">
-        <v>0.8512589132339675</v>
+        <v>0.851364200033209</v>
       </c>
       <c r="EX2">
-        <v>0.8546694083377234</v>
+        <v>0.8547726605233337</v>
       </c>
       <c r="EY2">
-        <v>0.8628303835860011</v>
+        <v>0.8629369231181426</v>
       </c>
       <c r="EZ2">
-        <v>0.8713864608462987</v>
+        <v>0.8714967303575275</v>
       </c>
       <c r="FA2">
-        <v>0.8753068023655655</v>
+        <v>0.8754156084438078</v>
       </c>
       <c r="FB2">
-        <v>0.8755949297143311</v>
+        <v>0.8756982031921493</v>
       </c>
       <c r="FC2">
-        <v>0.8773608106680536</v>
+        <v>0.877460207071958</v>
       </c>
       <c r="FD2">
-        <v>0.8778796315138374</v>
+        <v>0.8779737537631093</v>
       </c>
       <c r="FE2">
-        <v>0.8780763764698228</v>
+        <v>0.8781648637430288</v>
       </c>
       <c r="FF2">
-        <v>0.878249080085077</v>
+        <v>0.8783319054487169</v>
       </c>
       <c r="FG2">
-        <v>0.8791660386129732</v>
+        <v>0.8792440358553958</v>
       </c>
       <c r="FH2">
-        <v>0.8815813210864522</v>
+        <v>0.8816561687791086</v>
       </c>
       <c r="FI2">
-        <v>0.8839580188587574</v>
+        <v>0.884029673775229</v>
       </c>
       <c r="FJ2">
-        <v>0.8896354643314797</v>
+        <v>0.8897076242975093</v>
       </c>
       <c r="FK2">
-        <v>0.8992084826227152</v>
+        <v>0.8992855118462817</v>
       </c>
       <c r="FL2">
-        <v>0.9020180491081894</v>
+        <v>0.9020923704981405</v>
       </c>
       <c r="FM2">
-        <v>0.9033686558492783</v>
+        <v>0.903438634933855</v>
       </c>
       <c r="FN2">
-        <v>0.9034201402028446</v>
+        <v>0.9034843215759863</v>
       </c>
       <c r="FO2">
-        <v>0.9112337474405544</v>
+        <v>0.9113008270040458</v>
       </c>
       <c r="FP2">
-        <v>0.9202329057143317</v>
+        <v>0.9203042116403138</v>
       </c>
       <c r="FQ2">
-        <v>0.9286762149711987</v>
+        <v>0.9287511245423389</v>
       </c>
       <c r="FR2">
-        <v>0.9370895782271547</v>
+        <v>0.9371680578949654</v>
       </c>
       <c r="FS2">
-        <v>0.9396676729055868</v>
+        <v>0.9397431854220505</v>
       </c>
       <c r="FT2">
-        <v>0.9397116513269248</v>
+        <v>0.9397813577230619</v>
       </c>
       <c r="FU2">
-        <v>0.9410058105662964</v>
+        <v>0.9410711114189555</v>
       </c>
       <c r="FV2">
-        <v>0.9412309195031447</v>
+        <v>0.9412906171558894</v>
       </c>
       <c r="FW2">
-        <v>0.9412333646722192</v>
+        <v>0.9412906171558894</v>
       </c>
       <c r="FX2">
-        <v>0.9413463053356551</v>
+        <v>0.9413978289573588</v>
       </c>
       <c r="FY2">
-        <v>0.9414439463786256</v>
+        <v>0.9414897239982069</v>
       </c>
       <c r="FZ2">
-        <v>0.9415883095630175</v>
+        <v>0.9416283935232643</v>
       </c>
       <c r="GA2">
-        <v>0.941598944166341</v>
+        <v>0.9416331846512013</v>
       </c>
       <c r="GB2">
-        <v>0.9420156884190195</v>
+        <v>0.9420445403928988</v>
       </c>
       <c r="GC2">
-        <v>0.9429000184059231</v>
+        <v>0.9429240057048495</v>
       </c>
       <c r="GD2">
-        <v>0.9470519281322347</v>
+        <v>0.9470747114239033</v>
       </c>
       <c r="GE2">
-        <v>0.9582497324729005</v>
+        <v>0.9582792052689788</v>
       </c>
       <c r="GF2">
-        <v>0.9670644727410673</v>
+        <v>0.9670979652962511</v>
       </c>
       <c r="GG2">
-        <v>0.9702045200365955</v>
+        <v>0.9702356749956247</v>
       </c>
       <c r="GH2">
-        <v>0.9707302423525893</v>
+        <v>0.9707561308886989</v>
       </c>
       <c r="GI2">
-        <v>0.9732031602278217</v>
+        <v>0.9732259637830725</v>
       </c>
       <c r="GJ2">
-        <v>0.980585589452414</v>
+        <v>0.9806108081495353</v>
       </c>
       <c r="GK2">
-        <v>0.9841469328607592</v>
+        <v>0.9841702859395176</v>
       </c>
       <c r="GL2">
-        <v>0.9853725958980469</v>
+        <v>0.9853914666970718</v>
       </c>
       <c r="GM2">
-        <v>0.9857892790107234</v>
+        <v>0.9858027612302723</v>
       </c>
       <c r="GN2">
-        <v>0.9857894044056773</v>
+        <v>0.9858027612302723</v>
       </c>
       <c r="GO2">
-        <v>0.9863628372531226</v>
+        <v>0.986370981104879</v>
       </c>
       <c r="GP2">
-        <v>0.9863709099553681</v>
+        <v>0.9863732074616417</v>
       </c>
       <c r="GQ2">
-        <v>0.986889798901154</v>
+        <v>0.9868868223290874</v>
       </c>
       <c r="GR2">
-        <v>0.9900374666969141</v>
+        <v>0.9900321610659348</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001445583741119105</v>
+        <v>0.0001250704635452144</v>
       </c>
       <c r="C3">
-        <v>0.0003449415459499892</v>
+        <v>0.0003061774659909152</v>
       </c>
       <c r="D3">
-        <v>0.0004066550934362996</v>
+        <v>0.0003480888758718232</v>
       </c>
       <c r="E3">
-        <v>0.0005711166967375202</v>
+        <v>0.0004931380607405412</v>
       </c>
       <c r="F3">
-        <v>0.0007526580993430539</v>
+        <v>0.0006553318278937015</v>
       </c>
       <c r="G3">
-        <v>0.0008178199266889103</v>
+        <v>0.0007007045968186145</v>
       </c>
       <c r="H3">
-        <v>0.001057334836933092</v>
+        <v>0.0009210917627535479</v>
       </c>
       <c r="I3">
-        <v>0.001098501615256304</v>
+        <v>0.0009423784704163674</v>
       </c>
       <c r="J3">
-        <v>0.001106045521949029</v>
+        <v>0.0009423784704163674</v>
       </c>
       <c r="K3">
-        <v>0.001126006027136006</v>
+        <v>0.0009423784704163674</v>
       </c>
       <c r="L3">
-        <v>0.001126220063457289</v>
+        <v>0.0009423784704163674</v>
       </c>
       <c r="M3">
-        <v>0.001169713501685732</v>
+        <v>0.0009660006629102694</v>
       </c>
       <c r="N3">
-        <v>0.001178817182314925</v>
+        <v>0.0009660006629102694</v>
       </c>
       <c r="O3">
-        <v>0.001200407512435517</v>
+        <v>0.0009676366697031909</v>
       </c>
       <c r="P3">
-        <v>0.001343284106615929</v>
+        <v>0.001091018974394418</v>
       </c>
       <c r="Q3">
-        <v>0.00142640510823028</v>
+        <v>0.001154419036001224</v>
       </c>
       <c r="R3">
-        <v>0.001695075217286925</v>
+        <v>0.001404071985225152</v>
       </c>
       <c r="S3">
-        <v>0.002074395671836607</v>
+        <v>0.001764794972176531</v>
       </c>
       <c r="T3">
-        <v>0.002371084179752019</v>
+        <v>0.002042572592900032</v>
       </c>
       <c r="U3">
-        <v>0.002553946452303751</v>
+        <v>0.002206092240005069</v>
       </c>
       <c r="V3">
-        <v>0.002783686012946098</v>
+        <v>0.002416666978836979</v>
       </c>
       <c r="W3">
-        <v>0.002978445865013224</v>
+        <v>0.002592129332489851</v>
       </c>
       <c r="X3">
-        <v>0.003190807616363396</v>
+        <v>0.002785260348709763</v>
       </c>
       <c r="Y3">
-        <v>0.003389209858282161</v>
+        <v>0.002964378907649994</v>
       </c>
       <c r="Z3">
-        <v>0.003592829919988396</v>
+        <v>0.003148735077354719</v>
       </c>
       <c r="AA3">
-        <v>0.003647851010747301</v>
+        <v>0.003183928646293603</v>
       </c>
       <c r="AB3">
-        <v>0.003672457084745057</v>
+        <v>0.003188591835556858</v>
       </c>
       <c r="AC3">
-        <v>0.003681560765374249</v>
+        <v>0.003188591835556858</v>
       </c>
       <c r="AD3">
-        <v>0.003774734797579124</v>
+        <v>0.003262083058488009</v>
       </c>
       <c r="AE3">
-        <v>0.003795279850742292</v>
+        <v>0.003262669823630763</v>
       </c>
       <c r="AF3">
-        <v>0.00385853352816587</v>
+        <v>0.003306127205098794</v>
       </c>
       <c r="AG3">
-        <v>0.004014501111813066</v>
+        <v>0.003442650152844378</v>
       </c>
       <c r="AH3">
-        <v>0.004115567491696474</v>
+        <v>0.003524063658805977</v>
       </c>
       <c r="AI3">
-        <v>0.004153201990163562</v>
+        <v>0.003541804688819662</v>
       </c>
       <c r="AJ3">
-        <v>0.004211230692799961</v>
+        <v>0.003580017277384869</v>
       </c>
       <c r="AK3">
-        <v>0.004226309882185762</v>
+        <v>0.003580017277384869</v>
       </c>
       <c r="AL3">
-        <v>0.004258819437861596</v>
+        <v>0.003592613925908924</v>
       </c>
       <c r="AM3">
-        <v>0.004360539803718366</v>
+        <v>0.003674683898385932</v>
       </c>
       <c r="AN3">
-        <v>0.004505880097798428</v>
+        <v>0.003800539247689754</v>
       </c>
       <c r="AO3">
-        <v>0.00468249659060456</v>
+        <v>0.003957789425062093</v>
       </c>
       <c r="AP3">
-        <v>0.004884414972380108</v>
+        <v>0.004140437460433759</v>
       </c>
       <c r="AQ3">
-        <v>0.005156459581299304</v>
+        <v>0.004393477708860186</v>
       </c>
       <c r="AR3">
-        <v>0.005335385234011381</v>
+        <v>0.004553045804687539</v>
       </c>
       <c r="AS3">
-        <v>0.005376552012334594</v>
+        <v>0.004574332512350359</v>
       </c>
       <c r="AT3">
-        <v>0.005383230356662575</v>
+        <v>0.004574332512350359</v>
       </c>
       <c r="AU3">
-        <v>0.005384316057318352</v>
+        <v>0.004574332512350359</v>
       </c>
       <c r="AV3">
-        <v>0.005430564512434581</v>
+        <v>0.004600720171398408</v>
       </c>
       <c r="AW3">
-        <v>0.005494772194819301</v>
+        <v>0.004645135176329376</v>
       </c>
       <c r="AX3">
-        <v>0.005496120207364394</v>
+        <v>0.004645135176329376</v>
       </c>
       <c r="AY3">
-        <v>0.01803622669658617</v>
+        <v>0.01721276956195759</v>
       </c>
       <c r="AZ3">
-        <v>0.04362245265441901</v>
+        <v>0.04287600681370286</v>
       </c>
       <c r="BA3">
-        <v>0.1166300596807045</v>
+        <v>0.1161404924925694</v>
       </c>
       <c r="BB3">
-        <v>0.11790043862896</v>
+        <v>0.1173956537216453</v>
       </c>
       <c r="BC3">
-        <v>0.1255249953183999</v>
+        <v>0.1250290938281667</v>
       </c>
       <c r="BD3">
-        <v>0.1440554265636263</v>
+        <v>0.1436097740265709</v>
       </c>
       <c r="BE3">
-        <v>0.1521161432353006</v>
+        <v>0.1516810284522986</v>
       </c>
       <c r="BF3">
-        <v>0.1589129029584579</v>
+        <v>0.1584835317925045</v>
       </c>
       <c r="BG3">
-        <v>0.1991284453204158</v>
+        <v>0.1988315738470981</v>
       </c>
       <c r="BH3">
-        <v>0.2417270115853093</v>
+        <v>0.241571678516816</v>
       </c>
       <c r="BI3">
-        <v>0.2467022646826594</v>
+        <v>0.24654576633109</v>
       </c>
       <c r="BJ3">
-        <v>0.2467445501859371</v>
+        <v>0.2465681760069852</v>
       </c>
       <c r="BK3">
-        <v>0.2489993201940968</v>
+        <v>0.2488114620509901</v>
       </c>
       <c r="BL3">
-        <v>0.253765298499971</v>
+        <v>0.2535754813030642</v>
       </c>
       <c r="BM3">
-        <v>0.2537896346959797</v>
+        <v>0.2535798735907023</v>
       </c>
       <c r="BN3">
-        <v>0.254073780124406</v>
+        <v>0.2538450605565493</v>
       </c>
       <c r="BO3">
-        <v>0.2629582047625295</v>
+        <v>0.2627431472393499</v>
       </c>
       <c r="BP3">
-        <v>0.2648486575855283</v>
+        <v>0.2646207342580127</v>
       </c>
       <c r="BQ3">
-        <v>0.2681620484505687</v>
+        <v>0.2679266564645065</v>
       </c>
       <c r="BR3">
-        <v>0.286745563693633</v>
+        <v>0.2865606220061809</v>
       </c>
       <c r="BS3">
-        <v>0.2918630394851902</v>
+        <v>0.2916774719595236</v>
       </c>
       <c r="BT3">
-        <v>0.2920730354166367</v>
+        <v>0.2918682281823817</v>
       </c>
       <c r="BU3">
-        <v>0.2921277358094087</v>
+        <v>0.2919030998369394</v>
       </c>
       <c r="BV3">
-        <v>0.2926985902861569</v>
+        <v>0.292456083326801</v>
       </c>
       <c r="BW3">
-        <v>0.3011626869414009</v>
+        <v>0.3009322477398763</v>
       </c>
       <c r="BX3">
-        <v>0.3026958129789543</v>
+        <v>0.3024511526472124</v>
       </c>
       <c r="BY3">
-        <v>0.3037895546344044</v>
+        <v>0.3035290066054566</v>
       </c>
       <c r="BZ3">
-        <v>0.3050114229846358</v>
+        <v>0.3047354732377944</v>
       </c>
       <c r="CA3">
-        <v>0.3051347030796144</v>
+        <v>0.3048391847145639</v>
       </c>
       <c r="CB3">
-        <v>0.310420048364334</v>
+        <v>0.31012454088319</v>
       </c>
       <c r="CC3">
-        <v>0.3150620761752569</v>
+        <v>0.3147641395011556</v>
       </c>
       <c r="CD3">
-        <v>0.3160429052353062</v>
+        <v>0.3157286525911431</v>
       </c>
       <c r="CE3">
-        <v>0.3171789177890346</v>
+        <v>0.3168489377794537</v>
       </c>
       <c r="CF3">
-        <v>0.3232931605399919</v>
+        <v>0.3229663353885017</v>
       </c>
       <c r="CG3">
-        <v>0.3363710020073109</v>
+        <v>0.3360737443590036</v>
       </c>
       <c r="CH3">
-        <v>0.3449279296587738</v>
+        <v>0.3446430918724692</v>
       </c>
       <c r="CI3">
-        <v>0.3600267610437747</v>
+        <v>0.3597791562927442</v>
       </c>
       <c r="CJ3">
-        <v>0.3699953236377395</v>
+        <v>0.3697654930223071</v>
       </c>
       <c r="CK3">
-        <v>0.3728956705196038</v>
+        <v>0.3726568045866919</v>
       </c>
       <c r="CL3">
-        <v>0.3730173979246456</v>
+        <v>0.3727589574842352</v>
       </c>
       <c r="CM3">
-        <v>0.3765364097813108</v>
+        <v>0.3762712805943643</v>
       </c>
       <c r="CN3">
-        <v>0.4017019037562807</v>
+        <v>0.4015121900440453</v>
       </c>
       <c r="CO3">
-        <v>0.4308682195682909</v>
+        <v>0.4307690962843448</v>
       </c>
       <c r="CP3">
-        <v>0.4464294699344567</v>
+        <v>0.4463693336220654</v>
       </c>
       <c r="CQ3">
-        <v>0.4639987692188315</v>
+        <v>0.4639852363254047</v>
       </c>
       <c r="CR3">
-        <v>0.4809283465292633</v>
+        <v>0.4809589906155208</v>
       </c>
       <c r="CS3">
-        <v>0.4877805472501624</v>
+        <v>0.4878171452389052</v>
       </c>
       <c r="CT3">
-        <v>0.4883831136856189</v>
+        <v>0.4884019609696373</v>
       </c>
       <c r="CU3">
-        <v>0.5048357720154764</v>
+        <v>0.5048969873449937</v>
       </c>
       <c r="CV3">
-        <v>0.5447587103893524</v>
+        <v>0.5449513155765473</v>
       </c>
       <c r="CW3">
-        <v>0.6032238350079761</v>
+        <v>0.6036181598068254</v>
       </c>
       <c r="CX3">
-        <v>0.6340680637516422</v>
+        <v>0.6345593432338973</v>
       </c>
       <c r="CY3">
-        <v>0.6531836039730362</v>
+        <v>0.6537273517028823</v>
       </c>
       <c r="CZ3">
-        <v>0.6543675405248126</v>
+        <v>0.6548957426630052</v>
       </c>
       <c r="DA3">
-        <v>0.6545489419574239</v>
+        <v>0.6550577959292636</v>
       </c>
       <c r="DB3">
-        <v>0.6559869560988513</v>
+        <v>0.6564812281849423</v>
       </c>
       <c r="DC3">
-        <v>0.661771469863239</v>
+        <v>0.6622676461588618</v>
       </c>
       <c r="DD3">
-        <v>0.6765357142618681</v>
+        <v>0.6770678545180117</v>
       </c>
       <c r="DE3">
-        <v>0.6954795914902542</v>
+        <v>0.696063548883278</v>
       </c>
       <c r="DF3">
-        <v>0.7101755198916659</v>
+        <v>0.7107951821254275</v>
       </c>
       <c r="DG3">
-        <v>0.7282534921553218</v>
+        <v>0.7289216871838513</v>
       </c>
       <c r="DH3">
-        <v>0.7372762307878115</v>
+        <v>0.7379586124803412</v>
       </c>
       <c r="DI3">
-        <v>0.7377130140700205</v>
+        <v>0.7383770162491069</v>
       </c>
       <c r="DJ3">
-        <v>0.7430211748538108</v>
+        <v>0.7436852744550584</v>
       </c>
       <c r="DK3">
-        <v>0.7571569272780394</v>
+        <v>0.7578546069954566</v>
       </c>
       <c r="DL3">
-        <v>0.7683887298205504</v>
+        <v>0.7691089750910191</v>
       </c>
       <c r="DM3">
-        <v>0.7742119692833607</v>
+        <v>0.7749342656483513</v>
       </c>
       <c r="DN3">
-        <v>0.7765581099877987</v>
+        <v>0.777269268953948</v>
       </c>
       <c r="DO3">
-        <v>0.7794765337689268</v>
+        <v>0.7801787259825359</v>
       </c>
       <c r="DP3">
-        <v>0.7804194161305217</v>
+        <v>0.781105148443794</v>
       </c>
       <c r="DQ3">
-        <v>0.78044130929463</v>
+        <v>0.7811070884332115</v>
       </c>
       <c r="DR3">
-        <v>0.7807834229206951</v>
+        <v>0.7814304634676998</v>
       </c>
       <c r="DS3">
-        <v>0.7820098360707414</v>
+        <v>0.7826414921380923</v>
       </c>
       <c r="DT3">
-        <v>0.784451857171274</v>
+        <v>0.7850727395102042</v>
       </c>
       <c r="DU3">
-        <v>0.7883761770114303</v>
+        <v>0.7889919079204272</v>
       </c>
       <c r="DV3">
-        <v>0.7993718115635609</v>
+        <v>0.8000092122500818</v>
       </c>
       <c r="DW3">
-        <v>0.8116514580633916</v>
+        <v>0.812315398732233</v>
       </c>
       <c r="DX3">
-        <v>0.8181918852969897</v>
+        <v>0.8188605973242319</v>
       </c>
       <c r="DY3">
-        <v>0.8214947165624602</v>
+        <v>0.8221559198790266</v>
       </c>
       <c r="DZ3">
-        <v>0.8215414787835555</v>
+        <v>0.8221828232527471</v>
       </c>
       <c r="EA3">
-        <v>0.8264915381819319</v>
+        <v>0.8271316218093775</v>
       </c>
       <c r="EB3">
-        <v>0.8314644712793765</v>
+        <v>0.8321033808240812</v>
       </c>
       <c r="EC3">
-        <v>0.838780306381391</v>
+        <v>0.8394269283748241</v>
       </c>
       <c r="ED3">
-        <v>0.8452273657187922</v>
+        <v>0.8458784049300149</v>
       </c>
       <c r="EE3">
-        <v>0.8468616934522235</v>
+        <v>0.8474988953871219</v>
       </c>
       <c r="EF3">
-        <v>0.8469975373366904</v>
+        <v>0.8476152183073192</v>
       </c>
       <c r="EG3">
-        <v>0.8477864085645584</v>
+        <v>0.8483870454769199</v>
       </c>
       <c r="EH3">
-        <v>0.8479478303779835</v>
+        <v>0.8485290433421138</v>
       </c>
       <c r="EI3">
-        <v>0.8479491783905286</v>
+        <v>0.8485290433421138</v>
       </c>
       <c r="EJ3">
-        <v>0.8479538063443401</v>
+        <v>0.8485290433421138</v>
       </c>
       <c r="EK3">
-        <v>0.848299340130266</v>
+        <v>0.8488558515089892</v>
       </c>
       <c r="EL3">
-        <v>0.8482997516035892</v>
+        <v>0.8488558515089892</v>
       </c>
       <c r="EM3">
-        <v>0.8483748795445291</v>
+        <v>0.8489112281925694</v>
       </c>
       <c r="EN3">
-        <v>0.8484848390800502</v>
+        <v>0.8490015685855443</v>
       </c>
       <c r="EO3">
-        <v>0.8485053370612153</v>
+        <v>0.8490021081001469</v>
       </c>
       <c r="EP3">
-        <v>0.8520269176177758</v>
+        <v>0.852517009653145</v>
       </c>
       <c r="EQ3">
-        <v>0.8596392283077144</v>
+        <v>0.8601381573115899</v>
       </c>
       <c r="ER3">
-        <v>0.8671124053033202</v>
+        <v>0.8676196435472905</v>
       </c>
       <c r="ES3">
-        <v>0.8688161764339229</v>
+        <v>0.8693098407975338</v>
       </c>
       <c r="ET3">
-        <v>0.8688318944392828</v>
+        <v>0.8693098407975338</v>
       </c>
       <c r="EU3">
-        <v>0.8739400822312182</v>
+        <v>0.8744173675222521</v>
       </c>
       <c r="EV3">
-        <v>0.8793305790116548</v>
+        <v>0.8798082740219173</v>
       </c>
       <c r="EW3">
-        <v>0.8811966376356473</v>
+        <v>0.8816613743153746</v>
       </c>
       <c r="EX3">
-        <v>0.8817896764114919</v>
+        <v>0.8822366262484717</v>
       </c>
       <c r="EY3">
-        <v>0.8818005576250486</v>
+        <v>0.8822366262484717</v>
       </c>
       <c r="EZ3">
-        <v>0.8818025457355676</v>
+        <v>0.8822366262484717</v>
       </c>
       <c r="FA3">
-        <v>0.8820029289074057</v>
+        <v>0.8824177332509173</v>
       </c>
       <c r="FB3">
-        <v>0.8821356420520001</v>
+        <v>0.882530913556474</v>
       </c>
       <c r="FC3">
-        <v>0.8838519465820923</v>
+        <v>0.8842336917448784</v>
       </c>
       <c r="FD3">
-        <v>0.8908536962969</v>
+        <v>0.8912419625953882</v>
       </c>
       <c r="FE3">
-        <v>0.903330848788686</v>
+        <v>0.9037464042016434</v>
       </c>
       <c r="FF3">
-        <v>0.9081215485935532</v>
+        <v>0.9085352387203451</v>
       </c>
       <c r="FG3">
-        <v>0.9084949890483424</v>
+        <v>0.9088900594049374</v>
       </c>
       <c r="FH3">
-        <v>0.9096766918002097</v>
+        <v>0.9100562080924396</v>
       </c>
       <c r="FI3">
-        <v>0.9110711038434132</v>
+        <v>0.9114358728689191</v>
       </c>
       <c r="FJ3">
-        <v>0.9123001567933519</v>
+        <v>0.9126495513518571</v>
       </c>
       <c r="FK3">
-        <v>0.9140511470220313</v>
+        <v>0.9143871468002848</v>
       </c>
       <c r="FL3">
-        <v>0.9174725745826712</v>
+        <v>0.9178015154811454</v>
       </c>
       <c r="FM3">
-        <v>0.9216175540138396</v>
+        <v>0.9219421804351834</v>
       </c>
       <c r="FN3">
-        <v>0.9271391757889352</v>
+        <v>0.9274647092812489</v>
       </c>
       <c r="FO3">
-        <v>0.9316196181064398</v>
+        <v>0.9319421095186291</v>
       </c>
       <c r="FP3">
-        <v>0.9319028446649035</v>
+        <v>0.9322063741292773</v>
       </c>
       <c r="FQ3">
-        <v>0.9321725803839167</v>
+        <v>0.9324570967302728</v>
       </c>
       <c r="FR3">
-        <v>0.9341213848045389</v>
+        <v>0.9343932566717817</v>
       </c>
       <c r="FS3">
-        <v>0.9355057261481525</v>
+        <v>0.9357628125509199</v>
       </c>
       <c r="FT3">
-        <v>0.9377981942547767</v>
+        <v>0.9380439396807346</v>
       </c>
       <c r="FU3">
-        <v>0.9385867736226566</v>
+        <v>0.9388154738833342</v>
       </c>
       <c r="FV3">
-        <v>0.9403911784491604</v>
+        <v>0.9406066865289708</v>
       </c>
       <c r="FW3">
-        <v>0.9419876738841326</v>
+        <v>0.9421892011912582</v>
       </c>
       <c r="FX3">
-        <v>0.9419884760228999</v>
+        <v>0.9421892011912582</v>
       </c>
       <c r="FY3">
-        <v>0.9435220090604367</v>
+        <v>0.943708514642312</v>
       </c>
       <c r="FZ3">
-        <v>0.9458828532642758</v>
+        <v>0.9460582772170816</v>
       </c>
       <c r="GA3">
-        <v>0.9497510663067174</v>
+        <v>0.9499211260188011</v>
       </c>
       <c r="GB3">
-        <v>0.9530582289720114</v>
+        <v>0.9532207964022418</v>
       </c>
       <c r="GC3">
-        <v>0.9536412931082623</v>
+        <v>0.9537860358623451</v>
       </c>
       <c r="GD3">
-        <v>0.9539479380957722</v>
+        <v>0.9540738077271829</v>
       </c>
       <c r="GE3">
-        <v>0.9540944604898041</v>
+        <v>0.9542008496600953</v>
       </c>
       <c r="GF3">
-        <v>0.9581087993262938</v>
+        <v>0.9582103785050227</v>
       </c>
       <c r="GG3">
-        <v>0.9647494037558115</v>
+        <v>0.9648561342609476</v>
       </c>
       <c r="GH3">
-        <v>0.97165907097437</v>
+        <v>0.9717719733500664</v>
       </c>
       <c r="GI3">
-        <v>0.9771799197494971</v>
+        <v>0.9772937262642061</v>
       </c>
       <c r="GJ3">
-        <v>0.9831787871051538</v>
+        <v>0.9832953108637984</v>
       </c>
       <c r="GK3">
-        <v>0.9841541996654237</v>
+        <v>0.9842543869094444</v>
       </c>
       <c r="GL3">
-        <v>0.9842204142627267</v>
+        <v>0.9843008164414399</v>
       </c>
       <c r="GM3">
-        <v>0.984524788830329</v>
+        <v>0.9845863092747603</v>
       </c>
       <c r="GN3">
-        <v>0.9877294242997992</v>
+        <v>0.9877830635809171</v>
       </c>
       <c r="GO3">
-        <v>0.9932655330743048</v>
+        <v>0.9933201343749887</v>
       </c>
       <c r="GP3">
-        <v>0.9950365097021701</v>
+        <v>0.9950777920301968</v>
       </c>
       <c r="GQ3">
-        <v>0.9962308980535207</v>
+        <v>0.9962566744331421</v>
       </c>
       <c r="GR3">
-        <v>0.9993563685262155</v>
+        <v>0.9993739634729288</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999993</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001890146533759506</v>
+        <v>0.0001554688988855652</v>
       </c>
       <c r="C4">
-        <v>0.0003478965962137073</v>
+        <v>0.000280609677298302</v>
       </c>
       <c r="D4">
-        <v>0.0005505094498325325</v>
+        <v>0.0004497649604424889</v>
       </c>
       <c r="E4">
-        <v>0.0006488721765893682</v>
+        <v>0.0005139940570502703</v>
       </c>
       <c r="F4">
-        <v>0.000682750847194468</v>
+        <v>0.0005139940570502703</v>
       </c>
       <c r="G4">
-        <v>0.0007239779679308169</v>
+        <v>0.0005207170245469317</v>
       </c>
       <c r="H4">
-        <v>0.0007782087788994219</v>
+        <v>0.0005405280109078545</v>
       </c>
       <c r="I4">
-        <v>0.0008060598713968644</v>
+        <v>0.0005405280109078545</v>
       </c>
       <c r="J4">
-        <v>0.0008406073420139094</v>
+        <v>0.0005405280109078545</v>
       </c>
       <c r="K4">
-        <v>0.0008440545960754801</v>
+        <v>0.0005405280109078545</v>
       </c>
       <c r="L4">
-        <v>0.0008440951904022052</v>
+        <v>0.0005405280109078545</v>
       </c>
       <c r="M4">
-        <v>0.0008602749996911893</v>
+        <v>0.0005405280109078545</v>
       </c>
       <c r="N4">
-        <v>0.0009068391905228625</v>
+        <v>0.0005526226592766286</v>
       </c>
       <c r="O4">
-        <v>0.001034578832804393</v>
+        <v>0.0006464191800304638</v>
       </c>
       <c r="P4">
-        <v>0.001318105877868409</v>
+        <v>0.0008970133812899255</v>
       </c>
       <c r="Q4">
-        <v>0.001521340421498339</v>
+        <v>0.001066794386090636</v>
       </c>
       <c r="R4">
-        <v>0.001621848583293494</v>
+        <v>0.001133182830833604</v>
       </c>
       <c r="S4">
-        <v>0.001760135945763415</v>
+        <v>0.001237595473498601</v>
       </c>
       <c r="T4">
-        <v>0.001822253366872881</v>
+        <v>0.001265344214485716</v>
       </c>
       <c r="U4">
-        <v>0.001837825744151016</v>
+        <v>0.001265344214485716</v>
       </c>
       <c r="V4">
-        <v>0.001906096325370382</v>
+        <v>0.00129928601868449</v>
       </c>
       <c r="W4">
-        <v>0.002118672849167166</v>
+        <v>0.001478469586178525</v>
       </c>
       <c r="X4">
-        <v>0.002281005952066563</v>
+        <v>0.001607083905346507</v>
       </c>
       <c r="Y4">
-        <v>0.00240745653432507</v>
+        <v>0.001699583006552725</v>
       </c>
       <c r="Z4">
-        <v>0.002564253147125582</v>
+        <v>0.001822624931610897</v>
       </c>
       <c r="AA4">
-        <v>0.002641291344501545</v>
+        <v>0.001865391209755344</v>
       </c>
       <c r="AB4">
-        <v>0.002641312169667916</v>
+        <v>0.001865391209755344</v>
       </c>
       <c r="AC4">
-        <v>0.002649972996822605</v>
+        <v>0.001865391209755344</v>
       </c>
       <c r="AD4">
-        <v>0.00271962193806659</v>
+        <v>0.001900720312611787</v>
       </c>
       <c r="AE4">
-        <v>0.00281056977969099</v>
+        <v>0.001957486438727629</v>
       </c>
       <c r="AF4">
-        <v>0.00298620590282799</v>
+        <v>0.002099490047913418</v>
       </c>
       <c r="AG4">
-        <v>0.003182627746336239</v>
+        <v>0.002262414172388886</v>
       </c>
       <c r="AH4">
-        <v>0.003416469300512833</v>
+        <v>0.00246300067349554</v>
       </c>
       <c r="AI4">
-        <v>0.003648565614658256</v>
+        <v>0.00266183061672957</v>
       </c>
       <c r="AJ4">
-        <v>0.003902643399196286</v>
+        <v>0.002882784579686017</v>
       </c>
       <c r="AK4">
-        <v>0.004150682203626454</v>
+        <v>0.003097660399887531</v>
       </c>
       <c r="AL4">
-        <v>0.004399622228072719</v>
+        <v>0.003313443284496212</v>
       </c>
       <c r="AM4">
-        <v>0.004618837621988079</v>
+        <v>0.003499308775028814</v>
       </c>
       <c r="AN4">
-        <v>0.004871398866499022</v>
+        <v>0.003718736363230986</v>
       </c>
       <c r="AO4">
-        <v>0.005113767890827924</v>
+        <v>0.003927905634937711</v>
       </c>
       <c r="AP4">
-        <v>0.005174646414915262</v>
+        <v>0.00395440744468401</v>
       </c>
       <c r="AQ4">
-        <v>0.005175683083233777</v>
+        <v>0.00395440744468401</v>
       </c>
       <c r="AR4">
-        <v>0.005177144133959873</v>
+        <v>0.00395440744468401</v>
       </c>
       <c r="AS4">
-        <v>0.005191248777211792</v>
+        <v>0.00395440744468401</v>
       </c>
       <c r="AT4">
-        <v>0.005309272764319794</v>
+        <v>0.004038425304464025</v>
       </c>
       <c r="AU4">
-        <v>0.00535807389719142</v>
+        <v>0.004052771401390421</v>
       </c>
       <c r="AV4">
-        <v>0.005452561303879039</v>
+        <v>0.004113100046567489</v>
       </c>
       <c r="AW4">
-        <v>0.005674122027836288</v>
+        <v>0.004301326076553347</v>
       </c>
       <c r="AX4">
-        <v>0.005931640902435778</v>
+        <v>0.00452574344496114</v>
       </c>
       <c r="AY4">
-        <v>0.03823286147936103</v>
+        <v>0.03700166518406593</v>
       </c>
       <c r="AZ4">
-        <v>0.03895429376224638</v>
+        <v>0.03769300442853995</v>
       </c>
       <c r="BA4">
-        <v>0.1249838852988027</v>
+        <v>0.1242457243769228</v>
       </c>
       <c r="BB4">
-        <v>0.1304753790968851</v>
+        <v>0.1297380588757842</v>
       </c>
       <c r="BC4">
-        <v>0.1511335314658559</v>
+        <v>0.150495407377456</v>
       </c>
       <c r="BD4">
-        <v>0.1585288765979426</v>
+        <v>0.1579039396424244</v>
       </c>
       <c r="BE4">
-        <v>0.1614239752496514</v>
+        <v>0.1607830414321182</v>
       </c>
       <c r="BF4">
-        <v>0.171665605932575</v>
+        <v>0.1710563173442417</v>
       </c>
       <c r="BG4">
-        <v>0.1985377104125319</v>
+        <v>0.1980679152933867</v>
       </c>
       <c r="BH4">
-        <v>0.2248875538831609</v>
+        <v>0.2245538653825728</v>
       </c>
       <c r="BI4">
-        <v>0.23528793906892</v>
+        <v>0.2349869253168305</v>
       </c>
       <c r="BJ4">
-        <v>0.2363142594872509</v>
+        <v>0.2359851298892944</v>
       </c>
       <c r="BK4">
-        <v>0.2382338803215368</v>
+        <v>0.2378824279103604</v>
       </c>
       <c r="BL4">
-        <v>0.2414245933785255</v>
+        <v>0.2410590611579518</v>
       </c>
       <c r="BM4">
-        <v>0.2420007710588165</v>
+        <v>0.2416042038270752</v>
       </c>
       <c r="BN4">
-        <v>0.2435380729862739</v>
+        <v>0.2431167036119972</v>
       </c>
       <c r="BO4">
-        <v>0.2514756271280448</v>
+        <v>0.2510709610996041</v>
       </c>
       <c r="BP4">
-        <v>0.2539810951727945</v>
+        <v>0.2535579055368162</v>
       </c>
       <c r="BQ4">
-        <v>0.2544766020416446</v>
+        <v>0.2540218542461424</v>
       </c>
       <c r="BR4">
-        <v>0.2686315032944623</v>
+        <v>0.2682337781977806</v>
       </c>
       <c r="BS4">
-        <v>0.2718416220517976</v>
+        <v>0.2714299429912388</v>
       </c>
       <c r="BT4">
-        <v>0.2729805904721405</v>
+        <v>0.2725415260854163</v>
       </c>
       <c r="BU4">
-        <v>0.2741525955930734</v>
+        <v>0.2736863601224272</v>
       </c>
       <c r="BV4">
-        <v>0.2807678147112265</v>
+        <v>0.2803097072742085</v>
       </c>
       <c r="BW4">
-        <v>0.2986034800297855</v>
+        <v>0.298226264961878</v>
       </c>
       <c r="BX4">
-        <v>0.3010848821741053</v>
+        <v>0.3006889874318496</v>
       </c>
       <c r="BY4">
-        <v>0.3041221626283535</v>
+        <v>0.3037111930698015</v>
       </c>
       <c r="BZ4">
-        <v>0.3049789075436556</v>
+        <v>0.3045387224460006</v>
       </c>
       <c r="CA4">
-        <v>0.3049792894325825</v>
+        <v>0.3045387224460006</v>
       </c>
       <c r="CB4">
-        <v>0.310303612227679</v>
+        <v>0.3098628018417676</v>
       </c>
       <c r="CC4">
-        <v>0.3130150982761084</v>
+        <v>0.3125571003046738</v>
       </c>
       <c r="CD4">
-        <v>0.3130262932493083</v>
+        <v>0.3125571003046738</v>
       </c>
       <c r="CE4">
-        <v>0.3175033203292715</v>
+        <v>0.3170283892920869</v>
       </c>
       <c r="CF4">
-        <v>0.3285094885258504</v>
+        <v>0.3280711607260534</v>
       </c>
       <c r="CG4">
-        <v>0.3463942788452868</v>
+        <v>0.3460371619891008</v>
       </c>
       <c r="CH4">
-        <v>0.3563568210232257</v>
+        <v>0.3560295395137052</v>
       </c>
       <c r="CI4">
-        <v>0.377644197403435</v>
+        <v>0.3774201925298529</v>
       </c>
       <c r="CJ4">
-        <v>0.3878960305865408</v>
+        <v>0.3877037371051375</v>
       </c>
       <c r="CK4">
-        <v>0.3913668198485318</v>
+        <v>0.3911622628454775</v>
       </c>
       <c r="CL4">
-        <v>0.3913706672986005</v>
+        <v>0.3911622628454775</v>
       </c>
       <c r="CM4">
-        <v>0.3938501712428865</v>
+        <v>0.3936230748056316</v>
       </c>
       <c r="CN4">
-        <v>0.4160755276398488</v>
+        <v>0.4159577906173627</v>
       </c>
       <c r="CO4">
-        <v>0.4411632580879355</v>
+        <v>0.4411734429100904</v>
       </c>
       <c r="CP4">
-        <v>0.4550737003363869</v>
+        <v>0.4551393225463428</v>
       </c>
       <c r="CQ4">
-        <v>0.4722213296426571</v>
+        <v>0.472363382324012</v>
       </c>
       <c r="CR4">
-        <v>0.4907300359732372</v>
+        <v>0.4909573456791822</v>
       </c>
       <c r="CS4">
-        <v>0.4937191966266259</v>
+        <v>0.493931119460473</v>
       </c>
       <c r="CT4">
-        <v>0.4952240121535031</v>
+        <v>0.4954109221712544</v>
       </c>
       <c r="CU4">
-        <v>0.5130019244710307</v>
+        <v>0.5132693523310093</v>
       </c>
       <c r="CV4">
-        <v>0.5521772651707331</v>
+        <v>0.5526639727037478</v>
       </c>
       <c r="CW4">
-        <v>0.5980884739907434</v>
+        <v>0.598838143146595</v>
       </c>
       <c r="CX4">
-        <v>0.6204968543909747</v>
+        <v>0.6213570698680457</v>
       </c>
       <c r="CY4">
-        <v>0.6342220136361169</v>
+        <v>0.6351364649449749</v>
       </c>
       <c r="CZ4">
-        <v>0.6343870285990642</v>
+        <v>0.6352677785159915</v>
       </c>
       <c r="DA4">
-        <v>0.6356596175217936</v>
+        <v>0.6365138486384395</v>
       </c>
       <c r="DB4">
-        <v>0.6394977915903464</v>
+        <v>0.6403421416673601</v>
       </c>
       <c r="DC4">
-        <v>0.6501503962806103</v>
+        <v>0.6510290567438071</v>
       </c>
       <c r="DD4">
-        <v>0.6689872166170507</v>
+        <v>0.6699532619166173</v>
       </c>
       <c r="DE4">
-        <v>0.6930946580476286</v>
+        <v>0.6941822680401093</v>
       </c>
       <c r="DF4">
-        <v>0.7086253073250183</v>
+        <v>0.7097788617106096</v>
       </c>
       <c r="DG4">
-        <v>0.7275275736626277</v>
+        <v>0.7287689373004007</v>
       </c>
       <c r="DH4">
-        <v>0.7331536324631135</v>
+        <v>0.7343967094526105</v>
       </c>
       <c r="DI4">
-        <v>0.7350259557965546</v>
+        <v>0.7362464032496269</v>
       </c>
       <c r="DJ4">
-        <v>0.7428957429371152</v>
+        <v>0.7441324542685795</v>
       </c>
       <c r="DK4">
-        <v>0.759116175226825</v>
+        <v>0.7604233041783662</v>
       </c>
       <c r="DL4">
-        <v>0.7723194934626466</v>
+        <v>0.7736774741190344</v>
       </c>
       <c r="DM4">
-        <v>0.7789693053814175</v>
+        <v>0.7803356384049498</v>
       </c>
       <c r="DN4">
-        <v>0.7833954727604724</v>
+        <v>0.7847557378674642</v>
       </c>
       <c r="DO4">
-        <v>0.7887035244552784</v>
+        <v>0.7900634406452296</v>
       </c>
       <c r="DP4">
-        <v>0.7912338551004721</v>
+        <v>0.7925754089162776</v>
       </c>
       <c r="DQ4">
-        <v>0.7914497789043287</v>
+        <v>0.7927579614708656</v>
       </c>
       <c r="DR4">
-        <v>0.7920523256150906</v>
+        <v>0.793329644173016</v>
       </c>
       <c r="DS4">
-        <v>0.7927519157275859</v>
+        <v>0.7939989996011274</v>
       </c>
       <c r="DT4">
-        <v>0.795042526968498</v>
+        <v>0.7962696938930719</v>
       </c>
       <c r="DU4">
-        <v>0.7981580238241432</v>
+        <v>0.7993706231639844</v>
       </c>
       <c r="DV4">
-        <v>0.8074911679908405</v>
+        <v>0.8087295210457237</v>
       </c>
       <c r="DW4">
-        <v>0.8183731546852013</v>
+        <v>0.8196473056632871</v>
       </c>
       <c r="DX4">
-        <v>0.8239052681840092</v>
+        <v>0.8251805232806988</v>
       </c>
       <c r="DY4">
-        <v>0.8278241455540034</v>
+        <v>0.8290900429701141</v>
       </c>
       <c r="DZ4">
-        <v>0.8278252271318227</v>
+        <v>0.8290900429701141</v>
       </c>
       <c r="EA4">
-        <v>0.8318223817032151</v>
+        <v>0.8330783474867778</v>
       </c>
       <c r="EB4">
-        <v>0.835576358870264</v>
+        <v>0.8368218975992252</v>
       </c>
       <c r="EC4">
-        <v>0.8411287459694341</v>
+        <v>0.842375520290831</v>
       </c>
       <c r="ED4">
-        <v>0.844663020432559</v>
+        <v>0.8458979429323737</v>
       </c>
       <c r="EE4">
-        <v>0.8446682564026525</v>
+        <v>0.8458979429323737</v>
       </c>
       <c r="EF4">
-        <v>0.8447829319047008</v>
+        <v>0.8459785905922453</v>
       </c>
       <c r="EG4">
-        <v>0.8448177363653224</v>
+        <v>0.8459788492488242</v>
       </c>
       <c r="EH4">
-        <v>0.8448406944497324</v>
+        <v>0.8459788492488242</v>
       </c>
       <c r="EI4">
-        <v>0.8449168503510927</v>
+        <v>0.8460207275092835</v>
       </c>
       <c r="EJ4">
-        <v>0.8449892292423854</v>
+        <v>0.8460588042658519</v>
       </c>
       <c r="EK4">
-        <v>0.8457728587963816</v>
+        <v>0.8468127441293091</v>
       </c>
       <c r="EL4">
-        <v>0.8460107980006314</v>
+        <v>0.8470174548536553</v>
       </c>
       <c r="EM4">
-        <v>0.8462005994740214</v>
+        <v>0.8471737156750646</v>
       </c>
       <c r="EN4">
-        <v>0.8463904009474114</v>
+        <v>0.8473299764964739</v>
       </c>
       <c r="EO4">
-        <v>0.847164987761246</v>
+        <v>0.8480748149778077</v>
       </c>
       <c r="EP4">
-        <v>0.8506066478227168</v>
+        <v>0.8515040226154321</v>
       </c>
       <c r="EQ4">
-        <v>0.8552531949057077</v>
+        <v>0.8561459309391928</v>
       </c>
       <c r="ER4">
-        <v>0.8592067454763213</v>
+        <v>0.8600903486841357</v>
       </c>
       <c r="ES4">
-        <v>0.8593155791482651</v>
+        <v>0.8601651166297691</v>
       </c>
       <c r="ET4">
-        <v>0.8600062709606013</v>
+        <v>0.8608255160524497</v>
       </c>
       <c r="EU4">
-        <v>0.8715896081674889</v>
+        <v>0.872449199424479</v>
       </c>
       <c r="EV4">
-        <v>0.8826638573652836</v>
+        <v>0.8835604933633882</v>
       </c>
       <c r="EW4">
-        <v>0.8876910974550741</v>
+        <v>0.8885855634793396</v>
       </c>
       <c r="EX4">
-        <v>0.8914813583227712</v>
+        <v>0.8923656325913991</v>
       </c>
       <c r="EY4">
-        <v>0.8921765650351882</v>
+        <v>0.8930305761931836</v>
       </c>
       <c r="EZ4">
-        <v>0.8930063547800089</v>
+        <v>0.8938309755952408</v>
       </c>
       <c r="FA4">
-        <v>0.8934829561185214</v>
+        <v>0.8942758961723001</v>
       </c>
       <c r="FB4">
-        <v>0.8934870038495937</v>
+        <v>0.8942758961723001</v>
       </c>
       <c r="FC4">
-        <v>0.8945414207684264</v>
+        <v>0.8953023794504252</v>
       </c>
       <c r="FD4">
-        <v>0.9021159973037143</v>
+        <v>0.9028913054301214</v>
       </c>
       <c r="FE4">
-        <v>0.9144129075233468</v>
+        <v>0.9152331893194674</v>
       </c>
       <c r="FF4">
-        <v>0.9204997266320621</v>
+        <v>0.9213247097999058</v>
       </c>
       <c r="FG4">
-        <v>0.92107348700231</v>
+        <v>0.9218674194827861</v>
       </c>
       <c r="FH4">
-        <v>0.9214184229084708</v>
+        <v>0.9221798207801938</v>
       </c>
       <c r="FI4">
-        <v>0.9217298813440337</v>
+        <v>0.9224585275063769</v>
       </c>
       <c r="FJ4">
-        <v>0.9218791348066995</v>
+        <v>0.9225739773641453</v>
       </c>
       <c r="FK4">
-        <v>0.9221375719413154</v>
+        <v>0.9227993189474646</v>
       </c>
       <c r="FL4">
-        <v>0.9235108496658432</v>
+        <v>0.9241467308362744</v>
       </c>
       <c r="FM4">
-        <v>0.9260767733116726</v>
+        <v>0.9266945229277485</v>
       </c>
       <c r="FN4">
-        <v>0.9299781215813537</v>
+        <v>0.9305863998410384</v>
       </c>
       <c r="FO4">
-        <v>0.9317874886136704</v>
+        <v>0.9323727290667658</v>
       </c>
       <c r="FP4">
-        <v>0.9318449952516975</v>
+        <v>0.9323958371238483</v>
       </c>
       <c r="FQ4">
-        <v>0.933446464880301</v>
+        <v>0.9339729207359821</v>
       </c>
       <c r="FR4">
-        <v>0.9364627763341747</v>
+        <v>0.9369740213900745</v>
       </c>
       <c r="FS4">
-        <v>0.9394104057868218</v>
+        <v>0.9399059946417422</v>
       </c>
       <c r="FT4">
-        <v>0.9426951414454897</v>
+        <v>0.9431772602254217</v>
       </c>
       <c r="FU4">
-        <v>0.9444114689761447</v>
+        <v>0.9448699465904594</v>
       </c>
       <c r="FV4">
-        <v>0.9473065676278535</v>
+        <v>0.9477490483801533</v>
       </c>
       <c r="FW4">
-        <v>0.948427599047876</v>
+        <v>0.948842578152976</v>
       </c>
       <c r="FX4">
-        <v>0.9485175121244819</v>
+        <v>0.9488983028036461</v>
       </c>
       <c r="FY4">
-        <v>0.9511946636722979</v>
+        <v>0.9515580441074923</v>
       </c>
       <c r="FZ4">
-        <v>0.9550390857409623</v>
+        <v>0.9553926256546615</v>
       </c>
       <c r="GA4">
-        <v>0.9622116148690694</v>
+        <v>0.9625768969589904</v>
       </c>
       <c r="GB4">
-        <v>0.967002536954639</v>
+        <v>0.9673641165539001</v>
       </c>
       <c r="GC4">
-        <v>0.9691674942933068</v>
+        <v>0.9695083420809349</v>
       </c>
       <c r="GD4">
-        <v>0.9706849034204089</v>
+        <v>0.971000820061149</v>
       </c>
       <c r="GE4">
-        <v>0.9707123826448997</v>
+        <v>0.971000820061149</v>
       </c>
       <c r="GF4">
-        <v>0.9723816668747144</v>
+        <v>0.9726461580506228</v>
       </c>
       <c r="GG4">
-        <v>0.9764827556479631</v>
+        <v>0.9767390707800508</v>
       </c>
       <c r="GH4">
-        <v>0.9808844997265816</v>
+        <v>0.9811345885575875</v>
       </c>
       <c r="GI4">
-        <v>0.9845857817926895</v>
+        <v>0.9848251018425764</v>
       </c>
       <c r="GJ4">
-        <v>0.9883933205606952</v>
+        <v>0.9886225609017306</v>
       </c>
       <c r="GK4">
-        <v>0.9885474346134477</v>
+        <v>0.9887429028704007</v>
       </c>
       <c r="GL4">
-        <v>0.9889969729714768</v>
+        <v>0.9891605849641707</v>
       </c>
       <c r="GM4">
-        <v>0.9895953169421637</v>
+        <v>0.9897280376715734</v>
       </c>
       <c r="GN4">
-        <v>0.9933621490094423</v>
+        <v>0.9934845260479827</v>
       </c>
       <c r="GO4">
-        <v>0.9975815925848049</v>
+        <v>0.9976965611076936</v>
       </c>
       <c r="GP4">
-        <v>0.9982342581564621</v>
+        <v>0.998318687690399</v>
       </c>
       <c r="GQ4">
-        <v>0.9988035946666308</v>
+        <v>0.9988569448245693</v>
       </c>
       <c r="GR4">
-        <v>0.9999738323875322</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.000114227444214717</v>
+        <v>2.187525562373843E-05</v>
       </c>
       <c r="C5">
-        <v>0.0001761279910796369</v>
+        <v>2.187525562373843E-05</v>
       </c>
       <c r="D5">
-        <v>0.0002314134932795894</v>
+        <v>2.187525562373843E-05</v>
       </c>
       <c r="E5">
-        <v>0.0004466448323787571</v>
+        <v>0.0001463454257903922</v>
       </c>
       <c r="F5">
-        <v>0.000776422645676484</v>
+        <v>0.0003871664133689652</v>
       </c>
       <c r="G5">
-        <v>0.0009386245374614368</v>
+        <v>0.000457771813056382</v>
       </c>
       <c r="H5">
-        <v>0.001144596117029584</v>
+        <v>0.0005728363633817435</v>
       </c>
       <c r="I5">
-        <v>0.001342379027012463</v>
+        <v>0.0006795832556872648</v>
       </c>
       <c r="J5">
-        <v>0.001435070452317916</v>
+        <v>0.0006795832556872648</v>
       </c>
       <c r="K5">
-        <v>0.001547326496632479</v>
+        <v>0.0006994560577965359</v>
       </c>
       <c r="L5">
-        <v>0.001630186402435869</v>
+        <v>0.0006994560577965359</v>
       </c>
       <c r="M5">
-        <v>0.001702185288789338</v>
+        <v>0.0006994560577965359</v>
       </c>
       <c r="N5">
-        <v>0.001816412733004055</v>
+        <v>0.0007213313134202743</v>
       </c>
       <c r="O5">
-        <v>0.001933072977095558</v>
+        <v>0.0007456776905363512</v>
       </c>
       <c r="P5">
-        <v>0.00194792454034337</v>
+        <v>0.0007456776905363512</v>
       </c>
       <c r="Q5">
-        <v>0.001959212473771669</v>
+        <v>0.0007456776905363512</v>
       </c>
       <c r="R5">
-        <v>0.001983358478548745</v>
+        <v>0.0007456776905363512</v>
       </c>
       <c r="S5">
-        <v>0.001994585633980123</v>
+        <v>0.0007456776905363512</v>
       </c>
       <c r="T5">
-        <v>0.002059124340711428</v>
+        <v>0.0007456776905363512</v>
       </c>
       <c r="U5">
-        <v>0.002207258113208889</v>
+        <v>0.0008019933690429079</v>
       </c>
       <c r="V5">
-        <v>0.002451528960837291</v>
+        <v>0.0009559604798902496</v>
       </c>
       <c r="W5">
-        <v>0.002668309299858007</v>
+        <v>0.001082004049921928</v>
       </c>
       <c r="X5">
-        <v>0.002886607618801841</v>
+        <v>0.00120958951119125</v>
       </c>
       <c r="Y5">
-        <v>0.003067712829629396</v>
+        <v>0.00129939599618307</v>
       </c>
       <c r="Z5">
-        <v>0.003226037321610728</v>
+        <v>0.001366062919023071</v>
       </c>
       <c r="AA5">
-        <v>0.003289259882408692</v>
+        <v>0.001366062919023071</v>
       </c>
       <c r="AB5">
-        <v>0.003326831397505805</v>
+        <v>0.001366062919023071</v>
       </c>
       <c r="AC5">
-        <v>0.003496488948913151</v>
+        <v>0.001444241420348752</v>
       </c>
       <c r="AD5">
-        <v>0.003661354760563184</v>
+        <v>0.001517552702133287</v>
       </c>
       <c r="AE5">
-        <v>0.003779827314562899</v>
+        <v>0.001543739936776403</v>
       </c>
       <c r="AF5">
-        <v>0.00392447441723695</v>
+        <v>0.001596514023218798</v>
       </c>
       <c r="AG5">
-        <v>0.004137032516471509</v>
+        <v>0.001718268844479591</v>
       </c>
       <c r="AH5">
-        <v>0.004188723535853512</v>
+        <v>0.001718268844479591</v>
       </c>
       <c r="AI5">
-        <v>0.004217304604405965</v>
+        <v>0.001718268844479591</v>
       </c>
       <c r="AJ5">
-        <v>0.0042923033456075</v>
+        <v>0.001718268844479591</v>
       </c>
       <c r="AK5">
-        <v>0.00434835675276856</v>
+        <v>0.001718268844479591</v>
       </c>
       <c r="AL5">
-        <v>0.004486851845754192</v>
+        <v>0.00176479401439285</v>
       </c>
       <c r="AM5">
-        <v>0.004591183530470101</v>
+        <v>0.001776617631896306</v>
       </c>
       <c r="AN5">
-        <v>0.004655042727235821</v>
+        <v>0.001776617631896306</v>
       </c>
       <c r="AO5">
-        <v>0.004768611131483916</v>
+        <v>0.001797823466314721</v>
       </c>
       <c r="AP5">
-        <v>0.004852599087230174</v>
+        <v>0.001797823466314721</v>
       </c>
       <c r="AQ5">
-        <v>0.004960535681763504</v>
+        <v>0.001813308778400118</v>
       </c>
       <c r="AR5">
-        <v>0.005033059508090387</v>
+        <v>0.001813308778400118</v>
       </c>
       <c r="AS5">
-        <v>0.005216911918778805</v>
+        <v>0.001905905737316532</v>
       </c>
       <c r="AT5">
-        <v>0.005300334894553677</v>
+        <v>0.001905905737316532</v>
       </c>
       <c r="AU5">
-        <v>0.005426057758186185</v>
+        <v>0.001939457488922454</v>
       </c>
       <c r="AV5">
-        <v>0.005532927722773536</v>
+        <v>0.001953859369440368</v>
       </c>
       <c r="AW5">
-        <v>0.005594504799654839</v>
+        <v>0.001953859369440368</v>
       </c>
       <c r="AX5">
-        <v>0.005627657181975769</v>
+        <v>0.001953859369440368</v>
       </c>
       <c r="AY5">
-        <v>0.005642988519199282</v>
+        <v>0.001953859369440368</v>
       </c>
       <c r="AZ5">
-        <v>0.005643403092358285</v>
+        <v>0.001953859369440368</v>
       </c>
       <c r="BA5">
-        <v>0.005686190974191205</v>
+        <v>0.001953859369440368</v>
       </c>
       <c r="BB5">
-        <v>0.00569464822126287</v>
+        <v>0.001953859369440368</v>
       </c>
       <c r="BC5">
-        <v>0.005702118434284526</v>
+        <v>0.001953859369440368</v>
       </c>
       <c r="BD5">
-        <v>0.005830887687762743</v>
+        <v>0.001990505497815053</v>
       </c>
       <c r="BE5">
-        <v>0.005902210484150454</v>
+        <v>0.001990505497815053</v>
       </c>
       <c r="BF5">
-        <v>0.005978124710305622</v>
+        <v>0.001990505497815053</v>
       </c>
       <c r="BG5">
-        <v>0.006254598456303042</v>
+        <v>0.002177182769097131</v>
       </c>
       <c r="BH5">
-        <v>0.00647748256501462</v>
+        <v>0.002309426255780934</v>
       </c>
       <c r="BI5">
-        <v>0.006677332024892835</v>
+        <v>0.002418272250404769</v>
       </c>
       <c r="BJ5">
-        <v>0.006860103125636017</v>
+        <v>0.002509770866514178</v>
       </c>
       <c r="BK5">
-        <v>0.007055036295763228</v>
+        <v>0.002613623129683898</v>
       </c>
       <c r="BL5">
-        <v>0.007143635961275916</v>
+        <v>0.002613623129683898</v>
       </c>
       <c r="BM5">
-        <v>0.00718561977714956</v>
+        <v>0.002613623129683898</v>
       </c>
       <c r="BN5">
-        <v>0.00721902389345774</v>
+        <v>0.002613623129683898</v>
       </c>
       <c r="BO5">
-        <v>0.007284205810156468</v>
+        <v>0.002613623129683898</v>
       </c>
       <c r="BP5">
-        <v>0.007343067547175295</v>
+        <v>0.002613623129683898</v>
       </c>
       <c r="BQ5">
-        <v>0.007487932569838309</v>
+        <v>0.002666618568804529</v>
       </c>
       <c r="BR5">
-        <v>0.007567637755801476</v>
+        <v>0.002666618568804529</v>
       </c>
       <c r="BS5">
-        <v>0.007611357018587225</v>
+        <v>0.002666618568804529</v>
       </c>
       <c r="BT5">
-        <v>0.007637568351259698</v>
+        <v>0.002666618568804529</v>
       </c>
       <c r="BU5">
-        <v>0.007650651433597079</v>
+        <v>0.002666618568804529</v>
       </c>
       <c r="BV5">
-        <v>0.007725650174798614</v>
+        <v>0.002666618568804529</v>
       </c>
       <c r="BW5">
-        <v>0.007824791739777386</v>
+        <v>0.002673170311480701</v>
       </c>
       <c r="BX5">
-        <v>0.007892829446331477</v>
+        <v>0.002673170311480701</v>
       </c>
       <c r="BY5">
-        <v>0.007961889702833779</v>
+        <v>0.002673170311480701</v>
       </c>
       <c r="BZ5">
-        <v>0.008066221387549687</v>
+        <v>0.002684993928984157</v>
       </c>
       <c r="CA5">
-        <v>0.008128608744389951</v>
+        <v>0.002684993928984157</v>
       </c>
       <c r="CB5">
-        <v>0.008187470481408778</v>
+        <v>0.002684993928984157</v>
       </c>
       <c r="CC5">
-        <v>0.008275273686961805</v>
+        <v>0.002684993928984157</v>
       </c>
       <c r="CD5">
-        <v>0.008286770046879548</v>
+        <v>0.002684993928984157</v>
       </c>
       <c r="CE5">
-        <v>0.008286777808548654</v>
+        <v>0.002684993928984157</v>
       </c>
       <c r="CF5">
-        <v>0.008287786019097592</v>
+        <v>0.002684993928984157</v>
       </c>
       <c r="CG5">
-        <v>0.008305641063193286</v>
+        <v>0.002684993928984157</v>
       </c>
       <c r="CH5">
-        <v>0.008335122686700129</v>
+        <v>0.002684993928984157</v>
       </c>
       <c r="CI5">
-        <v>0.008347121345092433</v>
+        <v>0.002684993928984157</v>
       </c>
       <c r="CJ5">
-        <v>0.008391815036828829</v>
+        <v>0.002684993928984157</v>
       </c>
       <c r="CK5">
-        <v>0.008489551507878765</v>
+        <v>0.002690118444604199</v>
       </c>
       <c r="CL5">
-        <v>0.008494332084136642</v>
+        <v>0.002690118444604199</v>
       </c>
       <c r="CM5">
-        <v>0.008540815791782379</v>
+        <v>0.002690118444604199</v>
       </c>
       <c r="CN5">
-        <v>0.1223179200293078</v>
+        <v>0.1181652952254034</v>
       </c>
       <c r="CO5">
-        <v>0.1580382702201774</v>
+        <v>0.1543541630962791</v>
       </c>
       <c r="CP5">
-        <v>0.1959744602988213</v>
+        <v>0.1927937749031887</v>
       </c>
       <c r="CQ5">
-        <v>0.1968909501224038</v>
+        <v>0.1936305498252698</v>
       </c>
       <c r="CR5">
-        <v>0.2246851437147099</v>
+        <v>0.2217684077839666</v>
       </c>
       <c r="CS5">
-        <v>0.2247114732103764</v>
+        <v>0.2217684077839666</v>
       </c>
       <c r="CT5">
-        <v>0.2393523854688574</v>
+        <v>0.236545793100034</v>
       </c>
       <c r="CU5">
-        <v>0.2520940938235275</v>
+        <v>0.2493940581338197</v>
       </c>
       <c r="CV5">
-        <v>0.2835576722299901</v>
+        <v>0.281259101285366</v>
       </c>
       <c r="CW5">
-        <v>0.3099864878914486</v>
+        <v>0.3080100737948002</v>
       </c>
       <c r="CX5">
-        <v>0.310124769934445</v>
+        <v>0.3080563825587475</v>
       </c>
       <c r="CY5">
-        <v>0.3123432891220835</v>
+        <v>0.3102156964927203</v>
       </c>
       <c r="CZ5">
-        <v>0.3166003462064761</v>
+        <v>0.3144456594996743</v>
       </c>
       <c r="DA5">
-        <v>0.3249747117823392</v>
+        <v>0.3228577870985234</v>
       </c>
       <c r="DB5">
-        <v>0.325740961243531</v>
+        <v>0.3235419550626449</v>
       </c>
       <c r="DC5">
-        <v>0.3269350157830556</v>
+        <v>0.3246606669174036</v>
       </c>
       <c r="DD5">
-        <v>0.3426403919876246</v>
+        <v>0.3405192836820984</v>
       </c>
       <c r="DE5">
-        <v>0.3449391258712006</v>
+        <v>0.3427600758589073</v>
       </c>
       <c r="DF5">
-        <v>0.3516617099307215</v>
+        <v>0.3494944029758387</v>
       </c>
       <c r="DG5">
-        <v>0.3693121390367794</v>
+        <v>0.3673287112367672</v>
       </c>
       <c r="DH5">
-        <v>0.3694912772677066</v>
+        <v>0.3674165197578684</v>
       </c>
       <c r="DI5">
-        <v>0.370478967217683</v>
+        <v>0.3683256163551799</v>
       </c>
       <c r="DJ5">
-        <v>0.3707907266018933</v>
+        <v>0.368548135086251</v>
       </c>
       <c r="DK5">
-        <v>0.3843658399143539</v>
+        <v>0.3822429329247565</v>
       </c>
       <c r="DL5">
-        <v>0.3968049852843479</v>
+        <v>0.3947838689828407</v>
       </c>
       <c r="DM5">
-        <v>0.3973651260559784</v>
+        <v>0.3952586816204546</v>
       </c>
       <c r="DN5">
-        <v>0.4040222517188146</v>
+        <v>0.4019265192359497</v>
       </c>
       <c r="DO5">
-        <v>0.4040854742796126</v>
+        <v>0.4019265192359497</v>
       </c>
       <c r="DP5">
-        <v>0.4050082814328751</v>
+        <v>0.4027697109986824</v>
       </c>
       <c r="DQ5">
-        <v>0.4140590649744796</v>
+        <v>0.4118689115413018</v>
       </c>
       <c r="DR5">
-        <v>0.4165605712477857</v>
+        <v>0.4143156701911841</v>
       </c>
       <c r="DS5">
-        <v>0.4166761224859334</v>
+        <v>0.4143388900932254</v>
       </c>
       <c r="DT5">
-        <v>0.4205667169888863</v>
+        <v>0.4181966179772765</v>
       </c>
       <c r="DU5">
-        <v>0.4351327102511617</v>
+        <v>0.4328979041684326</v>
       </c>
       <c r="DV5">
-        <v>0.4471076571446659</v>
+        <v>0.4449673296666429</v>
       </c>
       <c r="DW5">
-        <v>0.4560177616933954</v>
+        <v>0.4539236352321082</v>
       </c>
       <c r="DX5">
-        <v>0.4788809305354434</v>
+        <v>0.477052794630809</v>
       </c>
       <c r="DY5">
-        <v>0.4794221752080309</v>
+        <v>0.477508413516848</v>
       </c>
       <c r="DZ5">
-        <v>0.4812699334144474</v>
+        <v>0.4792911262194738</v>
       </c>
       <c r="EA5">
-        <v>0.4812798235149465</v>
+        <v>0.4792911262194738</v>
       </c>
       <c r="EB5">
-        <v>0.4903032110579386</v>
+        <v>0.4883624992200001</v>
       </c>
       <c r="EC5">
-        <v>0.5216500594703132</v>
+        <v>0.5201089736393035</v>
       </c>
       <c r="ED5">
-        <v>0.539101741586437</v>
+        <v>0.5377414042353037</v>
       </c>
       <c r="EE5">
-        <v>0.5538974848370762</v>
+        <v>0.5526760594509849</v>
       </c>
       <c r="EF5">
-        <v>0.5699925000219113</v>
+        <v>0.5689304528134901</v>
       </c>
       <c r="EG5">
-        <v>0.5825743893846757</v>
+        <v>0.5816163813766312</v>
       </c>
       <c r="EH5">
-        <v>0.5826641553901293</v>
+        <v>0.5816163813766312</v>
       </c>
       <c r="EI5">
-        <v>0.5882556961069343</v>
+        <v>0.5872018488854946</v>
       </c>
       <c r="EJ5">
-        <v>0.6206864214644138</v>
+        <v>0.6200492735472147</v>
       </c>
       <c r="EK5">
-        <v>0.6734028587944818</v>
+        <v>0.6735019519830673</v>
       </c>
       <c r="EL5">
-        <v>0.7150331546860301</v>
+        <v>0.7156938593882901</v>
       </c>
       <c r="EM5">
-        <v>0.7384946664977737</v>
+        <v>0.7394307868925032</v>
       </c>
       <c r="EN5">
-        <v>0.7486107809854223</v>
+        <v>0.7496120995407435</v>
       </c>
       <c r="EO5">
-        <v>0.7486668343925834</v>
+        <v>0.7496120995407435</v>
       </c>
       <c r="EP5">
-        <v>0.7496675048419024</v>
+        <v>0.7505343811070335</v>
       </c>
       <c r="EQ5">
-        <v>0.7521433392165087</v>
+        <v>0.7529550634728649</v>
       </c>
       <c r="ER5">
-        <v>0.7651630475570989</v>
+        <v>0.766085707565706</v>
       </c>
       <c r="ES5">
-        <v>0.7832263946422436</v>
+        <v>0.7843394381155089</v>
       </c>
       <c r="ET5">
-        <v>0.8006862347579543</v>
+        <v>0.8019801552164146</v>
       </c>
       <c r="EU5">
-        <v>0.8180917198764178</v>
+        <v>0.819565661116763</v>
       </c>
       <c r="EV5">
-        <v>0.8343280630540949</v>
+        <v>0.8359636086794775</v>
       </c>
       <c r="EW5">
-        <v>0.835406367799482</v>
+        <v>0.8369647474421145</v>
       </c>
       <c r="EX5">
-        <v>0.8379657342698577</v>
+        <v>0.8394702777065031</v>
       </c>
       <c r="EY5">
-        <v>0.8467538488247656</v>
+        <v>0.8483026716841475</v>
       </c>
       <c r="EZ5">
-        <v>0.8574302942840351</v>
+        <v>0.8590531416724583</v>
       </c>
       <c r="FA5">
-        <v>0.8650411708985666</v>
+        <v>0.8666897537841879</v>
       </c>
       <c r="FB5">
-        <v>0.8661610190418496</v>
+        <v>0.8677330903389182</v>
       </c>
       <c r="FC5">
-        <v>0.8682486995361147</v>
+        <v>0.8697595046002506</v>
       </c>
       <c r="FD5">
-        <v>0.8702095176368051</v>
+        <v>0.8716570581236639</v>
       </c>
       <c r="FE5">
-        <v>0.8702592852242845</v>
+        <v>0.8716570581236639</v>
       </c>
       <c r="FF5">
-        <v>0.8703119994516147</v>
+        <v>0.8716570581236639</v>
       </c>
       <c r="FG5">
-        <v>0.8704876067927207</v>
+        <v>0.871741280136147</v>
       </c>
       <c r="FH5">
-        <v>0.8729891130660269</v>
+        <v>0.8741880387860294</v>
       </c>
       <c r="FI5">
-        <v>0.8769326823662967</v>
+        <v>0.8780995759297123</v>
       </c>
       <c r="FJ5">
-        <v>0.8811163526544061</v>
+        <v>0.8822549961469862</v>
       </c>
       <c r="FK5">
-        <v>0.8941901379922574</v>
+        <v>0.8954405690613256</v>
       </c>
       <c r="FL5">
-        <v>0.9025045575711567</v>
+        <v>0.9037918063901238</v>
       </c>
       <c r="FM5">
-        <v>0.9059468098968168</v>
+        <v>0.9071941297829128</v>
       </c>
       <c r="FN5">
-        <v>0.9070096242429884</v>
+        <v>0.9081795341405987</v>
       </c>
       <c r="FO5">
-        <v>0.9099822466924338</v>
+        <v>0.9111048300180413</v>
       </c>
       <c r="FP5">
-        <v>0.9185346152592815</v>
+        <v>0.9196977645221027</v>
       </c>
       <c r="FQ5">
-        <v>0.9259262152849188</v>
+        <v>0.9271116459864192</v>
       </c>
       <c r="FR5">
-        <v>0.9347085418401199</v>
+        <v>0.935938160791424</v>
       </c>
       <c r="FS5">
-        <v>0.9402862385576259</v>
+        <v>0.9415095662294474</v>
       </c>
       <c r="FT5">
-        <v>0.940462359068706</v>
+        <v>0.94159430949539</v>
       </c>
       <c r="FU5">
-        <v>0.941753628403307</v>
+        <v>0.9428117674787468</v>
       </c>
       <c r="FV5">
-        <v>0.9424977495156195</v>
+        <v>0.943473458526856</v>
       </c>
       <c r="FW5">
-        <v>0.9425657872221735</v>
+        <v>0.943473458526856</v>
       </c>
       <c r="FX5">
-        <v>0.9426876170460032</v>
+        <v>0.9435030559152531</v>
       </c>
       <c r="FY5">
-        <v>0.9427234429141887</v>
+        <v>0.9435030559152531</v>
       </c>
       <c r="FZ5">
-        <v>0.9430226113290368</v>
+        <v>0.9437127853432264</v>
       </c>
       <c r="GA5">
-        <v>0.9430892975156593</v>
+        <v>0.9437127853432264</v>
       </c>
       <c r="GB5">
-        <v>0.9433069880146339</v>
+        <v>0.9438397534101084</v>
       </c>
       <c r="GC5">
-        <v>0.9433798839459419</v>
+        <v>0.9438397534101084</v>
       </c>
       <c r="GD5">
-        <v>0.9450887821593912</v>
+        <v>0.945481418788488</v>
       </c>
       <c r="GE5">
-        <v>0.9526550442761823</v>
+        <v>0.9530727136321233</v>
       </c>
       <c r="GF5">
-        <v>0.9614414598311762</v>
+        <v>0.9619033818471011</v>
       </c>
       <c r="GG5">
-        <v>0.9667460531625143</v>
+        <v>0.967197381957366</v>
       </c>
       <c r="GH5">
-        <v>0.9676158677784608</v>
+        <v>0.9679867464410262</v>
       </c>
       <c r="GI5">
-        <v>0.9685574533607723</v>
+        <v>0.9688490124317947</v>
       </c>
       <c r="GJ5">
-        <v>0.9776904368982136</v>
+        <v>0.9780317077897175</v>
       </c>
       <c r="GK5">
-        <v>0.9832512361165755</v>
+        <v>0.9835859495581351</v>
       </c>
       <c r="GL5">
-        <v>0.9846674360448492</v>
+        <v>0.9849303060496761</v>
       </c>
       <c r="GM5">
-        <v>0.9854358978059289</v>
+        <v>0.9856167211619716</v>
       </c>
       <c r="GN5">
-        <v>0.98543942816545</v>
+        <v>0.9856167211619716</v>
       </c>
       <c r="GO5">
-        <v>0.9860053714367867</v>
+        <v>0.9860974277006292</v>
       </c>
       <c r="GP5">
-        <v>0.9860349514972886</v>
+        <v>0.9860974277006292</v>
       </c>
       <c r="GQ5">
-        <v>0.9862526419962632</v>
+        <v>0.9862243957675112</v>
       </c>
       <c r="GR5">
-        <v>0.9888110920666853</v>
+        <v>0.9887289951967569</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.576651896286444E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8.55393030615556E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001734621260690972</v>
+        <v>9.406476447369226E-06</v>
       </c>
       <c r="E6">
-        <v>0.0003212741027194639</v>
+        <v>7.954954543462721E-05</v>
       </c>
       <c r="F6">
-        <v>0.0006590190950656737</v>
+        <v>0.0003423132056726807</v>
       </c>
       <c r="G6">
-        <v>0.0008381468410063798</v>
+        <v>0.0004442151659410541</v>
       </c>
       <c r="H6">
-        <v>0.001006760727185345</v>
+        <v>0.0005354544940376856</v>
       </c>
       <c r="I6">
-        <v>0.00121586410244676</v>
+        <v>0.0006677562424719876</v>
       </c>
       <c r="J6">
-        <v>0.001273812389133568</v>
+        <v>0.0006677562424719876</v>
       </c>
       <c r="K6">
-        <v>0.00136704727702073</v>
+        <v>0.0006825499501709984</v>
       </c>
       <c r="L6">
-        <v>0.001445694869238462</v>
+        <v>0.0006825499501709984</v>
       </c>
       <c r="M6">
-        <v>0.001445705451467222</v>
+        <v>0.0006825499501709984</v>
       </c>
       <c r="N6">
-        <v>0.001552209699053682</v>
+        <v>0.0007108007806426564</v>
       </c>
       <c r="O6">
-        <v>0.001703101195634262</v>
+        <v>0.0007840669451462635</v>
       </c>
       <c r="P6">
-        <v>0.001788544303697998</v>
+        <v>0.0007909586183780914</v>
       </c>
       <c r="Q6">
-        <v>0.001913923280856729</v>
+        <v>0.0008383512581691564</v>
       </c>
       <c r="R6">
-        <v>0.001940720388249467</v>
+        <v>0.0008383512581691564</v>
       </c>
       <c r="S6">
-        <v>0.002054973115660335</v>
+        <v>0.0008744602104086616</v>
       </c>
       <c r="T6">
-        <v>0.002287057720400962</v>
+        <v>0.00103006837554855</v>
       </c>
       <c r="U6">
-        <v>0.002376226168380276</v>
+        <v>0.001040738102714393</v>
       </c>
       <c r="V6">
-        <v>0.002690802391251524</v>
+        <v>0.001280005152537081</v>
       </c>
       <c r="W6">
-        <v>0.002859581957426735</v>
+        <v>0.001371412505022302</v>
       </c>
       <c r="X6">
-        <v>0.002888268869776648</v>
+        <v>0.001371412505022302</v>
       </c>
       <c r="Y6">
-        <v>0.002913942791194839</v>
+        <v>0.001371412505022302</v>
       </c>
       <c r="Z6">
-        <v>0.002925450602934056</v>
+        <v>0.001371412505022302</v>
       </c>
       <c r="AA6">
-        <v>0.002957133332216079</v>
+        <v>0.001371412505022302</v>
       </c>
       <c r="AB6">
-        <v>0.002990480183460391</v>
+        <v>0.001371412505022302</v>
       </c>
       <c r="AC6">
-        <v>0.003036738945412101</v>
+        <v>0.001371412505022302</v>
       </c>
       <c r="AD6">
-        <v>0.00303681310702042</v>
+        <v>0.001371412505022302</v>
       </c>
       <c r="AE6">
-        <v>0.003036859809114362</v>
+        <v>0.001371412505022302</v>
       </c>
       <c r="AF6">
-        <v>0.00307211668331539</v>
+        <v>0.001371412505022302</v>
       </c>
       <c r="AG6">
-        <v>0.003175022580983394</v>
+        <v>0.001396014068481161</v>
       </c>
       <c r="AH6">
-        <v>0.003334194207376334</v>
+        <v>0.001477677527653349</v>
       </c>
       <c r="AI6">
-        <v>0.003389591276120957</v>
+        <v>0.001477677527653349</v>
       </c>
       <c r="AJ6">
-        <v>0.003553833052399</v>
+        <v>0.001564482879955706</v>
       </c>
       <c r="AK6">
-        <v>0.00373510172829119</v>
+        <v>0.001668556064597948</v>
       </c>
       <c r="AL6">
-        <v>0.003882187464958014</v>
+        <v>0.001737962617216489</v>
       </c>
       <c r="AM6">
-        <v>0.004096220380107718</v>
+        <v>0.00187526365913538</v>
       </c>
       <c r="AN6">
-        <v>0.004558377029634579</v>
+        <v>0.002264199416819644</v>
       </c>
       <c r="AO6">
-        <v>0.004681834746836849</v>
+        <v>0.002309643610589335</v>
       </c>
       <c r="AP6">
-        <v>0.004838750753280905</v>
+        <v>0.00238901953251267</v>
       </c>
       <c r="AQ6">
-        <v>0.004908473431700888</v>
+        <v>0.00238901953251267</v>
       </c>
       <c r="AR6">
-        <v>0.00490849675206336</v>
+        <v>0.00238901953251267</v>
       </c>
       <c r="AS6">
-        <v>0.004909387457893175</v>
+        <v>0.00238901953251267</v>
       </c>
       <c r="AT6">
-        <v>0.004910763472661992</v>
+        <v>0.00238901953251267</v>
       </c>
       <c r="AU6">
-        <v>0.004957839364595184</v>
+        <v>0.00238901953251267</v>
       </c>
       <c r="AV6">
-        <v>0.004997065866706255</v>
+        <v>0.00238901953251267</v>
       </c>
       <c r="AW6">
-        <v>0.004997576387894685</v>
+        <v>0.00238901953251267</v>
       </c>
       <c r="AX6">
-        <v>0.006129821062236382</v>
+        <v>0.003457525143058152</v>
       </c>
       <c r="AY6">
-        <v>0.06043706483155564</v>
+        <v>0.05845346263220604</v>
       </c>
       <c r="AZ6">
-        <v>0.1127815536453538</v>
+        <v>0.1114588719415753</v>
       </c>
       <c r="BA6">
-        <v>0.1247547593740236</v>
+        <v>0.12352173954001</v>
       </c>
       <c r="BB6">
-        <v>0.1393198710439571</v>
+        <v>0.1382131888678695</v>
       </c>
       <c r="BC6">
-        <v>0.1554553916783029</v>
+        <v>0.1544972686403224</v>
       </c>
       <c r="BD6">
-        <v>0.1567992876478482</v>
+        <v>0.1557804204379553</v>
       </c>
       <c r="BE6">
-        <v>0.1577648505259672</v>
+        <v>0.1566798856843411</v>
       </c>
       <c r="BF6">
-        <v>0.2006149565549218</v>
+        <v>0.2000565655235977</v>
       </c>
       <c r="BG6">
-        <v>0.2292280659065073</v>
+        <v>0.2289947934297686</v>
       </c>
       <c r="BH6">
-        <v>0.2350896791736747</v>
+        <v>0.2348595887809658</v>
       </c>
       <c r="BI6">
-        <v>0.2393365120774353</v>
+        <v>0.2390867544278168</v>
       </c>
       <c r="BJ6">
-        <v>0.242251430411379</v>
+        <v>0.2419631587497145</v>
       </c>
       <c r="BK6">
-        <v>0.247529469591771</v>
+        <v>0.2472361223689641</v>
       </c>
       <c r="BL6">
-        <v>0.2481757294471258</v>
+        <v>0.2478117664155039</v>
       </c>
       <c r="BM6">
-        <v>0.2484226211615309</v>
+        <v>0.2479823912127329</v>
       </c>
       <c r="BN6">
-        <v>0.2520851748785322</v>
+        <v>0.2516170100504007</v>
       </c>
       <c r="BO6">
-        <v>0.2565246562779271</v>
+        <v>0.2560395501928163</v>
       </c>
       <c r="BP6">
-        <v>0.2606985817833399</v>
+        <v>0.2601927767926571</v>
       </c>
       <c r="BQ6">
-        <v>0.2678459259213707</v>
+        <v>0.2673614962648282</v>
       </c>
       <c r="BR6">
-        <v>0.2744608627714667</v>
+        <v>0.273990274820395</v>
       </c>
       <c r="BS6">
-        <v>0.2747515142248801</v>
+        <v>0.2742052785623266</v>
       </c>
       <c r="BT6">
-        <v>0.2787286424347526</v>
+        <v>0.2781589231606673</v>
       </c>
       <c r="BU6">
-        <v>0.2831248733351276</v>
+        <v>0.2825376008041773</v>
       </c>
       <c r="BV6">
-        <v>0.2953334220584642</v>
+        <v>0.2948391415296266</v>
       </c>
       <c r="BW6">
-        <v>0.3094150607393539</v>
+        <v>0.3090402766661265</v>
       </c>
       <c r="BX6">
-        <v>0.3135521799456008</v>
+        <v>0.313156176153137</v>
       </c>
       <c r="BY6">
-        <v>0.3168095864717833</v>
+        <v>0.3163799149173577</v>
       </c>
       <c r="BZ6">
-        <v>0.3171761319234768</v>
+        <v>0.3166718865669885</v>
       </c>
       <c r="CA6">
-        <v>0.3190147605818108</v>
+        <v>0.3184567715818634</v>
       </c>
       <c r="CB6">
-        <v>0.3204735622487523</v>
+        <v>0.3198564550066567</v>
       </c>
       <c r="CC6">
-        <v>0.3209858684671427</v>
+        <v>0.3202962499557779</v>
       </c>
       <c r="CD6">
-        <v>0.3225223080323247</v>
+        <v>0.32177466986463</v>
       </c>
       <c r="CE6">
-        <v>0.3305854708496018</v>
+        <v>0.3298721669631061</v>
       </c>
       <c r="CF6">
-        <v>0.3467412574834883</v>
+        <v>0.3461767995014883</v>
       </c>
       <c r="CG6">
-        <v>0.3621210581349598</v>
+        <v>0.3616944657602718</v>
       </c>
       <c r="CH6">
-        <v>0.3786617417601239</v>
+        <v>0.3783894416297432</v>
       </c>
       <c r="CI6">
-        <v>0.3973880693357582</v>
+        <v>0.3973009885806609</v>
       </c>
       <c r="CJ6">
-        <v>0.3975373391723755</v>
+        <v>0.3973726101385132</v>
       </c>
       <c r="CK6">
-        <v>0.397742997457715</v>
+        <v>0.397501418048579</v>
       </c>
       <c r="CL6">
-        <v>0.398001410351859</v>
+        <v>0.3976837270516587</v>
       </c>
       <c r="CM6">
-        <v>0.4068365141516427</v>
+        <v>0.4065640881925784</v>
       </c>
       <c r="CN6">
-        <v>0.4316557945892019</v>
+        <v>0.4316548040385272</v>
       </c>
       <c r="CO6">
-        <v>0.4510380421499722</v>
+        <v>0.4512315523231215</v>
       </c>
       <c r="CP6">
-        <v>0.4682477857599745</v>
+        <v>0.4686050554585853</v>
       </c>
       <c r="CQ6">
-        <v>0.4856516093655787</v>
+        <v>0.4861753848454821</v>
       </c>
       <c r="CR6">
-        <v>0.4997806030453952</v>
+        <v>0.5004245450599735</v>
       </c>
       <c r="CS6">
-        <v>0.4997812822782798</v>
+        <v>0.5004245450599735</v>
       </c>
       <c r="CT6">
-        <v>0.5084256170823866</v>
+        <v>0.5091114378004418</v>
       </c>
       <c r="CU6">
-        <v>0.5364103904482111</v>
+        <v>0.537412438689298</v>
       </c>
       <c r="CV6">
-        <v>0.5824955164038556</v>
+        <v>0.5840699143854737</v>
       </c>
       <c r="CW6">
-        <v>0.6161145556419995</v>
+        <v>0.6180849067023833</v>
       </c>
       <c r="CX6">
-        <v>0.6346178452226882</v>
+        <v>0.6367702596432684</v>
       </c>
       <c r="CY6">
-        <v>0.6387263416295836</v>
+        <v>0.6408571313147928</v>
       </c>
       <c r="CZ6">
-        <v>0.6389812413238073</v>
+        <v>0.6410358774057406</v>
       </c>
       <c r="DA6">
-        <v>0.6416852382625308</v>
+        <v>0.643698375768709</v>
       </c>
       <c r="DB6">
-        <v>0.6486923071037405</v>
+        <v>0.6507248350313396</v>
       </c>
       <c r="DC6">
-        <v>0.669223498638474</v>
+        <v>0.6714667849885765</v>
       </c>
       <c r="DD6">
-        <v>0.6915997341313961</v>
+        <v>0.6940798865031557</v>
       </c>
       <c r="DE6">
-        <v>0.7117329516751483</v>
+        <v>0.7144182310884438</v>
       </c>
       <c r="DF6">
-        <v>0.7289505422849728</v>
+        <v>0.7317996922597433</v>
       </c>
       <c r="DG6">
-        <v>0.7402281515294059</v>
+        <v>0.7431571205980536</v>
       </c>
       <c r="DH6">
-        <v>0.7403155144374262</v>
+        <v>0.7431659592366476</v>
       </c>
       <c r="DI6">
-        <v>0.7449496923324089</v>
+        <v>0.7477859508540331</v>
       </c>
       <c r="DJ6">
-        <v>0.755711758088525</v>
+        <v>0.7586205407001976</v>
       </c>
       <c r="DK6">
-        <v>0.7674980948214295</v>
+        <v>0.7704938950835712</v>
       </c>
       <c r="DL6">
-        <v>0.7767553286116472</v>
+        <v>0.7798023594062584</v>
       </c>
       <c r="DM6">
-        <v>0.7816244825013051</v>
+        <v>0.7846606519575717</v>
       </c>
       <c r="DN6">
-        <v>0.7868116703837559</v>
+        <v>0.7898414787218294</v>
       </c>
       <c r="DO6">
-        <v>0.7910632327874093</v>
+        <v>0.7940734407915789</v>
       </c>
       <c r="DP6">
-        <v>0.7925469938537851</v>
+        <v>0.7954984367943814</v>
       </c>
       <c r="DQ6">
-        <v>0.7938644480239297</v>
+        <v>0.7967547726378967</v>
       </c>
       <c r="DR6">
-        <v>0.7940885122988521</v>
+        <v>0.796902246984564</v>
       </c>
       <c r="DS6">
-        <v>0.794506763319374</v>
+        <v>0.7972466558431875</v>
       </c>
       <c r="DT6">
-        <v>0.7968100748671776</v>
+        <v>0.7995027990676258</v>
       </c>
       <c r="DU6">
-        <v>0.8021278162466698</v>
+        <v>0.8048160266769807</v>
       </c>
       <c r="DV6">
-        <v>0.8112843530391695</v>
+        <v>0.8140223691270352</v>
       </c>
       <c r="DW6">
-        <v>0.8181784020829403</v>
+        <v>0.8209342093481792</v>
       </c>
       <c r="DX6">
-        <v>0.823574937560647</v>
+        <v>0.8263273460019387</v>
       </c>
       <c r="DY6">
-        <v>0.8240913129489452</v>
+        <v>0.8267712677002228</v>
       </c>
       <c r="DZ6">
-        <v>0.8261126207031395</v>
+        <v>0.8287414167426542</v>
       </c>
       <c r="EA6">
-        <v>0.8301994228105266</v>
+        <v>0.8328062871376615</v>
       </c>
       <c r="EB6">
-        <v>0.8363885176702728</v>
+        <v>0.8390031979862891</v>
       </c>
       <c r="EC6">
-        <v>0.8407341888717936</v>
+        <v>0.8433306005049817</v>
       </c>
       <c r="ED6">
-        <v>0.8418256460470597</v>
+        <v>0.8443577414683181</v>
       </c>
       <c r="EE6">
-        <v>0.8418679731361005</v>
+        <v>0.8443577414683181</v>
       </c>
       <c r="EF6">
-        <v>0.8419060839322369</v>
+        <v>0.8443577414683181</v>
       </c>
       <c r="EG6">
-        <v>0.8419086174196795</v>
+        <v>0.8443577414683181</v>
       </c>
       <c r="EH6">
-        <v>0.8419132824598737</v>
+        <v>0.8443577414683181</v>
       </c>
       <c r="EI6">
-        <v>0.8419230990766513</v>
+        <v>0.8443577414683181</v>
       </c>
       <c r="EJ6">
-        <v>0.8426451277602891</v>
+        <v>0.8450102264813891</v>
       </c>
       <c r="EK6">
-        <v>0.8430748727005505</v>
+        <v>0.8453662919001316</v>
       </c>
       <c r="EL6">
-        <v>0.8435284974202707</v>
+        <v>0.845746575000152</v>
       </c>
       <c r="EM6">
-        <v>0.8442366652542226</v>
+        <v>0.8463850030308077</v>
       </c>
       <c r="EN6">
-        <v>0.8450709582353163</v>
+        <v>0.8471513408949646</v>
       </c>
       <c r="EO6">
-        <v>0.8480533841677302</v>
+        <v>0.8500962080561618</v>
       </c>
       <c r="EP6">
-        <v>0.8549623390111634</v>
+        <v>0.8570231649958683</v>
       </c>
       <c r="EQ6">
-        <v>0.8605182023852594</v>
+        <v>0.8625778840553661</v>
       </c>
       <c r="ER6">
-        <v>0.8626737475364117</v>
+        <v>0.8646841699704485</v>
       </c>
       <c r="ES6">
-        <v>0.8626757319173667</v>
+        <v>0.8646841699704485</v>
       </c>
       <c r="ET6">
-        <v>0.8665190256302721</v>
+        <v>0.8685020862972135</v>
       </c>
       <c r="EU6">
-        <v>0.8761345154123712</v>
+        <v>0.8781738759781725</v>
       </c>
       <c r="EV6">
-        <v>0.8844030472249943</v>
+        <v>0.8864796480685621</v>
       </c>
       <c r="EW6">
-        <v>0.8883358421358715</v>
+        <v>0.8903883320462688</v>
       </c>
       <c r="EX6">
-        <v>0.8902536426924114</v>
+        <v>0.8922535092514562</v>
       </c>
       <c r="EY6">
-        <v>0.8913503752675578</v>
+        <v>0.8932860002622309</v>
       </c>
       <c r="EZ6">
-        <v>0.8928165265343326</v>
+        <v>0.8946931372846001</v>
       </c>
       <c r="FA6">
-        <v>0.8929370425616016</v>
+        <v>0.8947355981631617</v>
       </c>
       <c r="FB6">
-        <v>0.8929538529372206</v>
+        <v>0.8947355981631617</v>
       </c>
       <c r="FC6">
-        <v>0.8951465806875303</v>
+        <v>0.8968795928157572</v>
       </c>
       <c r="FD6">
-        <v>0.9057363579475506</v>
+        <v>0.9075394562623956</v>
       </c>
       <c r="FE6">
-        <v>0.9119275868072484</v>
+        <v>0.913738531307337</v>
       </c>
       <c r="FF6">
-        <v>0.9150733227359614</v>
+        <v>0.9168490193213862</v>
       </c>
       <c r="FG6">
-        <v>0.9150956770154548</v>
+        <v>0.9168490193213862</v>
       </c>
       <c r="FH6">
-        <v>0.9153702431592328</v>
+        <v>0.9170477101445706</v>
       </c>
       <c r="FI6">
-        <v>0.9155862170543385</v>
+        <v>0.9171869796315509</v>
       </c>
       <c r="FJ6">
-        <v>0.91594314688625</v>
+        <v>0.9174691995991959</v>
       </c>
       <c r="FK6">
-        <v>0.9168245214662768</v>
+        <v>0.9182832852727071</v>
       </c>
       <c r="FL6">
-        <v>0.9189760325175205</v>
+        <v>0.9203854800048706</v>
       </c>
       <c r="FM6">
-        <v>0.9223005022421832</v>
+        <v>0.9236772309200864</v>
       </c>
       <c r="FN6">
-        <v>0.9253427131732422</v>
+        <v>0.9266827290450198</v>
       </c>
       <c r="FO6">
-        <v>0.9253462744917615</v>
+        <v>0.9266827290450198</v>
       </c>
       <c r="FP6">
-        <v>0.9259866484772498</v>
+        <v>0.9272524039359098</v>
       </c>
       <c r="FQ6">
-        <v>0.9310956791614717</v>
+        <v>0.9323539675679617</v>
       </c>
       <c r="FR6">
-        <v>0.9346997837797975</v>
+        <v>0.935929310245012</v>
       </c>
       <c r="FS6">
-        <v>0.9395042726709207</v>
+        <v>0.9407220227801005</v>
       </c>
       <c r="FT6">
-        <v>0.9420138898140492</v>
+        <v>0.9431873908494359</v>
       </c>
       <c r="FU6">
-        <v>0.9449098527484225</v>
+        <v>0.9460445715505257</v>
       </c>
       <c r="FV6">
-        <v>0.9471109900985416</v>
+        <v>0.9481970947998033</v>
       </c>
       <c r="FW6">
-        <v>0.9472644293450645</v>
+        <v>0.9482729447652245</v>
       </c>
       <c r="FX6">
-        <v>0.9484514155181657</v>
+        <v>0.9493969664734762</v>
       </c>
       <c r="FY6">
-        <v>0.9512808621540464</v>
+        <v>0.9521866896622607</v>
       </c>
       <c r="FZ6">
-        <v>0.9570825523225717</v>
+        <v>0.9579907139955929</v>
       </c>
       <c r="GA6">
-        <v>0.9638425851693795</v>
+        <v>0.964766641674088</v>
       </c>
       <c r="GB6">
-        <v>0.9663189953132605</v>
+        <v>0.9671983328610484</v>
       </c>
       <c r="GC6">
-        <v>0.9686171810611802</v>
+        <v>0.9694492777549033</v>
       </c>
       <c r="GD6">
-        <v>0.9690438897115103</v>
+        <v>0.9698022639198381</v>
       </c>
       <c r="GE6">
-        <v>0.9693671384041851</v>
+        <v>0.9700503261559797</v>
       </c>
       <c r="GF6">
-        <v>0.9717554166500633</v>
+        <v>0.9723926383677306</v>
       </c>
       <c r="GG6">
-        <v>0.9754692567659022</v>
+        <v>0.9760792693130935</v>
       </c>
       <c r="GH6">
-        <v>0.9787107530924453</v>
+        <v>0.9792868727463911</v>
       </c>
       <c r="GI6">
-        <v>0.9821399013147358</v>
+        <v>0.9826847833728632</v>
       </c>
       <c r="GJ6">
-        <v>0.9832607706893353</v>
+        <v>0.9837417527217748</v>
       </c>
       <c r="GK6">
-        <v>0.9834080111859986</v>
+        <v>0.9838113162242628</v>
       </c>
       <c r="GL6">
-        <v>0.9842118605677822</v>
+        <v>0.9845467797084314</v>
       </c>
       <c r="GM6">
-        <v>0.9877654446872528</v>
+        <v>0.9880708870153481</v>
       </c>
       <c r="GN6">
-        <v>0.9945714515330188</v>
+        <v>0.9948934392305464</v>
       </c>
       <c r="GO6">
-        <v>0.9974466810678619</v>
+        <v>0.9977295931519502</v>
       </c>
       <c r="GP6">
-        <v>0.9984196920458122</v>
+        <v>0.9986366118896968</v>
       </c>
       <c r="GQ6">
-        <v>0.9994189967231665</v>
+        <v>0.9995702963859311</v>
       </c>
       <c r="GR6">
-        <v>0.9995990969890851</v>
+        <v>0.9996731846274548</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>131</v>
       </c>
       <c r="E2">
-        <v>0.01428337551834045</v>
+        <v>0.01443507791253881</v>
       </c>
       <c r="F2">
-        <v>0.5169518557624955</v>
+        <v>0.5168025671549229</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>98</v>
       </c>
       <c r="E3">
-        <v>0.005494772194819301</v>
+        <v>0.01721276956195759</v>
       </c>
       <c r="F3">
-        <v>0.5048357720154764</v>
+        <v>0.5048969873449937</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>98</v>
       </c>
       <c r="E4">
-        <v>0.005674122027836288</v>
+        <v>0.03700166518406593</v>
       </c>
       <c r="F4">
-        <v>0.5130019244710307</v>
+        <v>0.5132693523310093</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>132</v>
       </c>
       <c r="E5">
-        <v>0.008391815036828829</v>
+        <v>0.002690118444604199</v>
       </c>
       <c r="F5">
-        <v>0.5216500594703132</v>
+        <v>0.5201089736393035</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6">
-        <v>0.004997065866706255</v>
+        <v>0.003457525143058152</v>
       </c>
       <c r="F6">
-        <v>0.5084256170823866</v>
+        <v>0.5004245450599735</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>141</v>
       </c>
       <c r="E2">
-        <v>0.01428337551834045</v>
+        <v>0.01443507791253881</v>
       </c>
       <c r="F2">
-        <v>0.7372079990632482</v>
+        <v>0.7372469093925552</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>109</v>
       </c>
       <c r="E3">
-        <v>0.005494772194819301</v>
+        <v>0.01721276956195759</v>
       </c>
       <c r="F3">
-        <v>0.7101755198916659</v>
+        <v>0.7107951821254275</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>109</v>
       </c>
       <c r="E4">
-        <v>0.005674122027836288</v>
+        <v>0.03700166518406593</v>
       </c>
       <c r="F4">
-        <v>0.7086253073250183</v>
+        <v>0.7097788617106096</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>141</v>
       </c>
       <c r="E5">
-        <v>0.008391815036828829</v>
+        <v>0.002690118444604199</v>
       </c>
       <c r="F5">
-        <v>0.7150331546860301</v>
+        <v>0.7156938593882901</v>
       </c>
       <c r="G5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>108</v>
       </c>
       <c r="E6">
-        <v>0.004997065866706255</v>
+        <v>0.003457525143058152</v>
       </c>
       <c r="F6">
-        <v>0.7117329516751483</v>
+        <v>0.7144182310884438</v>
       </c>
       <c r="G6">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>148</v>
       </c>
       <c r="E2">
-        <v>0.01428337551834045</v>
+        <v>0.01443507791253881</v>
       </c>
       <c r="F2">
-        <v>0.8033229291446328</v>
+        <v>0.8033949202666438</v>
       </c>
       <c r="G2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3">
-        <v>0.005494772194819301</v>
+        <v>0.01721276956195759</v>
       </c>
       <c r="F3">
-        <v>0.8116514580633916</v>
+        <v>0.8000092122500818</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>125</v>
       </c>
       <c r="E4">
-        <v>0.005674122027836288</v>
+        <v>0.03700166518406593</v>
       </c>
       <c r="F4">
-        <v>0.8074911679908405</v>
+        <v>0.8087295210457237</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>149</v>
       </c>
       <c r="E5">
-        <v>0.008391815036828829</v>
+        <v>0.002690118444604199</v>
       </c>
       <c r="F5">
-        <v>0.8006862347579543</v>
+        <v>0.8019801552164146</v>
       </c>
       <c r="G5">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>124</v>
       </c>
       <c r="E6">
-        <v>0.004997065866706255</v>
+        <v>0.003457525143058152</v>
       </c>
       <c r="F6">
-        <v>0.8021278162466698</v>
+        <v>0.8048160266769807</v>
       </c>
       <c r="G6">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>167</v>
       </c>
       <c r="E2">
-        <v>0.01428337551834045</v>
+        <v>0.01443507791253881</v>
       </c>
       <c r="F2">
-        <v>0.9020180491081894</v>
+        <v>0.9020923704981405</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>160</v>
       </c>
       <c r="E3">
-        <v>0.005494772194819301</v>
+        <v>0.01721276956195759</v>
       </c>
       <c r="F3">
-        <v>0.903330848788686</v>
+        <v>0.9037464042016434</v>
       </c>
       <c r="G3">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>159</v>
       </c>
       <c r="E4">
-        <v>0.005674122027836288</v>
+        <v>0.03700166518406593</v>
       </c>
       <c r="F4">
-        <v>0.9021159973037143</v>
+        <v>0.9028913054301214</v>
       </c>
       <c r="G4">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>167</v>
       </c>
       <c r="E5">
-        <v>0.008391815036828829</v>
+        <v>0.002690118444604199</v>
       </c>
       <c r="F5">
-        <v>0.9025045575711567</v>
+        <v>0.9037918063901238</v>
       </c>
       <c r="G5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>159</v>
       </c>
       <c r="E6">
-        <v>0.004997065866706255</v>
+        <v>0.003457525143058152</v>
       </c>
       <c r="F6">
-        <v>0.9057363579475506</v>
+        <v>0.9075394562623956</v>
       </c>
       <c r="G6">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H6">
         <v>11</v>

--- a/on_trucks/Processed_Stand_Alone/11_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/11_225-80R17.xlsx
@@ -1994,43 +1994,43 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.034896915318357E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.106288808282698E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>6.249055498935766E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0001442446240177395</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.000108081050225001</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000110415316446645</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001296248233475692</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.938655289755764E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.370871973135475E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.745891744236304E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.476676643605295E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.111577970389637E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.045018885705755E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -2042,46 +2042,46 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>8.033247115211114E-06</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>6.117265015349486E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0001086944106219893</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0001221676782343655</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.000114590064307386</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001154871672338704</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0001302936017615384</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001510201663655483</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0001442812750330164</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0001510201663655483</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0001283961884115218</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.79139849819318E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>3.077247003713206E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>3.099219062119618E-06</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -2090,46 +2090,46 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.126256773232432E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>6.567459817613167E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0001086623947938398</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0002182825480923746</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0002747957106244258</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0003685657664569952</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0003775656580209493</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0004406795572800091</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0003417001317661004</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0002227838353755936</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0002182825480923746</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0001857610640754209</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0001046240255511568</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>3.326435164239191E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
         <v>0</v>
@@ -2138,97 +2138,97 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>3.570136384461177E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>9.901129447770588E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0001813108839850422</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.000290084149551719</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.000380291868858463</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0003728459663265637</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0003202938264805091</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0002914894321699737</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0002849599852216557</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0002555942727533603</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0002835702600133273</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0002228291260593174</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0001976522512192858</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0001178957376075184</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>1.616174452275215E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>1.307392101312348E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>6.963838395423867E-05</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0001720845690360793</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0002555458385518007</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0004019048454249545</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0003696190151224511</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0003607134290935716</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0006019343736982807</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0005154078138893155</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0004963363014146618</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0004241684000378179</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0003316334864234402</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0001976095334148098</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>6.384626212887669E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>4.614386149462298E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
         <v>0</v>
@@ -2237,361 +2237,361 @@
         <v>0</v>
       </c>
       <c r="CE2">
-        <v>1.238338124654373E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>6.569989648686773E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0001060896156580834</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0002110574426492302</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0002382997288418354</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0002914894321699737</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0002730262004077545</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0003372072939384654</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.001412050154943517</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.09019703851742747</v>
+        <v>0.36031363230083</v>
       </c>
       <c r="CO2">
-        <v>0.06722155720437703</v>
+        <v>0.2227288307494956</v>
       </c>
       <c r="CP2">
-        <v>0.009824105084943588</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.001335176627612923</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.03077598283151645</v>
+        <v>0.004480644816338126</v>
       </c>
       <c r="CS2">
-        <v>0.006010751151525402</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.01915430028381604</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.002214407453856257</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.05073641307283747</v>
+        <v>0.1240103206569696</v>
       </c>
       <c r="CW2">
-        <v>0.01470775325911441</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.004862461327776442</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>9.05258225885382E-05</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.0102575211104785</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.01021073475298192</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.003540195711868722</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.01456587949156559</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.0122376820613613</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.0001976095334148098</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.020932598334743</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.01421346611416186</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0004453526468230387</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0001659705369686447</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.001931834633353692</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.01913172101589595</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.003058915923138227</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.001300652592588909</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.006549705782796332</v>
+        <v>0</v>
       </c>
       <c r="DO2">
         <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.006161463910578759</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.009455804929025011</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.001154573819318495</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0002555458385518007</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.003742014562530048</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.0150191277108354</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.00653845719476981</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.009548329471032771</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.01313530256705621</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.001826749234791004</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.000940360998861232</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0003417559642468978</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.01696564000631063</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.02593942235206149</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.009532677955795439</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.01592278997772114</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.01053241573849902</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.004270794507552318</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0008688881152622034</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.01512265056078721</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.04267844158917542</v>
+        <v>0.07575651511618119</v>
       </c>
       <c r="EK2">
-        <v>0.05786851043285474</v>
+        <v>0.1667196848941138</v>
       </c>
       <c r="EL2">
-        <v>0.03770775100792326</v>
+        <v>0.0459903714660717</v>
       </c>
       <c r="EM2">
-        <v>0.02088539851455019</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.004517728845879647</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0001638771242804443</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.001646304002836499</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.004798363897871698</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.01487648308063257</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.01925985540803751</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.01557459832474851</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.02002994619827011</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.01236473524354659</v>
+        <v>0</v>
       </c>
       <c r="EW2">
         <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.003408460490124652</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.008164262594808918</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.008559807239384829</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.003918878086280344</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.0002825947483414865</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.001762003879808763</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.000513546691151257</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.0001911099799195421</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.0001670417056880055</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.0009121304066789701</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.002412132923712773</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.002373504996120485</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.005677950522280271</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.009577887548772453</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.002806858651858841</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.001346264435714466</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>4.568664213134064E-05</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.007816505428059461</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.009003384636268008</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.008446912902025016</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.008416933352626457</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.002575127527085122</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>3.817230101145022E-05</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.001289753695893614</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.0002195057369338275</v>
+        <v>0</v>
       </c>
       <c r="FW2">
         <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0001072118014694548</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>9.189504084802928E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0001386695250574888</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>4.79112793698048E-06</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.0004113557416975191</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.0008794653119506953</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.004150705719053864</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.01120449384507546</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.008818760027272356</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.003137709699373563</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.000520455893074308</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.002469832894373489</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.007384844366462832</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.003559477789982359</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.001221180757554146</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0004112945332005503</v>
+        <v>0</v>
       </c>
       <c r="GN2">
         <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0005682198746066166</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>2.226356762742778E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0005136148674457217</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.003145338736847407</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.009967838934065327</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,28 +2767,28 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001250704635452144</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001811070024457007</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.191140988090804E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001450491848687181</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001621937671531602</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.537276892491301E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0002203871659349334</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.128670766281958E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2800,103 +2800,103 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.362219249390193E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.636006792921519E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0001233823046912273</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>6.340006160680601E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0002496529492239278</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0003607229869513791</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0002777776207235012</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0001635196471050362</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0002105747388319098</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0001754623536528724</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0001931310162199119</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0001791185589402311</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0001843561697047253</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>3.519356893888349E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>4.663189263255637E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>7.349122293115102E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>5.867651427537825E-07</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.345738146803072E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0001365229477455845</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>8.141350596159939E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.774103001368498E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.821258856520674E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.259664852405537E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>8.206997247700783E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0001258553493038212</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0001572501773723389</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0001826480353716658</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0002530402484264272</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0001595680958273526</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.128670766281958E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -2905,277 +2905,277 @@
         <v>0</v>
       </c>
       <c r="AV3">
-        <v>2.638765904804992E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>4.44150049309676E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.01256763438562821</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.02566323725174528</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.07326448567886652</v>
+        <v>0.4093856873723111</v>
       </c>
       <c r="BB3">
-        <v>0.001255161229075939</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.00763344010652134</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.01858068019840417</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.00807125442572779</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.006802503340205906</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.04034804205459357</v>
+        <v>0.09724086320764222</v>
       </c>
       <c r="BH3">
-        <v>0.0427401046697179</v>
+        <v>0.1199246614001741</v>
       </c>
       <c r="BI3">
-        <v>0.004974087814273949</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>2.2409675895244E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.002243286044004832</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.004764019252074147</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>4.392287638074975E-06</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0002651869658469605</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.008898086682800661</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.001877587018662758</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.003305922206493865</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.01863396554167443</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.005116849953342645</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0001907562228581525</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>3.48716545575994E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0005529834898615894</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.008476164413075315</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.001518904907336138</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.001077853958244214</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.001206466632337824</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0001037114767695262</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.005285356168626089</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.004639598617965566</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0009645130899875422</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.001120285188310575</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.006117397609048013</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01310740897050183</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.008569347513465662</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01513606442027494</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.00998633672956295</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.002891311564384759</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0001021528975433508</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.003512323110129111</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.02524090944968097</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.0292569062402995</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.01560023733772067</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.01761590270333922</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.01697375429011612</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.006858154623384383</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.0005848157307321462</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.01649502637535635</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.04005432823155367</v>
+        <v>0.09445559118086963</v>
       </c>
       <c r="CW3">
-        <v>0.05866684423027808</v>
+        <v>0.2709570565274998</v>
       </c>
       <c r="CX3">
-        <v>0.0309411834270719</v>
+        <v>0.008036140311503239</v>
       </c>
       <c r="CY3">
-        <v>0.01916800846898507</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.001168390960122868</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.0001620532662583984</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.001423432255678646</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.005786417973919567</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.01480020835914983</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.0189956943652664</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.0147316332421494</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.01812650505842382</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.009036925296489952</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.0004184037687656808</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.005308258205951507</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.01416933254039823</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.01125436809556248</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.00582529055733229</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.002335003305596717</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.002909457028587948</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0009264224612581052</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>1.939989417514708E-06</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.000323375034488338</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.001211028670392504</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.002431247372111854</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.003919168410222947</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.01101730432965467</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.01230618648215125</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.006545198591998857</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.003295322554794736</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>2.690337372046697E-05</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.004948798556630442</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.004971759014703701</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.007323547550742898</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.006451476555190723</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.001620490457106945</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.0001163229201974031</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.0007718271696006654</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0001419978651938727</v>
+        <v>0</v>
       </c>
       <c r="EI3">
         <v>0</v>
@@ -3184,46 +3184,46 @@
         <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.0003268081668754828</v>
+        <v>0</v>
       </c>
       <c r="EL3">
         <v>0</v>
       </c>
       <c r="EM3">
-        <v>5.537668358018595E-05</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>9.034039297493563E-05</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>5.395146025078061E-07</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.003514901552998117</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.007621147658444942</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.007481486235700594</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.001690197250243365</v>
+        <v>0</v>
       </c>
       <c r="ET3">
         <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.005107526724718311</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.005390906499665241</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.001853100293457361</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.0005752519330970341</v>
+        <v>0</v>
       </c>
       <c r="EY3">
         <v>0</v>
@@ -3232,139 +3232,139 @@
         <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0001811070024457007</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.0001131803055566465</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.001702778188404457</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.007008270850509762</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.01250444160625522</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.004788834518701673</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.0003548206845923047</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.001166148687502171</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.001379664776479564</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.001213678482937995</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.001737595448427612</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.003414368680860637</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.004140664954037985</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.00552252884606552</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.004477400237380153</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.0002642646106482049</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.0002507226009955015</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.001936159941508976</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.001369555879138147</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.002281127129814802</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.0007715342025995567</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.001791212645636629</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.001582514662287351</v>
+        <v>0</v>
       </c>
       <c r="FX3">
         <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.001519313451053849</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.002349762574769617</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.003862848801719524</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.00329967038344067</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.0005652394601033405</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0002877718648378001</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0001270419329124371</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.004009528844927285</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.006645755755924958</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.006915839089118695</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.005521752914139743</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.006001584599592374</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0009590760456460582</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>4.642953199541689E-05</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0002854928333204379</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.003196754306156776</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.005537070794071627</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.001757657655208123</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.001178882402945414</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.003117289039786687</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.0006260365270701542</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,25 +3540,25 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001554688988855652</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001251407784127368</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001691552831441869</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6.422909660778138E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>6.722967496661523E-06</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.981098636092276E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3576,46 +3576,46 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.209464836877419E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.37965207538352E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0002505942012594617</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0001697810048007108</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>6.638844474296812E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001044126426649962</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2.774874098711511E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>3.394180419877407E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0001791835674940348</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0001286143191679827</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>9.249910120621722E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0001230419250581729</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>4.276627814444632E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -3624,43 +3624,43 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>3.532910285644304E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>5.676612611584198E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0001420036091857888</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0001629241244754683</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0002005865011066541</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.00019882994323403</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0002209539629564466</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0002148758202015135</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0002157828846086817</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0001858654905326014</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0002194275882021725</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0002091692717067239</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.650180974629988E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -3672,469 +3672,469 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>8.401785978001517E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>1.434609692639577E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>6.032864517706835E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.000188226029985858</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0002244173684077932</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.03247592173910479</v>
+        <v>0.0275868300299913</v>
       </c>
       <c r="AZ4">
-        <v>0.0006913392444740148</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.08655271994838287</v>
+        <v>0.6716778190963592</v>
       </c>
       <c r="BB4">
-        <v>0.005492334498861415</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.02075734850167171</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.007408532264968441</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.002879101789693831</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.01027327591212346</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.02701159794914498</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.02648595008918616</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.01043305993425766</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0009982045724639414</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.001897298021066</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.003176633247591341</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0005451426691234245</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.001512499784921982</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.007954257487606954</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.00248694443721208</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0004639487093262258</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.01421192395163816</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.00319616479345826</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.001111583094177493</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.001144834037010869</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.006623347151781288</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.01791655768766952</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.002462722469971595</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.003022205637951873</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0008275293761991482</v>
+        <v>0</v>
       </c>
       <c r="CA4">
         <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.005324079395767032</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.002694298462906123</v>
+        <v>0</v>
       </c>
       <c r="CD4">
         <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.004471288987413139</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0110427714339665</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0179660012630475</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.009992377524604348</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.02139065301614767</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.01028354457528465</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.003458525740339983</v>
+        <v>0</v>
       </c>
       <c r="CL4">
         <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.00246081196015414</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.02233471581173106</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.02521565229272767</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.01396587963625242</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.0172240597776693</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.01859396335517015</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.002973773781290843</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.001479802710781339</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.01785843015975493</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.03939462037273843</v>
+        <v>0.1099931779195867</v>
       </c>
       <c r="CW4">
-        <v>0.04617417044284727</v>
+        <v>0.1907421729540628</v>
       </c>
       <c r="CX4">
-        <v>0.02251892672145072</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.01377939507692911</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.0001313135710165971</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.001246070122448085</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.003828293028920597</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.01068691507644688</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.01892420517281023</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.02422900612349203</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.01559659367050024</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.01899007558979114</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.005627772152209759</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.001849693797016334</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.007886051018952719</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.01629084990978669</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.01325416994066818</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.006658164285915339</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.004420099462514386</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.00530770277776535</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.002511968271048059</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.0001825525545880031</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0005716827021503783</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.0006693554281113976</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.002270694291944483</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.003100929270912564</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.009358897881739261</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.01091778461756344</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.00553321761741166</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.003909519689415282</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
         <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.003988304516663667</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.003743550112447479</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.005553622691605715</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.00352242264154275</v>
+        <v>0</v>
       </c>
       <c r="EE4">
         <v>0</v>
       </c>
       <c r="EF4">
-        <v>8.064765987162796E-05</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>2.586565788577323E-07</v>
+        <v>0</v>
       </c>
       <c r="EH4">
         <v>0</v>
       </c>
       <c r="EI4">
-        <v>4.187826045932293E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>3.807675656846554E-05</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0007539398634572072</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0002047107243462991</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.0001562608214093087</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.0001562608214093087</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.0007448384813337784</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.003429207637624459</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.004641908323760712</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.003944417744942929</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>7.476794563345347E-05</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.0006603994226806426</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.01162368337202922</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.01111129393890915</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.005025070115951404</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.003780069112059528</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.0006649436017844396</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.0008003994020572417</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.0004449205770592418</v>
+        <v>0</v>
       </c>
       <c r="FB4">
         <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.001026483278125159</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.007588925979696179</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.01234188388934603</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.006091520480438335</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0005427096828802297</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.0003124012974077686</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.0002787067261831593</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.0001154498577683534</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.0002253415833192757</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.001347411888809774</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.002547792091474081</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.003891876913289927</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.001786329225727409</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>2.310805708254533E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.001577083612133816</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.003001100654092315</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.002931973251667681</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.00327126558367955</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.001692686365037756</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.002879101789693831</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.001093529772822689</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>5.572465067002027E-05</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.002659741303846273</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.003834581547169179</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.007184271304328868</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.004787219594909726</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.002144225527034831</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.001492477980214012</v>
+        <v>0</v>
       </c>
       <c r="GE4">
         <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.001645337989473812</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.004092912729428037</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.004395517777536698</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.003690513284988955</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.003797459059154146</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0001203419686700621</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0004176820937700274</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0005674527074026118</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.003756488376409339</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.004212035059710893</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0006221265827054568</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0005382571341703751</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.001143055175430757</v>
+        <v>0</v>
       </c>
       <c r="GS4">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.187525562373843E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4322,25 +4322,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001244701701666538</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002408209875785731</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>7.06053996874168E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001150645503253614</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001067468923055213</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.987280210927113E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4349,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.187525562373843E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.43463771160769E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -4370,22 +4370,22 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>5.631567850655668E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0001539671108473416</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0001260435700316785</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0001275854612693223</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>8.980648499181971E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>6.666692284000101E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -4394,19 +4394,19 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>7.817850132568058E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>7.331128178453546E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>2.618723464311566E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>5.277408644239533E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0001217548212607926</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -4421,37 +4421,37 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>4.652516991325971E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>1.182361750345595E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>2.120583441841505E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>1.548531208539686E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>9.259695891641369E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>3.355175160592249E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>1.440188051791372E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
         <v>0</v>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>3.664612837468479E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -4484,19 +4484,19 @@
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0001866772712820778</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0001322434866838039</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0001088459946238343</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>9.149861610940922E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0001038522631697203</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="BQ5">
-        <v>5.299543912063045E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="BW5">
-        <v>6.551742676172313E-06</v>
+        <v>0</v>
       </c>
       <c r="BX5">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1.182361750345595E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="CK5">
-        <v>5.124515620041173E-06</v>
+        <v>0</v>
       </c>
       <c r="CL5">
         <v>0</v>
@@ -4583,211 +4583,211 @@
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1154751767807992</v>
+        <v>0.6114156242134138</v>
       </c>
       <c r="CO5">
-        <v>0.0361888678708757</v>
+        <v>0.04174782017714199</v>
       </c>
       <c r="CP5">
-        <v>0.0384396118069096</v>
+        <v>0.05791929256772906</v>
       </c>
       <c r="CQ5">
-        <v>0.0008367749220810973</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.02813785795869678</v>
+        <v>0</v>
       </c>
       <c r="CS5">
         <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.01477738531606747</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.01284826503378567</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.03186504315154631</v>
+        <v>0.01068137545594197</v>
       </c>
       <c r="CW5">
-        <v>0.02675097250943416</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>4.630876394731814E-05</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.002159313933972824</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.00422996300695402</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.008412127598849002</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.0006841679641215931</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.00111871185475872</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.0158586167646948</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.002240792176808849</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.006734327116931375</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.01783430826092852</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>8.7808521101241E-05</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.000909096597311405</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.0002225187310711758</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.01369479783850547</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.01254093605808425</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.0004748126376138901</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.006667837615495133</v>
+        <v>0</v>
       </c>
       <c r="DO5">
         <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0008431917627326898</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.009099200542619389</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.002446758649882282</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>2.321990204137602E-05</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.003857727884051097</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.01470128619115605</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.01206942549821033</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.008956305565465212</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.02312915939870078</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.0004556188860390065</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.001782712702625858</v>
+        <v>0</v>
       </c>
       <c r="EA5">
         <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.009071373000526285</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.03174647441930336</v>
+        <v>0.009829465583318913</v>
       </c>
       <c r="ED5">
-        <v>0.01763243059600012</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.01493465521568119</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.01625439336250525</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.01268592856314112</v>
+        <v>0</v>
       </c>
       <c r="EH5">
         <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.005585467508863485</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.03284742466172005</v>
+        <v>0.01773973301250703</v>
       </c>
       <c r="EK5">
-        <v>0.0534526784358526</v>
+        <v>0.1657873572556258</v>
       </c>
       <c r="EL5">
-        <v>0.04219190740522284</v>
+        <v>0.08487933173432134</v>
       </c>
       <c r="EM5">
-        <v>0.02373692750421306</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.01018131264824025</v>
+        <v>0</v>
       </c>
       <c r="EO5">
         <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.0009222815662900711</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.002420682365831327</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.01313064409284112</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.01825373054980282</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.01764071710090579</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.01758550590034838</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.01639794756271456</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.001001138762636936</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.002505530264388613</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.008832393977644442</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.01075046998831074</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.007636612111729635</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.001043336554730331</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.002026414261332399</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.001897553523413278</v>
+        <v>0</v>
       </c>
       <c r="FE5">
         <v>0</v>
@@ -4796,121 +4796,121 @@
         <v>0</v>
       </c>
       <c r="FG5">
-        <v>8.422201248315362E-05</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.002446758649882282</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.003911537143682933</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.004155420217273839</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.01318557291433946</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.008351237328798148</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.00340232339278905</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0009854043576858834</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.002925295877442634</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.008592934504061402</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.007413881464316407</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.008826514805004827</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.005571405438023328</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>8.474326594263377E-05</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.00121745798335679</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.0006616910481091842</v>
+        <v>0</v>
       </c>
       <c r="FW5">
         <v>0</v>
       </c>
       <c r="FX5">
-        <v>2.95973883970548E-05</v>
+        <v>0</v>
       </c>
       <c r="FY5">
         <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0002097294279733508</v>
+        <v>0</v>
       </c>
       <c r="GA5">
         <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0001269680668820019</v>
+        <v>0</v>
       </c>
       <c r="GC5">
         <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.001641665378379673</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.007591294843635286</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.008830668214977768</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.005294000110264899</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0007893644836601784</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.00086226599076844</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.009182695357922835</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.00555424176841761</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.00134435649154108</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0006864151122955079</v>
+        <v>0</v>
       </c>
       <c r="GN5">
         <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0004807065386576643</v>
+        <v>0</v>
       </c>
       <c r="GP5">
         <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0001269680668820019</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.002504599429245741</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.01127100480324312</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5092,28 +5092,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.406476447369226E-06</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>7.014306898725799E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0002627636602380535</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0001019019602683734</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>9.123932809663154E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.000132301748434302</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.479370769901077E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5122,34 +5122,34 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.825083047165796E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>7.326616450360711E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>6.89167323182794E-06</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>4.739263979106502E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>3.61089522395052E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0001556081651398886</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.066972716584236E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0002392670498226887</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>9.14073524852209E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -5179,34 +5179,34 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>2.460156345885892E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>8.16634591721879E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>8.680535230235673E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0001040731846422425</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>6.940655261854032E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0001373010419188917</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0003889357576842635</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>4.544419376969126E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>7.937592192333499E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -5230,259 +5230,259 @@
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.001068505610545481</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.05499593748914788</v>
+        <v>0.3068863798367874</v>
       </c>
       <c r="AZ6">
-        <v>0.05300540930936928</v>
+        <v>0.282105998789765</v>
       </c>
       <c r="BA6">
-        <v>0.01206286759843465</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0146914493278595</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.01628407977245291</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.001283151797632905</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0008994652463858062</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0433766798392566</v>
+        <v>0.1622365150557418</v>
       </c>
       <c r="BG6">
-        <v>0.02893822790617091</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.005864795351197246</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.004227165646850965</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.002876404321897743</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.005272963619249578</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0005756440465398262</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0001706247972290092</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.003634618837667697</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.004422540142415659</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.004153226599840823</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.007168719472171141</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.006628778555566752</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0002150037419316264</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.003953644598340713</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.004378677643510031</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0123015407254493</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.01420113513649985</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.004115899487010446</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.00322373876422073</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0002919716496308136</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.001784885014874976</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.001399683424793294</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0004397949491211876</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.001478419908852096</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.008097497098476113</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.01630463253838213</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.01551766625878346</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01669497586947146</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.01891154695091772</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>7.162155785223195E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0001288079100658487</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0001823090030796129</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.008880361140919762</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.02509071584594876</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.01957674828459431</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.01737350313546375</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.01757032938689677</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.01424916021449146</v>
+        <v>0</v>
       </c>
       <c r="CS6">
         <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.00868689274046826</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.02830100088885628</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.04665747569617578</v>
+        <v>0.2030796301132699</v>
       </c>
       <c r="CW6">
-        <v>0.03401499231690947</v>
+        <v>0.04569147620443593</v>
       </c>
       <c r="CX6">
-        <v>0.01868535294088516</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.004086871671524475</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.0001787460909478399</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.002662498362968402</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.007026459262630522</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.02074194995723688</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.02261310151457921</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.02033834458528816</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.01738146117129946</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.0113574283383103</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>8.838638594055527E-06</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.004619991617385417</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.01083458984616446</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.01187335438337365</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.009308464322687199</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.004858292551313318</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.005180826764257732</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.004231962069749525</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.001424996002802452</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.001256335843515316</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.0001474743466673213</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.0003444088586235384</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.00225614322443819</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.005313227609354918</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.009206342450054512</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.006911840221143968</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.005393136653759489</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0004439216982841295</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.001970149042431443</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.004064870395007247</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.006196910848627637</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.00432740251869254</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.001027140963336471</v>
+        <v>0</v>
       </c>
       <c r="EE6">
         <v>0</v>
@@ -5500,190 +5500,190 @@
         <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0006524850130709803</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0003560654187424127</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.0003802831000204701</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.0006384280306556077</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.0007663378641568877</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.002944867161197208</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.006926956939706469</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.005554719059497826</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.002106285915082495</v>
+        <v>0</v>
       </c>
       <c r="ES6">
         <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.003817916326765005</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.009671789680958999</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.008305772090389497</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.003908683977706667</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.001865177205187376</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.001032491010774691</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.001407137022369201</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>4.24608785616429E-05</v>
+        <v>0</v>
       </c>
       <c r="FB6">
         <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.00214399465259555</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.01065986344663839</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.006199075044941312</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.003110488014049268</v>
+        <v>0</v>
       </c>
       <c r="FG6">
         <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.000198690823184521</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.00013926948698024</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.0002822199676450115</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0008140856735111193</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.002102194732163565</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.003291750915215698</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.003005498124933418</v>
+        <v>0</v>
       </c>
       <c r="FO6">
         <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0005696748908899801</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.005101563632051933</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.003575342677050249</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.004792712535088479</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.002465368069335356</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.002857180701089758</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.002152523249277594</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>7.584996542121064E-05</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.001124021708251691</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.002789723188784551</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.005804024333332207</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.006775927678495064</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.002431691186960373</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.00225094489385495</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.0003529861649348921</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.000248062236141554</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.002342312211750818</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.003686630945362951</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.003207603433297658</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.003397910626472047</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.001056969348911484</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>6.956350248803624E-05</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0007354634841686017</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.003524107306916684</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.006822552215198393</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.002836153921403745</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0009070187377465766</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0009336844962343373</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0001028882415237508</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.0003268153725450003</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.034896915318357E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001414118572360106</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0002039024122253682</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0003481470362431077</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0004562280864681087</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0005666434029147537</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0006962682262623229</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0007756547791598806</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0008593634988912353</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0009068224163335984</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0009215891827696513</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0009327049624735477</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0009431551513306053</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0009431551513306053</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0009431551513306053</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0009431551513306053</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0009511883984458163</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.001012361048599311</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0011210554592213</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.001243223137455666</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.001357813201763052</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.001473300368996922</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.001603593970758461</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.001754614137124009</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.001898895412157025</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.002049915578522574</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.002178311766934096</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.002256225751916027</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.00228699822195316</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.002290097441015279</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.002290097441015279</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.002290097441015279</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.002311360008747603</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.002377034606923735</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.002485697001717575</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.00270397954980995</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.002978775260434375</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.00334734102689137</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.00372490668491232</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.004165586242192328</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.004507286373958429</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.004730070209334023</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.004948352757426397</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.005134113821501818</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.005238737847052975</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.005272002198695367</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.005272002198695367</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.005272002198695367</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.005307703562539979</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.005406714857017684</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.005588025741002726</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.005878109890554445</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.006258401759412908</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.006631247725739472</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.006951541552219981</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.007243030984389954</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.00752799096961161</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.00778358524236497</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.008067155502378298</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.008289984628437615</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.008487636879656901</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.008605532617264419</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.008621694361787171</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.008621694361787171</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.008634768282800295</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.008704406666754533</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.008876491235790613</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.009132037074342413</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.009533941919767367</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.009903560934889819</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.01026427436398339</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.01086620873768167</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.01138161655157099</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.01187795285298565</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.01230212125302347</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.01263375473944691</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.01283136427286172</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0128952105349906</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.01289982492114006</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.01289982492114006</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.01289982492114006</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0129122083023866</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.01297790819887347</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.01308399781453156</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.01329505525718079</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.01353335498602262</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.01382484441819259</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.01409787061860035</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.01443507791253881</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.01584712806748233</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1060441665849098</v>
+        <v>0.36031363230083</v>
       </c>
       <c r="CO2">
-        <v>0.1732657237892868</v>
+        <v>0.5830424630503256</v>
       </c>
       <c r="CP2">
-        <v>0.1830898288742304</v>
+        <v>0.5830424630503256</v>
       </c>
       <c r="CQ2">
-        <v>0.1844250055018433</v>
+        <v>0.5830424630503256</v>
       </c>
       <c r="CR2">
-        <v>0.2152009883333598</v>
+        <v>0.5875231078666637</v>
       </c>
       <c r="CS2">
-        <v>0.2212117394848852</v>
+        <v>0.5875231078666637</v>
       </c>
       <c r="CT2">
-        <v>0.2403660397687012</v>
+        <v>0.5875231078666637</v>
       </c>
       <c r="CU2">
-        <v>0.2425804472225575</v>
+        <v>0.5875231078666637</v>
       </c>
       <c r="CV2">
-        <v>0.2933168602953949</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="CW2">
-        <v>0.3080246135545093</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="CX2">
-        <v>0.3128870748822858</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="CY2">
-        <v>0.3129776007048743</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="CZ2">
-        <v>0.3232351218153529</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DA2">
-        <v>0.3334458565683348</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DB2">
-        <v>0.3369860522802035</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DC2">
-        <v>0.351551931771769</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DD2">
-        <v>0.3637896138331303</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DE2">
-        <v>0.3639872233665451</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DF2">
-        <v>0.3849198217012881</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DG2">
-        <v>0.3991332878154499</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DH2">
-        <v>0.399578640462273</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DI2">
-        <v>0.3997446109992416</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DJ2">
-        <v>0.4016764456325953</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DK2">
-        <v>0.4208081666484912</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DL2">
-        <v>0.4238670825716295</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DM2">
-        <v>0.4251677351642184</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DN2">
-        <v>0.4317174409470148</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DO2">
-        <v>0.4317174409470148</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DP2">
-        <v>0.4378789048575935</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DQ2">
-        <v>0.4473347097866185</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DR2">
-        <v>0.448489283605937</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DS2">
-        <v>0.4487448294444888</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DT2">
-        <v>0.4524868440070189</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DU2">
-        <v>0.4675059717178543</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DV2">
-        <v>0.4740444289126241</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DW2">
-        <v>0.4835927583836569</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DX2">
-        <v>0.4967280609507131</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DY2">
-        <v>0.4985548101855041</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="DZ2">
-        <v>0.4994951711843653</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="EA2">
-        <v>0.4998369271486122</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="EB2">
-        <v>0.5168025671549229</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="EC2">
-        <v>0.5427419895069844</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="ED2">
-        <v>0.5522746674627799</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="EE2">
-        <v>0.568197457440501</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="EF2">
-        <v>0.578729873179</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="EG2">
-        <v>0.5830006676865523</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="EH2">
-        <v>0.5838695558018145</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="EI2">
-        <v>0.5989922063626018</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="EJ2">
-        <v>0.6416706479517772</v>
+        <v>0.7872899436398145</v>
       </c>
       <c r="EK2">
-        <v>0.699539158384632</v>
+        <v>0.9540096285339283</v>
       </c>
       <c r="EL2">
-        <v>0.7372469093925552</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.7581323079071054</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.762650036752985</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.7628139138772655</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.764460217880102</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.7692585817779737</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.7841350648586063</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.8033949202666438</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.8189695185913923</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.8389994647896625</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.851364200033209</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.851364200033209</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.8547726605233337</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.8629369231181426</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.8714967303575275</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8754156084438078</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8756982031921493</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.877460207071958</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8779737537631093</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8781648637430288</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8783319054487169</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8792440358553958</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8816561687791086</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.884029673775229</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8897076242975093</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8992855118462817</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9020923704981405</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.903438634933855</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9034843215759863</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9113008270040458</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9203042116403138</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9287511245423389</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9371680578949654</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9397431854220505</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9397813577230619</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9410711114189555</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9412906171558894</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9412906171558894</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9413978289573588</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9414897239982069</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9416283935232643</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9416331846512013</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9420445403928988</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9429240057048495</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9470747114239033</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9582792052689788</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9670979652962511</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9702356749956247</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9707561308886989</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9732259637830725</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9806108081495353</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9841702859395176</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9853914666970718</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9858027612302723</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9858027612302723</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.986370981104879</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9863732074616417</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9868868223290874</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9900321610659348</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001250704635452144</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0003061774659909152</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0003480888758718232</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0004931380607405412</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0006553318278937015</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007007045968186145</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0009210917627535479</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0009423784704163674</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0009423784704163674</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0009423784704163674</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0009423784704163674</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0009660006629102694</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0009660006629102694</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0009676366697031909</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001091018974394418</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001154419036001224</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001404071985225152</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001764794972176531</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.002042572592900032</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002206092240005069</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.002416666978836979</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.002592129332489851</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.002785260348709763</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.002964378907649994</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.003148735077354719</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.003183928646293603</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.003188591835556858</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.003188591835556858</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.003262083058488009</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.003262669823630763</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.003306127205098794</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.003442650152844378</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.003524063658805977</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.003541804688819662</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.003580017277384869</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.003580017277384869</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.003592613925908924</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.003674683898385932</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.003800539247689754</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.003957789425062093</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.004140437460433759</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.004393477708860186</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.004553045804687539</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.004574332512350359</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.004574332512350359</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.004574332512350359</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.004600720171398408</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.004645135176329376</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.004645135176329376</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.01721276956195759</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.04287600681370286</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.1161404924925694</v>
+        <v>0.4093856873723111</v>
       </c>
       <c r="BB3">
-        <v>0.1173956537216453</v>
+        <v>0.4093856873723111</v>
       </c>
       <c r="BC3">
-        <v>0.1250290938281667</v>
+        <v>0.4093856873723111</v>
       </c>
       <c r="BD3">
-        <v>0.1436097740265709</v>
+        <v>0.4093856873723111</v>
       </c>
       <c r="BE3">
-        <v>0.1516810284522986</v>
+        <v>0.4093856873723111</v>
       </c>
       <c r="BF3">
-        <v>0.1584835317925045</v>
+        <v>0.4093856873723111</v>
       </c>
       <c r="BG3">
-        <v>0.1988315738470981</v>
+        <v>0.5066265505799533</v>
       </c>
       <c r="BH3">
-        <v>0.241571678516816</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BI3">
-        <v>0.24654576633109</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BJ3">
-        <v>0.2465681760069852</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BK3">
-        <v>0.2488114620509901</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BL3">
-        <v>0.2535754813030642</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BM3">
-        <v>0.2535798735907023</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BN3">
-        <v>0.2538450605565493</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BO3">
-        <v>0.2627431472393499</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BP3">
-        <v>0.2646207342580127</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BQ3">
-        <v>0.2679266564645065</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BR3">
-        <v>0.2865606220061809</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BS3">
-        <v>0.2916774719595236</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BT3">
-        <v>0.2918682281823817</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BU3">
-        <v>0.2919030998369394</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BV3">
-        <v>0.292456083326801</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BW3">
-        <v>0.3009322477398763</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BX3">
-        <v>0.3024511526472124</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BY3">
-        <v>0.3035290066054566</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="BZ3">
-        <v>0.3047354732377944</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CA3">
-        <v>0.3048391847145639</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CB3">
-        <v>0.31012454088319</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CC3">
-        <v>0.3147641395011556</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CD3">
-        <v>0.3157286525911431</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CE3">
-        <v>0.3168489377794537</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CF3">
-        <v>0.3229663353885017</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CG3">
-        <v>0.3360737443590036</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CH3">
-        <v>0.3446430918724692</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CI3">
-        <v>0.3597791562927442</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CJ3">
-        <v>0.3697654930223071</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CK3">
-        <v>0.3726568045866919</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CL3">
-        <v>0.3727589574842352</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CM3">
-        <v>0.3762712805943643</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CN3">
-        <v>0.4015121900440453</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CO3">
-        <v>0.4307690962843448</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CP3">
-        <v>0.4463693336220654</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CQ3">
-        <v>0.4639852363254047</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CR3">
-        <v>0.4809589906155208</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CS3">
-        <v>0.4878171452389052</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CT3">
-        <v>0.4884019609696373</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CU3">
-        <v>0.5048969873449937</v>
+        <v>0.6265512119801274</v>
       </c>
       <c r="CV3">
-        <v>0.5449513155765473</v>
+        <v>0.7210068031609971</v>
       </c>
       <c r="CW3">
-        <v>0.6036181598068254</v>
+        <v>0.9919638596884969</v>
       </c>
       <c r="CX3">
-        <v>0.6345593432338973</v>
+        <v>1</v>
       </c>
       <c r="CY3">
-        <v>0.6537273517028823</v>
+        <v>1</v>
       </c>
       <c r="CZ3">
-        <v>0.6548957426630052</v>
+        <v>1</v>
       </c>
       <c r="DA3">
-        <v>0.6550577959292636</v>
+        <v>1</v>
       </c>
       <c r="DB3">
-        <v>0.6564812281849423</v>
+        <v>1</v>
       </c>
       <c r="DC3">
-        <v>0.6622676461588618</v>
+        <v>1</v>
       </c>
       <c r="DD3">
-        <v>0.6770678545180117</v>
+        <v>1</v>
       </c>
       <c r="DE3">
-        <v>0.696063548883278</v>
+        <v>1</v>
       </c>
       <c r="DF3">
-        <v>0.7107951821254275</v>
+        <v>1</v>
       </c>
       <c r="DG3">
-        <v>0.7289216871838513</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>0.7379586124803412</v>
+        <v>1</v>
       </c>
       <c r="DI3">
-        <v>0.7383770162491069</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.7436852744550584</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.7578546069954566</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.7691089750910191</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.7749342656483513</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.777269268953948</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.7801787259825359</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.781105148443794</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.7811070884332115</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.7814304634676998</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.7826414921380923</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.7850727395102042</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.7889919079204272</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.8000092122500818</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.812315398732233</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.8188605973242319</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.8221559198790266</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.8221828232527471</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.8271316218093775</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.8321033808240812</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.8394269283748241</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.8458784049300149</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.8474988953871219</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.8476152183073192</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.8483870454769199</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.8485290433421138</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.8485290433421138</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.8485290433421138</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.8488558515089892</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.8488558515089892</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.8489112281925694</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.8490015685855443</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.8490021081001469</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.852517009653145</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.8601381573115899</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.8676196435472905</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.8693098407975338</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.8693098407975338</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.8744173675222521</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8798082740219173</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8816613743153746</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8822366262484717</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8822366262484717</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8822366262484717</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8824177332509173</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.882530913556474</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8842336917448784</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8912419625953882</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.9037464042016434</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.9085352387203451</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.9088900594049374</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.9100562080924396</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.9114358728689191</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.9126495513518571</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9143871468002848</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9178015154811454</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9219421804351834</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9274647092812489</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9319421095186291</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9322063741292773</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9324570967302728</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9343932566717817</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9357628125509199</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9380439396807346</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9388154738833342</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9406066865289708</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9421892011912582</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9421892011912582</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.943708514642312</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9460582772170816</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9499211260188011</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9532207964022418</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9537860358623451</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9540738077271829</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9542008496600953</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9582103785050227</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9648561342609476</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9717719733500664</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9772937262642061</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9832953108637984</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9842543869094444</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9843008164414399</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9845863092747603</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9877830635809171</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9933201343749887</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9950777920301968</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9962566744331421</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9993739634729288</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,598 +8191,598 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001554688988855652</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.000280609677298302</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0004497649604424889</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0005139940570502703</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0005139940570502703</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0005207170245469317</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0005405280109078545</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0005405280109078545</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0005405280109078545</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0005405280109078545</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0005405280109078545</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0005405280109078545</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0005526226592766286</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0006464191800304638</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0008970133812899255</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.001066794386090636</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001133182830833604</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001237595473498601</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001265344214485716</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001265344214485716</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.00129928601868449</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001478469586178525</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001607083905346507</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001699583006552725</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001822624931610897</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001865391209755344</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001865391209755344</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.001865391209755344</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.001900720312611787</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001957486438727629</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002099490047913418</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.002262414172388886</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.00246300067349554</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.00266183061672957</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.002882784579686017</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.003097660399887531</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.003313443284496212</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.003499308775028814</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.003718736363230986</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.003927905634937711</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.00395440744468401</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.00395440744468401</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.00395440744468401</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.00395440744468401</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.004038425304464025</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.004052771401390421</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.004113100046567489</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.004301326076553347</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.00452574344496114</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.03700166518406593</v>
+        <v>0.0275868300299913</v>
       </c>
       <c r="AZ4">
-        <v>0.03769300442853995</v>
+        <v>0.0275868300299913</v>
       </c>
       <c r="BA4">
-        <v>0.1242457243769228</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BB4">
-        <v>0.1297380588757842</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BC4">
-        <v>0.150495407377456</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BD4">
-        <v>0.1579039396424244</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BE4">
-        <v>0.1607830414321182</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BF4">
-        <v>0.1710563173442417</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BG4">
-        <v>0.1980679152933867</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BH4">
-        <v>0.2245538653825728</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BI4">
-        <v>0.2349869253168305</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BJ4">
-        <v>0.2359851298892944</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BK4">
-        <v>0.2378824279103604</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BL4">
-        <v>0.2410590611579518</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BM4">
-        <v>0.2416042038270752</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BN4">
-        <v>0.2431167036119972</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BO4">
-        <v>0.2510709610996041</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BP4">
-        <v>0.2535579055368162</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BQ4">
-        <v>0.2540218542461424</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BR4">
-        <v>0.2682337781977806</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BS4">
-        <v>0.2714299429912388</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BT4">
-        <v>0.2725415260854163</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BU4">
-        <v>0.2736863601224272</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BV4">
-        <v>0.2803097072742085</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BW4">
-        <v>0.298226264961878</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BX4">
-        <v>0.3006889874318496</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BY4">
-        <v>0.3037111930698015</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="BZ4">
-        <v>0.3045387224460006</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CA4">
-        <v>0.3045387224460006</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CB4">
-        <v>0.3098628018417676</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CC4">
-        <v>0.3125571003046738</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CD4">
-        <v>0.3125571003046738</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CE4">
-        <v>0.3170283892920869</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CF4">
-        <v>0.3280711607260534</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CG4">
-        <v>0.3460371619891008</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CH4">
-        <v>0.3560295395137052</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CI4">
-        <v>0.3774201925298529</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CJ4">
-        <v>0.3877037371051375</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CK4">
-        <v>0.3911622628454775</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CL4">
-        <v>0.3911622628454775</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CM4">
-        <v>0.3936230748056316</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CN4">
-        <v>0.4159577906173627</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CO4">
-        <v>0.4411734429100904</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CP4">
-        <v>0.4551393225463428</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CQ4">
-        <v>0.472363382324012</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CR4">
-        <v>0.4909573456791822</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CS4">
-        <v>0.493931119460473</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CT4">
-        <v>0.4954109221712544</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CU4">
-        <v>0.5132693523310093</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="CV4">
-        <v>0.5526639727037478</v>
+        <v>0.8092578270459372</v>
       </c>
       <c r="CW4">
-        <v>0.598838143146595</v>
+        <v>1</v>
       </c>
       <c r="CX4">
-        <v>0.6213570698680457</v>
+        <v>1</v>
       </c>
       <c r="CY4">
-        <v>0.6351364649449749</v>
+        <v>1</v>
       </c>
       <c r="CZ4">
-        <v>0.6352677785159915</v>
+        <v>1</v>
       </c>
       <c r="DA4">
-        <v>0.6365138486384395</v>
+        <v>1</v>
       </c>
       <c r="DB4">
-        <v>0.6403421416673601</v>
+        <v>1</v>
       </c>
       <c r="DC4">
-        <v>0.6510290567438071</v>
+        <v>1</v>
       </c>
       <c r="DD4">
-        <v>0.6699532619166173</v>
+        <v>1</v>
       </c>
       <c r="DE4">
-        <v>0.6941822680401093</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.7097788617106096</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.7287689373004007</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.7343967094526105</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.7362464032496269</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.7441324542685795</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.7604233041783662</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.7736774741190344</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.7803356384049498</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.7847557378674642</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.7900634406452296</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.7925754089162776</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.7927579614708656</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.793329644173016</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.7939989996011274</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.7962696938930719</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.7993706231639844</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.8087295210457237</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.8196473056632871</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.8251805232806988</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.8290900429701141</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.8290900429701141</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.8330783474867778</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.8368218975992252</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.842375520290831</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.8458979429323737</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.8458979429323737</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.8459785905922453</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.8459788492488242</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.8459788492488242</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.8460207275092835</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.8460588042658519</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.8468127441293091</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.8470174548536553</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.8471737156750646</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.8473299764964739</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.8480748149778077</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.8515040226154321</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.8561459309391928</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.8600903486841357</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.8601651166297691</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.8608255160524497</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.872449199424479</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8835604933633882</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8885855634793396</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8923656325913991</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8930305761931836</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8938309755952408</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8942758961723001</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8942758961723001</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8953023794504252</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.9028913054301214</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.9152331893194674</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.9213247097999058</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.9218674194827861</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.9221798207801938</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.9224585275063769</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9225739773641453</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9227993189474646</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9241467308362744</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9266945229277485</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9305863998410384</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9323727290667658</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9323958371238483</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9339729207359821</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9369740213900745</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9399059946417422</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9431772602254217</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9448699465904594</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9477490483801533</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.948842578152976</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9488983028036461</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9515580441074923</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9553926256546615</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9625768969589904</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9673641165539001</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9695083420809349</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.971000820061149</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.971000820061149</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9726461580506228</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9767390707800508</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9811345885575875</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9848251018425764</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9886225609017306</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9887429028704007</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9891605849641707</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9897280376715734</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9934845260479827</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9976965611076936</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.998318687690399</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9988569448245693</v>
+        <v>1</v>
       </c>
       <c r="GR4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.187525562373843E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.187525562373843E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.187525562373843E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001463454257903922</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0003871664133689652</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000457771813056382</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0005728363633817435</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0006795832556872648</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0006795832556872648</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0006994560577965359</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0006994560577965359</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0006994560577965359</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0007213313134202743</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0007456776905363512</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0007456776905363512</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0007456776905363512</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0007456776905363512</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0007456776905363512</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0007456776905363512</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0008019933690429079</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0009559604798902496</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001082004049921928</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.00120958951119125</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.00129939599618307</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001366062919023071</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.001366062919023071</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.001366062919023071</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.001444241420348752</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.001517552702133287</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001543739936776403</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.001596514023218798</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.001718268844479591</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.001718268844479591</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.001718268844479591</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.001718268844479591</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.001718268844479591</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.00176479401439285</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.001776617631896306</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.001776617631896306</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.001797823466314721</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.001797823466314721</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.001813308778400118</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.001813308778400118</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.001905905737316532</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.001905905737316532</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.001939457488922454</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.001953859369440368</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.001953859369440368</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.001953859369440368</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.001953859369440368</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.001953859369440368</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.001953859369440368</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.001953859369440368</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.001953859369440368</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.001990505497815053</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.001990505497815053</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.001990505497815053</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.002177182769097131</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.002309426255780934</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.002418272250404769</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.002509770866514178</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.002613623129683898</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.002613623129683898</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.002613623129683898</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.002613623129683898</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.002613623129683898</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.002613623129683898</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.002666618568804529</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.002666618568804529</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.002666618568804529</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.002666618568804529</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.002666618568804529</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.002666618568804529</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.002673170311480701</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.002673170311480701</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.002673170311480701</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.002684993928984157</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.002684993928984157</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.002684993928984157</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.002684993928984157</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.002684993928984157</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.002684993928984157</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.002684993928984157</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.002684993928984157</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.002684993928984157</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.002684993928984157</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.002684993928984157</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.002690118444604199</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.002690118444604199</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.002690118444604199</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1181652952254034</v>
+        <v>0.6114156242134138</v>
       </c>
       <c r="CO5">
-        <v>0.1543541630962791</v>
+        <v>0.6531634443905557</v>
       </c>
       <c r="CP5">
-        <v>0.1927937749031887</v>
+        <v>0.7110827369582848</v>
       </c>
       <c r="CQ5">
-        <v>0.1936305498252698</v>
+        <v>0.7110827369582848</v>
       </c>
       <c r="CR5">
-        <v>0.2217684077839666</v>
+        <v>0.7110827369582848</v>
       </c>
       <c r="CS5">
-        <v>0.2217684077839666</v>
+        <v>0.7110827369582848</v>
       </c>
       <c r="CT5">
-        <v>0.236545793100034</v>
+        <v>0.7110827369582848</v>
       </c>
       <c r="CU5">
-        <v>0.2493940581338197</v>
+        <v>0.7110827369582848</v>
       </c>
       <c r="CV5">
-        <v>0.281259101285366</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="CW5">
-        <v>0.3080100737948002</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="CX5">
-        <v>0.3080563825587475</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="CY5">
-        <v>0.3102156964927203</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="CZ5">
-        <v>0.3144456594996743</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DA5">
-        <v>0.3228577870985234</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DB5">
-        <v>0.3235419550626449</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DC5">
-        <v>0.3246606669174036</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DD5">
-        <v>0.3405192836820984</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DE5">
-        <v>0.3427600758589073</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DF5">
-        <v>0.3494944029758387</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DG5">
-        <v>0.3673287112367672</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DH5">
-        <v>0.3674165197578684</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DI5">
-        <v>0.3683256163551799</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DJ5">
-        <v>0.368548135086251</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DK5">
-        <v>0.3822429329247565</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DL5">
-        <v>0.3947838689828407</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DM5">
-        <v>0.3952586816204546</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DN5">
-        <v>0.4019265192359497</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DO5">
-        <v>0.4019265192359497</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DP5">
-        <v>0.4027697109986824</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DQ5">
-        <v>0.4118689115413018</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DR5">
-        <v>0.4143156701911841</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DS5">
-        <v>0.4143388900932254</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DT5">
-        <v>0.4181966179772765</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DU5">
-        <v>0.4328979041684326</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DV5">
-        <v>0.4449673296666429</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DW5">
-        <v>0.4539236352321082</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DX5">
-        <v>0.477052794630809</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DY5">
-        <v>0.477508413516848</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="DZ5">
-        <v>0.4792911262194738</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="EA5">
-        <v>0.4792911262194738</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="EB5">
-        <v>0.4883624992200001</v>
+        <v>0.7217641124142268</v>
       </c>
       <c r="EC5">
-        <v>0.5201089736393035</v>
+        <v>0.7315935779975457</v>
       </c>
       <c r="ED5">
-        <v>0.5377414042353037</v>
+        <v>0.7315935779975457</v>
       </c>
       <c r="EE5">
-        <v>0.5526760594509849</v>
+        <v>0.7315935779975457</v>
       </c>
       <c r="EF5">
-        <v>0.5689304528134901</v>
+        <v>0.7315935779975457</v>
       </c>
       <c r="EG5">
-        <v>0.5816163813766312</v>
+        <v>0.7315935779975457</v>
       </c>
       <c r="EH5">
-        <v>0.5816163813766312</v>
+        <v>0.7315935779975457</v>
       </c>
       <c r="EI5">
-        <v>0.5872018488854946</v>
+        <v>0.7315935779975457</v>
       </c>
       <c r="EJ5">
-        <v>0.6200492735472147</v>
+        <v>0.7493333110100526</v>
       </c>
       <c r="EK5">
-        <v>0.6735019519830673</v>
+        <v>0.9151206682656784</v>
       </c>
       <c r="EL5">
-        <v>0.7156938593882901</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EM5">
-        <v>0.7394307868925032</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EN5">
-        <v>0.7496120995407435</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EO5">
-        <v>0.7496120995407435</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EP5">
-        <v>0.7505343811070335</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EQ5">
-        <v>0.7529550634728649</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER5">
-        <v>0.766085707565706</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES5">
-        <v>0.7843394381155089</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET5">
-        <v>0.8019801552164146</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU5">
-        <v>0.819565661116763</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV5">
-        <v>0.8359636086794775</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW5">
-        <v>0.8369647474421145</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX5">
-        <v>0.8394702777065031</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY5">
-        <v>0.8483026716841475</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ5">
-        <v>0.8590531416724583</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA5">
-        <v>0.8666897537841879</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB5">
-        <v>0.8677330903389182</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC5">
-        <v>0.8697595046002506</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD5">
-        <v>0.8716570581236639</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE5">
-        <v>0.8716570581236639</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF5">
-        <v>0.8716570581236639</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG5">
-        <v>0.871741280136147</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH5">
-        <v>0.8741880387860294</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI5">
-        <v>0.8780995759297123</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ5">
-        <v>0.8822549961469862</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK5">
-        <v>0.8954405690613256</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL5">
-        <v>0.9037918063901238</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM5">
-        <v>0.9071941297829128</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN5">
-        <v>0.9081795341405987</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO5">
-        <v>0.9111048300180413</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP5">
-        <v>0.9196977645221027</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ5">
-        <v>0.9271116459864192</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR5">
-        <v>0.935938160791424</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS5">
-        <v>0.9415095662294474</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT5">
-        <v>0.94159430949539</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU5">
-        <v>0.9428117674787468</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV5">
-        <v>0.943473458526856</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW5">
-        <v>0.943473458526856</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX5">
-        <v>0.9435030559152531</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY5">
-        <v>0.9435030559152531</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ5">
-        <v>0.9437127853432264</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA5">
-        <v>0.9437127853432264</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB5">
-        <v>0.9438397534101084</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC5">
-        <v>0.9438397534101084</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD5">
-        <v>0.945481418788488</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE5">
-        <v>0.9530727136321233</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF5">
-        <v>0.9619033818471011</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG5">
-        <v>0.967197381957366</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH5">
-        <v>0.9679867464410262</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI5">
-        <v>0.9688490124317947</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ5">
-        <v>0.9780317077897175</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK5">
-        <v>0.9835859495581351</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL5">
-        <v>0.9849303060496761</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM5">
-        <v>0.9856167211619716</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN5">
-        <v>0.9856167211619716</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO5">
-        <v>0.9860974277006292</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP5">
-        <v>0.9860974277006292</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ5">
-        <v>0.9862243957675112</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR5">
-        <v>0.9887289951967569</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9743,766 +9743,766 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.406476447369226E-06</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>7.954954543462721E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0003423132056726807</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0004442151659410541</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0005354544940376856</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0006677562424719876</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0006677562424719876</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0006825499501709984</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0006825499501709984</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0006825499501709984</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0007108007806426564</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0007840669451462635</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0007909586183780914</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0008383512581691564</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0008383512581691564</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0008744602104086616</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.00103006837554855</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.001040738102714393</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.001280005152537081</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.001371412505022302</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.001371412505022302</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.001371412505022302</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.001371412505022302</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001371412505022302</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001371412505022302</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001371412505022302</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001371412505022302</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.001371412505022302</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001371412505022302</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001396014068481161</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001477677527653349</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001477677527653349</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001564482879955706</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001668556064597948</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.001737962617216489</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.00187526365913538</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.002264199416819644</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.002309643610589335</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.00238901953251267</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.00238901953251267</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.00238901953251267</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.00238901953251267</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.00238901953251267</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.00238901953251267</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.00238901953251267</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.00238901953251267</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.003457525143058152</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.05845346263220604</v>
+        <v>0.3068863798367874</v>
       </c>
       <c r="AZ6">
-        <v>0.1114588719415753</v>
+        <v>0.5889923786265524</v>
       </c>
       <c r="BA6">
-        <v>0.12352173954001</v>
+        <v>0.5889923786265524</v>
       </c>
       <c r="BB6">
-        <v>0.1382131888678695</v>
+        <v>0.5889923786265524</v>
       </c>
       <c r="BC6">
-        <v>0.1544972686403224</v>
+        <v>0.5889923786265524</v>
       </c>
       <c r="BD6">
-        <v>0.1557804204379553</v>
+        <v>0.5889923786265524</v>
       </c>
       <c r="BE6">
-        <v>0.1566798856843411</v>
+        <v>0.5889923786265524</v>
       </c>
       <c r="BF6">
-        <v>0.2000565655235977</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BG6">
-        <v>0.2289947934297686</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BH6">
-        <v>0.2348595887809658</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BI6">
-        <v>0.2390867544278168</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BJ6">
-        <v>0.2419631587497145</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BK6">
-        <v>0.2472361223689641</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BL6">
-        <v>0.2478117664155039</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BM6">
-        <v>0.2479823912127329</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BN6">
-        <v>0.2516170100504007</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BO6">
-        <v>0.2560395501928163</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BP6">
-        <v>0.2601927767926571</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BQ6">
-        <v>0.2673614962648282</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BR6">
-        <v>0.273990274820395</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BS6">
-        <v>0.2742052785623266</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BT6">
-        <v>0.2781589231606673</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BU6">
-        <v>0.2825376008041773</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BV6">
-        <v>0.2948391415296266</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BW6">
-        <v>0.3090402766661265</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BX6">
-        <v>0.313156176153137</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BY6">
-        <v>0.3163799149173577</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="BZ6">
-        <v>0.3166718865669885</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CA6">
-        <v>0.3184567715818634</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CB6">
-        <v>0.3198564550066567</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CC6">
-        <v>0.3202962499557779</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CD6">
-        <v>0.32177466986463</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CE6">
-        <v>0.3298721669631061</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CF6">
-        <v>0.3461767995014883</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CG6">
-        <v>0.3616944657602718</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CH6">
-        <v>0.3783894416297432</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CI6">
-        <v>0.3973009885806609</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CJ6">
-        <v>0.3973726101385132</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CK6">
-        <v>0.397501418048579</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CL6">
-        <v>0.3976837270516587</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CM6">
-        <v>0.4065640881925784</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CN6">
-        <v>0.4316548040385272</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CO6">
-        <v>0.4512315523231215</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CP6">
-        <v>0.4686050554585853</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CQ6">
-        <v>0.4861753848454821</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CR6">
-        <v>0.5004245450599735</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CS6">
-        <v>0.5004245450599735</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CT6">
-        <v>0.5091114378004418</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CU6">
-        <v>0.537412438689298</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="CV6">
-        <v>0.5840699143854737</v>
+        <v>0.9543085237955641</v>
       </c>
       <c r="CW6">
-        <v>0.6180849067023833</v>
+        <v>1</v>
       </c>
       <c r="CX6">
-        <v>0.6367702596432684</v>
+        <v>1</v>
       </c>
       <c r="CY6">
-        <v>0.6408571313147928</v>
+        <v>1</v>
       </c>
       <c r="CZ6">
-        <v>0.6410358774057406</v>
+        <v>1</v>
       </c>
       <c r="DA6">
-        <v>0.643698375768709</v>
+        <v>1</v>
       </c>
       <c r="DB6">
-        <v>0.6507248350313396</v>
+        <v>1</v>
       </c>
       <c r="DC6">
-        <v>0.6714667849885765</v>
+        <v>1</v>
       </c>
       <c r="DD6">
-        <v>0.6940798865031557</v>
+        <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.7144182310884438</v>
+        <v>1</v>
       </c>
       <c r="DF6">
-        <v>0.7317996922597433</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.7431571205980536</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.7431659592366476</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.7477859508540331</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.7586205407001976</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.7704938950835712</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.7798023594062584</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.7846606519575717</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.7898414787218294</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.7940734407915789</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.7954984367943814</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.7967547726378967</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.796902246984564</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.7972466558431875</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.7995027990676258</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.8048160266769807</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.8140223691270352</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.8209342093481792</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.8263273460019387</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.8267712677002228</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.8287414167426542</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.8328062871376615</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.8390031979862891</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.8433306005049817</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.8443577414683181</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.8443577414683181</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8443577414683181</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.8443577414683181</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.8443577414683181</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.8443577414683181</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8450102264813891</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.8453662919001316</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.845746575000152</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.8463850030308077</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8471513408949646</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.8500962080561618</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.8570231649958683</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8625778840553661</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8646841699704485</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8646841699704485</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8685020862972135</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8781738759781725</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8864796480685621</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8903883320462688</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8922535092514562</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8932860002622309</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8946931372846001</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8947355981631617</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8947355981631617</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8968795928157572</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.9075394562623956</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.913738531307337</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.9168490193213862</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.9168490193213862</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.9170477101445706</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.9171869796315509</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9174691995991959</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9182832852727071</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9203854800048706</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9236772309200864</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9266827290450198</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9266827290450198</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9272524039359098</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9323539675679617</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.935929310245012</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9407220227801005</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9431873908494359</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9460445715505257</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9481970947998033</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9482729447652245</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9493969664734762</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9521866896622607</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9579907139955929</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.964766641674088</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9671983328610484</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9694492777549033</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9698022639198381</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9700503261559797</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9723926383677306</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9760792693130935</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9792868727463911</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9826847833728632</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9837417527217748</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9838113162242628</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9845467797084314</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9880708870153481</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9948934392305464</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9977295931519502</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9986366118896968</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9995702963859311</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9996731846274548</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="E2">
-        <v>0.01443507791253881</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5168025671549229</v>
+        <v>0.5830424630503256</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -10611,16 +10611,16 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="E3">
-        <v>0.01721276956195759</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5048969873449937</v>
+        <v>0.5066265505799533</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -10652,16 +10652,16 @@
         <v>50</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="E4">
-        <v>0.03700166518406593</v>
+        <v>0.0275868300299913</v>
       </c>
       <c r="F4">
-        <v>0.5132693523310093</v>
+        <v>0.6992646491263504</v>
       </c>
       <c r="G4">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="E5">
-        <v>0.002690118444604199</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5201089736393035</v>
+        <v>0.6114156242134138</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>0.003457525143058152</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5004245450599735</v>
+        <v>0.5889923786265524</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>0.01443507791253881</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7372469093925552</v>
+        <v>0.7115334285236333</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -10870,16 +10870,16 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>0.01721276956195759</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7107951821254275</v>
+        <v>0.7210068031609971</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -10911,16 +10911,16 @@
         <v>50</v>
       </c>
       <c r="D4">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0.03700166518406593</v>
+        <v>0.0275868300299913</v>
       </c>
       <c r="F4">
-        <v>0.7097788617106096</v>
+        <v>0.8092578270459372</v>
       </c>
       <c r="G4">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.002690118444604199</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7156938593882901</v>
+        <v>0.7110827369582848</v>
       </c>
       <c r="G5">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>0.003457525143058152</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7144182310884438</v>
+        <v>0.7512288936822942</v>
       </c>
       <c r="G6">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E2">
-        <v>0.01443507791253881</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8033949202666438</v>
+        <v>0.9540096285339283</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -11129,16 +11129,16 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.01721276956195759</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8000092122500818</v>
+        <v>0.9919638596884969</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -11170,16 +11170,16 @@
         <v>50</v>
       </c>
       <c r="D4">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0.03700166518406593</v>
+        <v>0.0275868300299913</v>
       </c>
       <c r="F4">
-        <v>0.8087295210457237</v>
+        <v>0.8092578270459372</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E5">
-        <v>0.002690118444604199</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8019801552164146</v>
+        <v>0.9151206682656784</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.003457525143058152</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8048160266769807</v>
+        <v>0.9543085237955641</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="E2">
-        <v>0.01443507791253881</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9020923704981405</v>
+        <v>0.9540096285339283</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -11388,16 +11388,16 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.01721276956195759</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9037464042016434</v>
+        <v>0.9919638596884969</v>
       </c>
       <c r="G3">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -11429,16 +11429,16 @@
         <v>50</v>
       </c>
       <c r="D4">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.03700166518406593</v>
+        <v>0.0275868300299913</v>
       </c>
       <c r="F4">
-        <v>0.9028913054301214</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="E5">
-        <v>0.002690118444604199</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9037918063901238</v>
+        <v>0.9151206682656784</v>
       </c>
       <c r="G5">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.003457525143058152</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9075394562623956</v>
+        <v>0.9543085237955641</v>
       </c>
       <c r="G6">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>11</v>

--- a/on_trucks/Processed_Stand_Alone/11_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/11_225-80R17.xlsx
@@ -1037,64 +1037,64 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.3645943188240445</v>
+        <v>0.2563095199472534</v>
       </c>
       <c r="AT2">
-        <v>0.2561021453498821</v>
+        <v>0.1877326955982734</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>0.01641376049341492</v>
       </c>
       <c r="AV2">
         <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.08400304878036186</v>
+        <v>0.07895056746737363</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>0.005031726780633876</v>
       </c>
       <c r="AY2">
-        <v>0.02912447706092768</v>
+        <v>0.04426236782297439</v>
       </c>
       <c r="AZ2">
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.1782578951034398</v>
+        <v>0.1385281188552363</v>
       </c>
       <c r="BB2">
-        <v>0.008127504479947168</v>
+        <v>0.03099039018221705</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>0.001604330920150875</v>
       </c>
       <c r="BD2">
         <v>0</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>0.017707413246459</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>0.01756776612541485</v>
       </c>
       <c r="BG2">
         <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.007457564503908597</v>
+        <v>0.0305669277831335</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>0.02361776384417493</v>
       </c>
       <c r="BJ2">
         <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.03752175144230676</v>
+        <v>0.04957020148342885</v>
       </c>
       <c r="BL2">
-        <v>0.005793438614446477</v>
+        <v>0.02951505035122444</v>
       </c>
       <c r="BM2">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.02901785584073522</v>
+        <v>0.04419497360959591</v>
       </c>
       <c r="BQ2">
         <v>0</v>
@@ -1115,16 +1115,16 @@
         <v>0</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>0.006640389362154733</v>
       </c>
       <c r="BT2">
         <v>0</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>0.005481571650646746</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>0.01531446447623926</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1144,37 +1144,37 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01943779290042094</v>
+        <v>0.03881072428427845</v>
       </c>
       <c r="E3">
-        <v>0.09810129671326596</v>
+        <v>0.09247778722679539</v>
       </c>
       <c r="F3">
-        <v>0.3840355164223354</v>
+        <v>0.2875523646706792</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01858991294365847</v>
       </c>
       <c r="I3">
-        <v>0.05555734058798482</v>
+        <v>0.06345277485725591</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02038411889707667</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.01518465270516407</v>
       </c>
       <c r="L3">
-        <v>0.1863109202341916</v>
+        <v>0.1526575553298814</v>
       </c>
       <c r="M3">
-        <v>0.2006797147501168</v>
+        <v>0.1624604621712664</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00769162683087223</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00683074529184893</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1192,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.02377255845475779</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0008553208137655354</v>
       </c>
       <c r="W3">
-        <v>0.05587741839168441</v>
+        <v>0.06367114341198642</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00827668005687005</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.02204347967635454</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.008967235028204734</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.006320857349283903</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1374,37 +1374,37 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1425842951269239</v>
+        <v>0.1244513394714328</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4743884999966296</v>
+        <v>0.3532062160530097</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0103057655233984</v>
       </c>
       <c r="H4">
-        <v>0.0706815197405886</v>
+        <v>0.07487960328492826</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01841163713575468</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.006353388553737144</v>
+        <v>0.03053003358568293</v>
       </c>
       <c r="L4">
-        <v>0.1090563187984889</v>
+        <v>0.1013362373284298</v>
       </c>
       <c r="M4">
-        <v>0.1058310507354627</v>
+        <v>0.09911264948092254</v>
       </c>
       <c r="N4">
-        <v>0.007333790725662096</v>
+        <v>0.0312059496064792</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.000509920142833638</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.02072015594763041</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.03052012963842993</v>
+        <v>0.04719124460432774</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.0005925422009470533</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.01509015861615545</v>
       </c>
       <c r="AB4">
-        <v>0.0532510066840771</v>
+        <v>0.06286253175757493</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.009594015260492247</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1727,34 +1727,34 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.4768058580721947</v>
+        <v>0.3369532617340459</v>
       </c>
       <c r="AT5">
-        <v>0.1102462066986652</v>
+        <v>0.09718574479993639</v>
       </c>
       <c r="AU5">
-        <v>0.1206519365638425</v>
+        <v>0.1039921568049453</v>
       </c>
       <c r="AV5">
         <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.07302445394982746</v>
+        <v>0.07283891011946055</v>
       </c>
       <c r="AX5">
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.01125577961752018</v>
+        <v>0.0324358771793259</v>
       </c>
       <c r="AZ5">
-        <v>0.00233699316052675</v>
+        <v>0.02660207830144619</v>
       </c>
       <c r="BA5">
-        <v>0.09025612639970371</v>
+        <v>0.08411018697834913</v>
       </c>
       <c r="BB5">
-        <v>0.0666125493755549</v>
+        <v>0.06864486848713371</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>0.0005397113484173272</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>0.0131868787269319</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1775,16 +1775,16 @@
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.01625457232602176</v>
+        <v>0.03570559906741341</v>
       </c>
       <c r="BJ5">
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>0.00811308905263553</v>
       </c>
       <c r="BL5">
-        <v>0.02538866869193845</v>
+        <v>0.04168023265538847</v>
       </c>
       <c r="BM5">
         <v>0</v>
@@ -1796,16 +1796,16 @@
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.006250717661523276</v>
+        <v>0.02916205456193181</v>
       </c>
       <c r="BQ5">
-        <v>0.0009161374826810283</v>
+        <v>0.02567269331179372</v>
       </c>
       <c r="BR5">
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>0.007912020004514424</v>
       </c>
       <c r="BT5">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>0.01526463686633011</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -1834,19 +1834,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2772325204495594</v>
+        <v>0.2150422524604174</v>
       </c>
       <c r="E6">
-        <v>0.265090741873089</v>
+        <v>0.2067894590214242</v>
       </c>
       <c r="F6">
-        <v>0.01535035594830435</v>
+        <v>0.03704037280387094</v>
       </c>
       <c r="G6">
-        <v>0.031384119073618</v>
+        <v>0.04793855664815475</v>
       </c>
       <c r="H6">
-        <v>0.0410988100831919</v>
+        <v>0.05454165336258725</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1855,22 +1855,22 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2063576365664133</v>
+        <v>0.1668684389604949</v>
       </c>
       <c r="L6">
-        <v>0.118286295432205</v>
+        <v>0.1070061558774985</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01134296721270965</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.004553302129428794</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.008889213940576143</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1879,40 +1879,40 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.002096584124226801</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.005363331031065469</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.004246748477865529</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.01674907828405115</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.01451046599045766</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.003419275122173354</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.005181475709013975</v>
       </c>
       <c r="AA6">
-        <v>0.01680620886704472</v>
+        <v>0.03802991921506999</v>
       </c>
       <c r="AB6">
-        <v>0.02839331170657429</v>
+        <v>0.04590569834320564</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.004091989075314718</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.0003930622103931885</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -2430,91 +2430,91 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.3645943188240445</v>
+        <v>0.2563095199472534</v>
       </c>
       <c r="AT2">
-        <v>0.6206964641739265</v>
+        <v>0.4440422155455268</v>
       </c>
       <c r="AU2">
-        <v>0.6206964641739265</v>
+        <v>0.4604559760389417</v>
       </c>
       <c r="AV2">
-        <v>0.6206964641739265</v>
+        <v>0.4604559760389417</v>
       </c>
       <c r="AW2">
-        <v>0.7046995129542883</v>
+        <v>0.5394065435063153</v>
       </c>
       <c r="AX2">
-        <v>0.7046995129542883</v>
+        <v>0.5444382702869492</v>
       </c>
       <c r="AY2">
-        <v>0.733823990015216</v>
+        <v>0.5887006381099237</v>
       </c>
       <c r="AZ2">
-        <v>0.733823990015216</v>
+        <v>0.5887006381099237</v>
       </c>
       <c r="BA2">
-        <v>0.9120818851186558</v>
+        <v>0.72722875696516</v>
       </c>
       <c r="BB2">
-        <v>0.920209389598603</v>
+        <v>0.758219147147377</v>
       </c>
       <c r="BC2">
-        <v>0.920209389598603</v>
+        <v>0.7598234780675279</v>
       </c>
       <c r="BD2">
-        <v>0.920209389598603</v>
+        <v>0.7598234780675279</v>
       </c>
       <c r="BE2">
-        <v>0.920209389598603</v>
+        <v>0.7775308913139869</v>
       </c>
       <c r="BF2">
-        <v>0.920209389598603</v>
+        <v>0.7950986574394018</v>
       </c>
       <c r="BG2">
-        <v>0.920209389598603</v>
+        <v>0.7950986574394018</v>
       </c>
       <c r="BH2">
-        <v>0.9276669541025115</v>
+        <v>0.8256655852225353</v>
       </c>
       <c r="BI2">
-        <v>0.9276669541025115</v>
+        <v>0.8492833490667102</v>
       </c>
       <c r="BJ2">
-        <v>0.9276669541025115</v>
+        <v>0.8492833490667102</v>
       </c>
       <c r="BK2">
-        <v>0.9651887055448183</v>
+        <v>0.898853550550139</v>
       </c>
       <c r="BL2">
-        <v>0.9709821441592648</v>
+        <v>0.9283686009013635</v>
       </c>
       <c r="BM2">
-        <v>0.9709821441592648</v>
+        <v>0.9283686009013635</v>
       </c>
       <c r="BN2">
-        <v>0.9709821441592648</v>
+        <v>0.9283686009013635</v>
       </c>
       <c r="BO2">
-        <v>0.9709821441592648</v>
+        <v>0.9283686009013635</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>0.9725635745109594</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
+        <v>0.9725635745109594</v>
       </c>
       <c r="BR2">
-        <v>1</v>
+        <v>0.9725635745109594</v>
       </c>
       <c r="BS2">
-        <v>1</v>
+        <v>0.9792039638731141</v>
       </c>
       <c r="BT2">
-        <v>1</v>
+        <v>0.9792039638731141</v>
       </c>
       <c r="BU2">
-        <v>1</v>
+        <v>0.9846855355237609</v>
       </c>
       <c r="BV2">
         <v>1</v>
@@ -2537,223 +2537,223 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01943779290042094</v>
+        <v>0.03881072428427845</v>
       </c>
       <c r="E3">
-        <v>0.1175390896136869</v>
+        <v>0.1312885115110738</v>
       </c>
       <c r="F3">
-        <v>0.5015746060360223</v>
+        <v>0.4188408761817531</v>
       </c>
       <c r="G3">
-        <v>0.5015746060360223</v>
+        <v>0.4188408761817531</v>
       </c>
       <c r="H3">
-        <v>0.5015746060360223</v>
+        <v>0.4374307891254116</v>
       </c>
       <c r="I3">
-        <v>0.5571319466240071</v>
+        <v>0.5008835639826674</v>
       </c>
       <c r="J3">
-        <v>0.5571319466240071</v>
+        <v>0.5212676828797441</v>
       </c>
       <c r="K3">
-        <v>0.5571319466240071</v>
+        <v>0.5364523355849082</v>
       </c>
       <c r="L3">
-        <v>0.7434428668581987</v>
+        <v>0.6891098909147897</v>
       </c>
       <c r="M3">
-        <v>0.9441225816083155</v>
+        <v>0.8515703530860561</v>
       </c>
       <c r="N3">
-        <v>0.9441225816083155</v>
+        <v>0.8592619799169283</v>
       </c>
       <c r="O3">
-        <v>0.9441225816083155</v>
+        <v>0.8592619799169283</v>
       </c>
       <c r="P3">
-        <v>0.9441225816083155</v>
+        <v>0.8592619799169283</v>
       </c>
       <c r="Q3">
-        <v>0.9441225816083155</v>
+        <v>0.8660927252087772</v>
       </c>
       <c r="R3">
-        <v>0.9441225816083155</v>
+        <v>0.8660927252087772</v>
       </c>
       <c r="S3">
-        <v>0.9441225816083155</v>
+        <v>0.8660927252087772</v>
       </c>
       <c r="T3">
-        <v>0.9441225816083155</v>
+        <v>0.889865283663535</v>
       </c>
       <c r="U3">
-        <v>0.9441225816083155</v>
+        <v>0.889865283663535</v>
       </c>
       <c r="V3">
-        <v>0.9441225816083155</v>
+        <v>0.8907206044773005</v>
       </c>
       <c r="W3">
-        <v>0.9999999999999999</v>
+        <v>0.9543917478892869</v>
       </c>
       <c r="X3">
-        <v>0.9999999999999999</v>
+        <v>0.962668427946157</v>
       </c>
       <c r="Y3">
-        <v>0.9999999999999999</v>
+        <v>0.962668427946157</v>
       </c>
       <c r="Z3">
-        <v>0.9999999999999999</v>
+        <v>0.962668427946157</v>
       </c>
       <c r="AA3">
-        <v>0.9999999999999999</v>
+        <v>0.962668427946157</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999999</v>
+        <v>0.9847119076225116</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999999</v>
+        <v>0.9847119076225116</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999999</v>
+        <v>0.9847119076225116</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>0.9847119076225116</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>0.9847119076225116</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.9936791426507163</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:76">
@@ -2767,223 +2767,223 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1425842951269239</v>
+        <v>0.1244513394714328</v>
       </c>
       <c r="E4">
-        <v>0.1425842951269239</v>
+        <v>0.1244513394714328</v>
       </c>
       <c r="F4">
-        <v>0.6169727951235534</v>
+        <v>0.4776575555244426</v>
       </c>
       <c r="G4">
-        <v>0.6169727951235534</v>
+        <v>0.487963321047841</v>
       </c>
       <c r="H4">
-        <v>0.687654314864142</v>
+        <v>0.5628429243327693</v>
       </c>
       <c r="I4">
-        <v>0.687654314864142</v>
+        <v>0.5812545614685239</v>
       </c>
       <c r="J4">
-        <v>0.687654314864142</v>
+        <v>0.5812545614685239</v>
       </c>
       <c r="K4">
-        <v>0.6940077034178791</v>
+        <v>0.6117845950542069</v>
       </c>
       <c r="L4">
-        <v>0.803064022216368</v>
+        <v>0.7131208323826367</v>
       </c>
       <c r="M4">
-        <v>0.9088950729518306</v>
+        <v>0.8122334818635593</v>
       </c>
       <c r="N4">
-        <v>0.9162288636774927</v>
+        <v>0.8434394314700384</v>
       </c>
       <c r="O4">
-        <v>0.9162288636774927</v>
+        <v>0.8434394314700384</v>
       </c>
       <c r="P4">
-        <v>0.9162288636774927</v>
+        <v>0.8434394314700384</v>
       </c>
       <c r="Q4">
-        <v>0.9162288636774927</v>
+        <v>0.8439493516128721</v>
       </c>
       <c r="R4">
-        <v>0.9162288636774927</v>
+        <v>0.8439493516128721</v>
       </c>
       <c r="S4">
-        <v>0.9162288636774927</v>
+        <v>0.8439493516128721</v>
       </c>
       <c r="T4">
-        <v>0.9162288636774927</v>
+        <v>0.8646695075605025</v>
       </c>
       <c r="U4">
-        <v>0.9162288636774927</v>
+        <v>0.8646695075605025</v>
       </c>
       <c r="V4">
-        <v>0.9162288636774927</v>
+        <v>0.8646695075605025</v>
       </c>
       <c r="W4">
-        <v>0.9467489933159227</v>
+        <v>0.9118607521648303</v>
       </c>
       <c r="X4">
-        <v>0.9467489933159227</v>
+        <v>0.9124532943657774</v>
       </c>
       <c r="Y4">
-        <v>0.9467489933159227</v>
+        <v>0.9124532943657774</v>
       </c>
       <c r="Z4">
-        <v>0.9467489933159227</v>
+        <v>0.9124532943657774</v>
       </c>
       <c r="AA4">
-        <v>0.9467489933159227</v>
+        <v>0.9275434529819329</v>
       </c>
       <c r="AB4">
-        <v>0.9999999999999998</v>
+        <v>0.9904059847395078</v>
       </c>
       <c r="AC4">
-        <v>0.9999999999999998</v>
+        <v>0.9904059847395078</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999998</v>
+        <v>0.9904059847395078</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999998</v>
+        <v>0.9904059847395078</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999998</v>
+        <v>0.9904059847395078</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:76">
@@ -3120,100 +3120,100 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.4768058580721947</v>
+        <v>0.3369532617340459</v>
       </c>
       <c r="AT5">
-        <v>0.5870520647708599</v>
+        <v>0.4341390065339823</v>
       </c>
       <c r="AU5">
-        <v>0.7077040013347025</v>
+        <v>0.5381311633389276</v>
       </c>
       <c r="AV5">
-        <v>0.7077040013347025</v>
+        <v>0.5381311633389276</v>
       </c>
       <c r="AW5">
-        <v>0.7807284552845299</v>
+        <v>0.6109700734583882</v>
       </c>
       <c r="AX5">
-        <v>0.7807284552845299</v>
+        <v>0.6109700734583882</v>
       </c>
       <c r="AY5">
-        <v>0.7919842349020502</v>
+        <v>0.6434059506377141</v>
       </c>
       <c r="AZ5">
-        <v>0.7943212280625769</v>
+        <v>0.6700080289391603</v>
       </c>
       <c r="BA5">
-        <v>0.8845773544622806</v>
+        <v>0.7541182159175095</v>
       </c>
       <c r="BB5">
-        <v>0.9511899038378355</v>
+        <v>0.8227630844046432</v>
       </c>
       <c r="BC5">
-        <v>0.9511899038378355</v>
+        <v>0.8227630844046432</v>
       </c>
       <c r="BD5">
-        <v>0.9511899038378355</v>
+        <v>0.8227630844046432</v>
       </c>
       <c r="BE5">
-        <v>0.9511899038378355</v>
+        <v>0.8233027957530605</v>
       </c>
       <c r="BF5">
-        <v>0.9511899038378355</v>
+        <v>0.8364896744799925</v>
       </c>
       <c r="BG5">
-        <v>0.9511899038378355</v>
+        <v>0.8364896744799925</v>
       </c>
       <c r="BH5">
-        <v>0.9511899038378355</v>
+        <v>0.8364896744799925</v>
       </c>
       <c r="BI5">
-        <v>0.9674444761638573</v>
+        <v>0.8721952735474059</v>
       </c>
       <c r="BJ5">
-        <v>0.9674444761638573</v>
+        <v>0.8721952735474059</v>
       </c>
       <c r="BK5">
-        <v>0.9674444761638573</v>
+        <v>0.8803083626000414</v>
       </c>
       <c r="BL5">
-        <v>0.9928331448557958</v>
+        <v>0.9219885952554299</v>
       </c>
       <c r="BM5">
-        <v>0.9928331448557958</v>
+        <v>0.9219885952554299</v>
       </c>
       <c r="BN5">
-        <v>0.9928331448557958</v>
+        <v>0.9219885952554299</v>
       </c>
       <c r="BO5">
-        <v>0.9928331448557958</v>
+        <v>0.9219885952554299</v>
       </c>
       <c r="BP5">
-        <v>0.9990838625173191</v>
+        <v>0.9511506498173616</v>
       </c>
       <c r="BQ5">
-        <v>1</v>
+        <v>0.9768233431291553</v>
       </c>
       <c r="BR5">
-        <v>1</v>
+        <v>0.9768233431291553</v>
       </c>
       <c r="BS5">
-        <v>1</v>
+        <v>0.9847353631336697</v>
       </c>
       <c r="BT5">
-        <v>1</v>
+        <v>0.9847353631336697</v>
       </c>
       <c r="BU5">
-        <v>1</v>
+        <v>0.9847353631336697</v>
       </c>
       <c r="BV5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:76">
@@ -3227,82 +3227,82 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2772325204495594</v>
+        <v>0.2150422524604174</v>
       </c>
       <c r="E6">
-        <v>0.5423232623226484</v>
+        <v>0.4218317114818416</v>
       </c>
       <c r="F6">
-        <v>0.5576736182709527</v>
+        <v>0.4588720842857126</v>
       </c>
       <c r="G6">
-        <v>0.5890577373445708</v>
+        <v>0.5068106409338673</v>
       </c>
       <c r="H6">
-        <v>0.6301565474277627</v>
+        <v>0.5613522942964545</v>
       </c>
       <c r="I6">
-        <v>0.6301565474277627</v>
+        <v>0.5613522942964545</v>
       </c>
       <c r="J6">
-        <v>0.6301565474277627</v>
+        <v>0.5613522942964545</v>
       </c>
       <c r="K6">
-        <v>0.836514183994176</v>
+        <v>0.7282207332569495</v>
       </c>
       <c r="L6">
-        <v>0.954800479426381</v>
+        <v>0.8352268891344479</v>
       </c>
       <c r="M6">
-        <v>0.954800479426381</v>
+        <v>0.8465698563471575</v>
       </c>
       <c r="N6">
-        <v>0.954800479426381</v>
+        <v>0.8511231584765864</v>
       </c>
       <c r="O6">
-        <v>0.954800479426381</v>
+        <v>0.8511231584765864</v>
       </c>
       <c r="P6">
-        <v>0.954800479426381</v>
+        <v>0.8600123724171626</v>
       </c>
       <c r="Q6">
-        <v>0.954800479426381</v>
+        <v>0.8600123724171626</v>
       </c>
       <c r="R6">
-        <v>0.954800479426381</v>
+        <v>0.8600123724171626</v>
       </c>
       <c r="S6">
-        <v>0.954800479426381</v>
+        <v>0.8621089565413893</v>
       </c>
       <c r="T6">
-        <v>0.954800479426381</v>
+        <v>0.8674722875724548</v>
       </c>
       <c r="U6">
-        <v>0.954800479426381</v>
+        <v>0.8717190360503203</v>
       </c>
       <c r="V6">
-        <v>0.954800479426381</v>
+        <v>0.8884681143343715</v>
       </c>
       <c r="W6">
-        <v>0.954800479426381</v>
+        <v>0.9029785803248291</v>
       </c>
       <c r="X6">
-        <v>0.954800479426381</v>
+        <v>0.9029785803248291</v>
       </c>
       <c r="Y6">
-        <v>0.954800479426381</v>
+        <v>0.9063978554470025</v>
       </c>
       <c r="Z6">
-        <v>0.954800479426381</v>
+        <v>0.9115793311560164</v>
       </c>
       <c r="AA6">
-        <v>0.9716066882934258</v>
+        <v>0.9496092503710865</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9955149487142921</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9996069377896069</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -3511,16 +3511,16 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6206964641739265</v>
+        <v>0.5394065435063153</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -3552,16 +3552,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5015746060360223</v>
+        <v>0.5008835639826674</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -3593,16 +3593,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6169727951235534</v>
+        <v>0.5628429243327693</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -3634,16 +3634,16 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5870520647708599</v>
+        <v>0.5381311633389276</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -3675,16 +3675,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5423232623226484</v>
+        <v>0.5068106409338673</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -3770,16 +3770,16 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7046995129542883</v>
+        <v>0.72722875696516</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -3811,16 +3811,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7434428668581987</v>
+        <v>0.8515703530860561</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.803064022216368</v>
+        <v>0.7131208323826367</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -3893,16 +3893,16 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7077040013347025</v>
+        <v>0.7541182159175095</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.836514183994176</v>
+        <v>0.7282207332569495</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -4029,16 +4029,16 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9120818851186558</v>
+        <v>0.8256655852225353</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9441225816083155</v>
+        <v>0.8515703530860561</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -4111,16 +4111,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8122334818635593</v>
+      </c>
+      <c r="G4">
         <v>11</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.803064022216368</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -4152,16 +4152,16 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8845773544622806</v>
+        <v>0.8227630844046432</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -4193,16 +4193,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8352268891344479</v>
+      </c>
+      <c r="G6">
         <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.836514183994176</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -4288,16 +4288,16 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9120818851186558</v>
+        <v>0.9283686009013635</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -4329,16 +4329,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9441225816083155</v>
+        <v>0.9543917478892869</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -4370,16 +4370,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9088950729518306</v>
+        <v>0.9118607521648303</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -4411,16 +4411,16 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9511899038378355</v>
+        <v>0.9219885952554299</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -4452,16 +4452,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.954800479426381</v>
+        <v>0.9029785803248291</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>11</v>
